--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -528,10 +528,10 @@
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
+    <t>Hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <dimension ref="A1:S274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5362,7 +5362,7 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
   <si>
     <t>Activity</t>
   </si>
@@ -285,9 +285,6 @@
     <t>air</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Butane</t>
   </si>
   <si>
@@ -532,6 +529,33 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from electrolysis</t>
+  </si>
+  <si>
+    <t>heat pump, for heat and power co-generation unit, 160kW electrical</t>
+  </si>
+  <si>
+    <t>absorption chiller, 100kW</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>gas turbine, 10MW electrical</t>
+  </si>
+  <si>
+    <t>liquid storage tank, chemicals, organics</t>
+  </si>
+  <si>
+    <t>monoethanolamine</t>
+  </si>
+  <si>
+    <t>pump, 40W</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>spent solvent mixture</t>
   </si>
 </sst>
 </file>
@@ -920,19 +944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -940,18 +964,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -959,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -967,15 +991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -983,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -991,12 +1015,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1025,21 +1049,21 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1051,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1063,12 +1087,12 @@
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>5.81</v>
@@ -1095,24 +1119,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1128,15 +1152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1152,12 +1176,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1186,21 +1210,21 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1212,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1224,12 +1248,12 @@
         <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>5.81</v>
@@ -1256,24 +1280,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1289,15 +1313,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1313,12 +1337,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1347,21 +1371,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1373,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1385,10 +1409,10 @@
         <v>50</v>
       </c>
       <c r="M33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -1426,15 +1450,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1450,15 +1474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1474,20 +1498,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1516,21 +1540,21 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>7.9299999999999995E-13</v>
@@ -1560,9 +1584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>8.0000000000000003E-10</v>
@@ -1592,9 +1616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>1.2100000000000001E-7</v>
@@ -1624,9 +1648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>9.2600000000000001E-10</v>
@@ -1656,9 +1680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>5.2899999999999997E-13</v>
@@ -1688,9 +1712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>9.2600000000000001E-7</v>
@@ -1720,9 +1744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>5.6000000000000001E-2</v>
@@ -1752,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1784,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1848,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1880,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1912,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1944,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2008,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2066,13 +2090,13 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2104,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2136,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2200,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2232,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2264,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2296,9 +2320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2322,7 +2346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2343,7 +2367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2372,7 +2396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2442,9 +2466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -2477,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2515,15 +2539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2531,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2539,15 +2563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2563,20 +2587,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2605,21 +2629,21 @@
         <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
       <c r="L85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>7.9299999999999995E-13</v>
@@ -2649,9 +2673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>8.0000000000000003E-10</v>
@@ -2681,9 +2705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>1.2100000000000001E-7</v>
@@ -2713,9 +2737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>9.2600000000000001E-10</v>
@@ -2745,9 +2769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>5.2899999999999997E-13</v>
@@ -2777,9 +2801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>9.2600000000000001E-7</v>
@@ -2809,9 +2833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>5.5999999999999999E-3</v>
@@ -2841,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2873,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2905,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2937,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -2969,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3001,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3033,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3065,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3097,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3129,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3161,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3193,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3225,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3321,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3353,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3385,9 +3409,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3411,9 +3435,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111">
         <v>5.04E-2</v>
@@ -3440,7 +3464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +3485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3519,7 +3543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3554,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3589,9 +3613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -3624,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3662,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3670,7 +3694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3686,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3694,7 +3718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3702,7 +3726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3710,20 +3734,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3752,21 +3776,21 @@
         <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K128" t="s">
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129">
         <v>7.9299999999999995E-13</v>
@@ -3796,9 +3820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130">
         <v>8.0000000000000003E-10</v>
@@ -3828,9 +3852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B131">
         <v>1.2100000000000001E-7</v>
@@ -3860,9 +3884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132">
         <v>9.2600000000000001E-10</v>
@@ -3892,9 +3916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B133">
         <v>5.2899999999999997E-13</v>
@@ -3924,9 +3948,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B134">
         <v>9.2600000000000001E-7</v>
@@ -3956,9 +3980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="B135">
         <v>5.5999999999999999E-3</v>
@@ -3988,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4020,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4052,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4084,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4116,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4148,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4180,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4212,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4244,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4276,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4308,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4340,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4372,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4404,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4436,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4468,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4500,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4532,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4558,7 +4582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4587,7 +4611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4608,7 +4632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4637,7 +4661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4666,7 +4690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4701,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4736,9 +4760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B160">
         <v>0.5</v>
@@ -4771,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4809,15 +4833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4825,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4833,15 +4857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4849,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4857,28 +4881,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4904,9 +4928,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4924,10 +4948,10 @@
         <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4950,9 +4974,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B176">
         <f>(0.0028236*0.669)+0.208</f>
@@ -4971,12 +4995,12 @@
         <v>25</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -4995,12 +5019,12 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B178">
         <f>0.000000034944*0.669</f>
@@ -5010,21 +5034,21 @@
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F178" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G178" t="s">
         <v>25</v>
       </c>
       <c r="H178" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>159</v>
       </c>
       <c r="B179" s="7">
         <v>8.4800000000000005E-8</v>
@@ -5042,19 +5066,19 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>161</v>
       </c>
       <c r="B180">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C180" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E180" t="s">
         <v>87</v>
@@ -5066,16 +5090,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C181" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E181" t="s">
         <v>87</v>
@@ -5087,7 +5111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5096,7 +5120,7 @@
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C182" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E182" t="s">
         <v>87</v>
@@ -5108,16 +5132,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B183">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E183" t="s">
         <v>87</v>
@@ -5129,7 +5153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5137,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5145,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5153,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5161,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5169,7 +5193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5185,20 +5209,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5262,7 +5286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5299,7 +5323,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5336,9 +5360,9 @@
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5362,12 +5386,12 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5401,7 +5425,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5417,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5425,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5433,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5441,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5449,20 +5473,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5497,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5523,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5558,7 +5582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5574,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5582,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5590,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5598,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5606,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5614,12 +5638,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5654,7 +5678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5680,7 +5704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5750,15 +5774,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5766,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5774,15 +5798,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5790,7 +5814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5798,20 +5822,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>40</v>
       </c>
       <c r="B232" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5837,18 +5861,21 @@
         <v>18</v>
       </c>
       <c r="I234" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J234" t="s">
         <v>11</v>
       </c>
       <c r="K234" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B235">
         <v>1.2300000000000001E-4</v>
@@ -5869,12 +5896,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J235" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B236">
         <v>6.0000000000000002E-6</v>
@@ -5895,21 +5922,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J236" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B237">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D237" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E237" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F237" t="s">
         <v>32</v>
@@ -5921,12 +5948,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J237" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5950,12 +5977,12 @@
         <v>50</v>
       </c>
       <c r="K238" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5979,15 +6006,15 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K239" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B240">
         <v>0.38400000000000001</v>
@@ -6011,15 +6038,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J240" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K240" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B241">
         <v>8.2699999999999996E-11</v>
@@ -6043,15 +6070,18 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J241" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K241" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L241" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B242">
         <v>7.4400000000000002E-10</v>
@@ -6075,15 +6105,18 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J242" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K242" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L242" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B243">
         <v>8.2600000000000002E-5</v>
@@ -6107,15 +6140,18 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J243" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K243" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="L243" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B244">
         <v>3.3099999999999999E-10</v>
@@ -6139,15 +6175,18 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K244" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="L244" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B245">
         <v>5.1400000000000003E-12</v>
@@ -6171,15 +6210,18 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J245" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K245" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="L245" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B246">
         <v>2.8400000000000002E-4</v>
@@ -6203,15 +6245,18 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J246" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K246" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="L246" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B247">
         <v>5.7899999999999997E-10</v>
@@ -6235,13 +6280,16 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K247" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="L247" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6267,15 +6315,18 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J248" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K248" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B249">
         <v>-2.2699999999999999E-4</v>
@@ -6299,13 +6350,16 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K249" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="L249" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6321,7 +6375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6329,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6337,7 +6391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6345,7 +6399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6353,20 +6407,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6392,18 +6446,21 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J259" t="s">
         <v>11</v>
       </c>
       <c r="K259" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B260">
         <v>1.2300000000000001E-4</v>
@@ -6424,12 +6481,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B261">
         <v>6.0000000000000002E-6</v>
@@ -6450,21 +6507,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J261" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B262">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D262" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E262" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F262" t="s">
         <v>32</v>
@@ -6476,10 +6533,10 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J262" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6508,9 +6565,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6534,15 +6591,15 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K264" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B265">
         <v>0.38400000000000001</v>
@@ -6566,15 +6623,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J265" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K265" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B266">
         <v>8.2699999999999996E-11</v>
@@ -6598,15 +6655,18 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J266" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K266" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="L266" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B267">
         <v>7.4400000000000002E-10</v>
@@ -6630,15 +6690,18 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J267" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K267" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="L267" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B268">
         <v>8.2600000000000002E-5</v>
@@ -6662,15 +6725,18 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J268" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K268" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="L268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B269">
         <v>3.3099999999999999E-10</v>
@@ -6694,15 +6760,18 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J269" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K269" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="L269" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B270">
         <v>5.1400000000000003E-12</v>
@@ -6726,15 +6795,18 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J270" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K270" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="L270" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B271">
         <v>2.8400000000000002E-4</v>
@@ -6758,15 +6830,18 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J271" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K271" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="L271" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B272">
         <v>5.7899999999999997E-10</v>
@@ -6790,13 +6865,16 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K272" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="L272" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6822,15 +6900,18 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J273" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K273" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L273" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B274">
         <v>-2.2699999999999999E-4</v>
@@ -6854,10 +6935,13 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J274" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K274" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="L274" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2345CB18-75B0-9644-B980-21DEC13AD1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="167">
   <si>
     <t>Activity</t>
   </si>
@@ -159,9 +172,6 @@
     <t>range of values from different references</t>
   </si>
   <si>
-    <t>Sodium hydroxide, 50% in H2O, production mix, at plant/RER U</t>
-  </si>
-  <si>
     <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
   </si>
   <si>
@@ -186,9 +196,6 @@
     <t>SNG from hydrogen + CO2 from air</t>
   </si>
   <si>
-    <t>CO2 capture/100% SNG, post, 400km pipeline, storage 3000m/RER U</t>
-  </si>
-  <si>
     <t>90% capture rate</t>
   </si>
   <si>
@@ -315,9 +322,6 @@
     <t>Life cycle assessment of carbon capture and storage in power generation and industry in Europe, Volkart et al., 2013, International Journal of Greenhouse Gas Control</t>
   </si>
   <si>
-    <t>CO2 capture/100% SNG, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
     <t>CO2 capture/100% SNG, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
@@ -342,9 +346,6 @@
     <t>62% efficiency (P. Jansohn)</t>
   </si>
   <si>
-    <t>Disposal, solvents mixture, 16.5% water, to hazardous waste incineration/CH U</t>
-  </si>
-  <si>
     <t>Moser et al. (2010)</t>
   </si>
   <si>
@@ -354,57 +355,36 @@
     <t>RECCS 2007</t>
   </si>
   <si>
-    <t>Pump 40W, at plant/CH/I U</t>
-  </si>
-  <si>
     <t>n_pump = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for pump, 40W</t>
   </si>
   <si>
-    <t>Monoethanolamine, at plant/RER U</t>
-  </si>
-  <si>
     <t>market for monoethanolamine</t>
   </si>
   <si>
-    <t>Liquid storage tank, chemicals, organics/CH/I U</t>
-  </si>
-  <si>
     <t>n_tank = V_total*lifetime_ratio/(V_ref*lifetime plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for liquid storage tank, chemicals, organics</t>
   </si>
   <si>
-    <t>Gas turbine, 10MWe, at production plant/RER/I U</t>
-  </si>
-  <si>
     <t>n_GT = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for gas turbine, 10MW electrical</t>
   </si>
   <si>
-    <t>Charcoal, at plant/GLO U</t>
-  </si>
-  <si>
     <t>market for charcoal</t>
   </si>
   <si>
-    <t>Absorption chiller 100kW/CH/I U</t>
-  </si>
-  <si>
     <t>n_absorption chiller = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for absorption chiller, 100kW</t>
   </si>
   <si>
-    <t>Heat exchanger of cogen unit 160kWe/RER/I U</t>
-  </si>
-  <si>
     <t>n_HX = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
@@ -414,9 +394,6 @@
     <t>E_capture = E_el*(1-(eff_CCS/eff_no CCS))</t>
   </si>
   <si>
-    <t>CO2 storage/100% SNG, post, 400km pipeline, storage 3000m/RER U</t>
-  </si>
-  <si>
     <t>1 kg CO2 stored per 1 kg CO2 captured</t>
   </si>
   <si>
@@ -438,9 +415,6 @@
     <t>Ammonia</t>
   </si>
   <si>
-    <t>CO2 storage/100% SNG, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
     <t>CO2 storage/100% SNG, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
@@ -556,12 +530,15 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -941,22 +918,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -964,18 +941,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -991,15 +968,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1015,12 +992,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1049,21 +1026,21 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1075,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1084,15 +1061,15 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>5.81</v>
@@ -1101,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -1119,24 +1096,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1152,15 +1129,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1176,12 +1153,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1210,21 +1187,21 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1236,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1245,15 +1222,15 @@
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23">
         <v>5.81</v>
@@ -1262,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -1280,24 +1257,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1313,15 +1290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1337,12 +1314,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1371,21 +1348,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1397,7 +1374,7 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1406,15 +1383,15 @@
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>5.81</v>
@@ -1423,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
@@ -1441,24 +1418,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1474,15 +1451,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1490,28 +1467,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1540,21 +1517,21 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>7.9299999999999995E-13</v>
@@ -1563,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
@@ -1578,15 +1555,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>8.0000000000000003E-10</v>
@@ -1595,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
         <v>32</v>
@@ -1616,9 +1593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>1.2100000000000001E-7</v>
@@ -1627,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
@@ -1648,9 +1625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>9.2600000000000001E-10</v>
@@ -1659,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
         <v>32</v>
@@ -1674,15 +1651,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>5.2899999999999997E-13</v>
@@ -1691,7 +1668,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
         <v>32</v>
@@ -1706,15 +1683,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50">
         <v>9.2600000000000001E-7</v>
@@ -1723,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
         <v>32</v>
@@ -1738,15 +1715,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B51">
         <v>5.6000000000000001E-2</v>
@@ -1755,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>32</v>
@@ -1770,15 +1747,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>2.2000000000000001E-6</v>
@@ -1787,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" t="s">
         <v>32</v>
@@ -1802,15 +1779,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53">
         <v>9.9999999999999995E-7</v>
@@ -1819,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -1834,15 +1811,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B54">
         <v>2.9000000000000003E-17</v>
@@ -1851,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" t="s">
         <v>32</v>
@@ -1872,9 +1849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>1.37E-6</v>
@@ -1883,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
         <v>32</v>
@@ -1898,15 +1875,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>3.3099999999999999E-8</v>
@@ -1915,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" t="s">
         <v>32</v>
@@ -1930,24 +1907,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>0.52500000000000002</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
         <v>32</v>
@@ -1962,15 +1939,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58">
         <v>7.9299999999999997E-7</v>
@@ -1979,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
         <v>32</v>
@@ -1994,15 +1971,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B59">
         <v>3E-11</v>
@@ -2011,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F59" t="s">
         <v>32</v>
@@ -2026,15 +2003,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>9.9999999999999995E-7</v>
@@ -2043,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
         <v>32</v>
@@ -2064,9 +2041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>2.72E-5</v>
@@ -2075,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -2090,15 +2067,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>8.0000000000000005E-9</v>
@@ -2107,7 +2084,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -2128,9 +2105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>4.9999999999999998E-7</v>
@@ -2139,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
@@ -2154,15 +2131,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>1.15E-6</v>
@@ -2171,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -2186,15 +2163,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>7.0500000000000003E-7</v>
@@ -2203,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
         <v>32</v>
@@ -2218,15 +2195,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1.6000000000000001E-8</v>
@@ -2235,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
         <v>32</v>
@@ -2256,9 +2233,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>4.9999999999999998E-7</v>
@@ -2267,7 +2244,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
         <v>32</v>
@@ -2282,15 +2259,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>1.5E-9</v>
@@ -2299,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
         <v>32</v>
@@ -2314,15 +2291,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2331,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -2343,10 +2320,10 @@
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2364,12 +2341,12 @@
         <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>2.28E-12</v>
@@ -2393,12 +2370,12 @@
         <v>2.28E-12</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <v>2.5000000000000002E-6</v>
@@ -2425,15 +2402,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>47</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>48</v>
       </c>
       <c r="B73">
         <v>1.9999999999999999E-6</v>
@@ -2460,15 +2437,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -2501,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2539,15 +2516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2563,15 +2540,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2579,28 +2556,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2629,21 +2606,21 @@
         <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
       <c r="L85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>7.9299999999999995E-13</v>
@@ -2652,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
         <v>32</v>
@@ -2667,15 +2644,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>8.0000000000000003E-10</v>
@@ -2684,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
         <v>32</v>
@@ -2705,9 +2682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>1.2100000000000001E-7</v>
@@ -2716,7 +2693,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
         <v>32</v>
@@ -2737,9 +2714,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>9.2600000000000001E-10</v>
@@ -2748,7 +2725,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
@@ -2763,15 +2740,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90">
         <v>5.2899999999999997E-13</v>
@@ -2780,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
         <v>32</v>
@@ -2795,15 +2772,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>9.2600000000000001E-7</v>
@@ -2812,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
         <v>32</v>
@@ -2827,15 +2804,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B92">
         <v>5.5999999999999999E-3</v>
@@ -2844,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F92" t="s">
         <v>32</v>
@@ -2859,15 +2836,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93">
         <v>2.2000000000000001E-6</v>
@@ -2876,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
         <v>32</v>
@@ -2891,15 +2868,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B94">
         <v>9.9999999999999995E-7</v>
@@ -2908,7 +2885,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -2923,15 +2900,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B95">
         <v>2.9000000000000003E-17</v>
@@ -2940,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
         <v>32</v>
@@ -2961,9 +2938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B96">
         <v>1.37E-6</v>
@@ -2972,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
         <v>32</v>
@@ -2987,15 +2964,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B97">
         <v>3.3099999999999999E-8</v>
@@ -3004,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -3019,24 +2996,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B98">
         <v>0.52500000000000002</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
         <v>32</v>
@@ -3051,15 +3028,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B99">
         <v>7.9299999999999997E-7</v>
@@ -3068,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
         <v>32</v>
@@ -3083,15 +3060,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>3E-11</v>
@@ -3100,7 +3077,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F100" t="s">
         <v>32</v>
@@ -3115,15 +3092,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B101">
         <v>9.9999999999999995E-7</v>
@@ -3132,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
         <v>32</v>
@@ -3153,9 +3130,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B102">
         <v>9.9699999999999994E-6</v>
@@ -3164,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -3179,15 +3156,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B103">
         <v>8.0000000000000005E-9</v>
@@ -3196,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F103" t="s">
         <v>32</v>
@@ -3217,9 +3194,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B104">
         <v>4.9999999999999998E-7</v>
@@ -3228,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F104" t="s">
         <v>32</v>
@@ -3243,15 +3220,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B105">
         <v>1.15E-6</v>
@@ -3260,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
         <v>32</v>
@@ -3275,15 +3252,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B106">
         <v>7.0500000000000003E-7</v>
@@ -3292,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -3307,15 +3284,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B107">
         <v>1.6000000000000001E-8</v>
@@ -3324,7 +3301,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
         <v>32</v>
@@ -3345,9 +3322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B108">
         <v>4.9999999999999998E-7</v>
@@ -3356,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F108" t="s">
         <v>32</v>
@@ -3371,15 +3348,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B109">
         <v>1.5E-9</v>
@@ -3388,7 +3365,7 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F109" t="s">
         <v>32</v>
@@ -3403,15 +3380,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3420,10 +3397,10 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -3432,12 +3409,12 @@
         <v>100</v>
       </c>
       <c r="K110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B111">
         <v>5.04E-2</v>
@@ -3461,10 +3438,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3482,12 +3459,12 @@
         <v>25</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113">
         <v>7.7000000000000001E-5</v>
@@ -3511,12 +3488,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B114">
         <v>2.1900000000000002E-12</v>
@@ -3540,12 +3517,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115">
         <v>2.5000000000000002E-6</v>
@@ -3572,15 +3549,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>47</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>48</v>
       </c>
       <c r="B116">
         <v>1.9999999999999999E-6</v>
@@ -3607,15 +3584,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -3648,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3686,15 +3663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3710,15 +3687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3726,28 +3703,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3776,21 +3753,21 @@
         <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K128" t="s">
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B129">
         <v>7.9299999999999995E-13</v>
@@ -3799,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F129" t="s">
         <v>32</v>
@@ -3814,15 +3791,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B130">
         <v>8.0000000000000003E-10</v>
@@ -3831,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
         <v>32</v>
@@ -3852,9 +3829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B131">
         <v>1.2100000000000001E-7</v>
@@ -3863,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F131" t="s">
         <v>32</v>
@@ -3884,9 +3861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B132">
         <v>9.2600000000000001E-10</v>
@@ -3895,7 +3872,7 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F132" t="s">
         <v>32</v>
@@ -3910,15 +3887,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K132" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B133">
         <v>5.2899999999999997E-13</v>
@@ -3927,7 +3904,7 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -3942,15 +3919,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K133" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B134">
         <v>9.2600000000000001E-7</v>
@@ -3959,7 +3936,7 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F134" t="s">
         <v>32</v>
@@ -3974,15 +3951,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K134" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B135">
         <v>5.5999999999999999E-3</v>
@@ -3991,7 +3968,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F135" t="s">
         <v>32</v>
@@ -4006,15 +3983,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B136">
         <v>2.2000000000000001E-6</v>
@@ -4023,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F136" t="s">
         <v>32</v>
@@ -4038,15 +4015,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K136" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B137">
         <v>9.9999999999999995E-7</v>
@@ -4055,7 +4032,7 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F137" t="s">
         <v>32</v>
@@ -4070,15 +4047,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K137" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B138">
         <v>2.9000000000000003E-17</v>
@@ -4087,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F138" t="s">
         <v>32</v>
@@ -4108,9 +4085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B139">
         <v>1.37E-6</v>
@@ -4119,7 +4096,7 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F139" t="s">
         <v>32</v>
@@ -4134,15 +4111,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K139" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B140">
         <v>3.3099999999999999E-8</v>
@@ -4151,7 +4128,7 @@
         <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F140" t="s">
         <v>32</v>
@@ -4166,24 +4143,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K140" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B141">
         <v>0.52500000000000002</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
         <v>32</v>
@@ -4198,15 +4175,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K141" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B142">
         <v>7.9299999999999997E-7</v>
@@ -4215,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F142" t="s">
         <v>32</v>
@@ -4230,15 +4207,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K142" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B143">
         <v>3E-11</v>
@@ -4247,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F143" t="s">
         <v>32</v>
@@ -4262,15 +4239,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K143" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B144">
         <v>9.9999999999999995E-7</v>
@@ -4279,7 +4256,7 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
@@ -4300,9 +4277,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B145">
         <v>9.9699999999999994E-6</v>
@@ -4311,7 +4288,7 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
         <v>32</v>
@@ -4326,15 +4303,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K145" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B146">
         <v>8.0000000000000005E-9</v>
@@ -4343,7 +4320,7 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F146" t="s">
         <v>32</v>
@@ -4364,9 +4341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B147">
         <v>4.9999999999999998E-7</v>
@@ -4375,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F147" t="s">
         <v>32</v>
@@ -4390,15 +4367,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K147" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B148">
         <v>1.15E-6</v>
@@ -4407,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F148" t="s">
         <v>32</v>
@@ -4422,15 +4399,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K148" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B149">
         <v>7.0500000000000003E-7</v>
@@ -4439,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
@@ -4454,15 +4431,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B150">
         <v>1.6000000000000001E-8</v>
@@ -4471,7 +4448,7 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F150" t="s">
         <v>32</v>
@@ -4492,9 +4469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B151">
         <v>4.9999999999999998E-7</v>
@@ -4503,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F151" t="s">
         <v>32</v>
@@ -4518,15 +4495,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K151" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B152">
         <v>1.5E-9</v>
@@ -4535,7 +4512,7 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F152" t="s">
         <v>32</v>
@@ -4550,15 +4527,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K152" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4567,10 +4544,10 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -4579,12 +4556,12 @@
         <v>100</v>
       </c>
       <c r="K153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B154">
         <v>5.04E-2</v>
@@ -4608,10 +4585,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4629,12 +4606,12 @@
         <v>25</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B156">
         <v>7.7000000000000001E-5</v>
@@ -4658,12 +4635,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K156" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157">
         <v>2.1900000000000002E-12</v>
@@ -4687,12 +4664,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B158">
         <v>2.5000000000000002E-6</v>
@@ -4719,15 +4696,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>47</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>48</v>
       </c>
       <c r="B159">
         <v>1.9999999999999999E-6</v>
@@ -4754,15 +4731,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B160">
         <v>0.5</v>
@@ -4795,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4833,15 +4810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4849,7 +4826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4857,15 +4834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4881,28 +4858,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4928,9 +4905,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4948,10 +4925,10 @@
         <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4974,9 +4951,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B176">
         <f>(0.0028236*0.669)+0.208</f>
@@ -4995,12 +4972,12 @@
         <v>25</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -5013,18 +4990,18 @@
         <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G177" t="s">
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B178">
         <f>0.000000034944*0.669</f>
@@ -5034,21 +5011,21 @@
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F178" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G178" t="s">
         <v>25</v>
       </c>
       <c r="H178" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B179" s="7">
         <v>8.4800000000000005E-8</v>
@@ -5066,22 +5043,22 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B180">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C180" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E180" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F180" t="s">
         <v>8</v>
@@ -5090,19 +5067,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B181">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C181" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E181" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F181" t="s">
         <v>8</v>
@@ -5111,19 +5088,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B182">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C182" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F182" t="s">
         <v>8</v>
@@ -5132,19 +5109,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B183">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C183" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F183" t="s">
         <v>8</v>
@@ -5153,7 +5130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5209,20 +5186,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5323,7 +5300,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5355,14 +5332,14 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5386,12 +5363,12 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5425,7 +5402,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5457,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5473,20 +5450,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5582,7 +5559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5614,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5638,12 +5615,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5678,7 +5655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5704,7 +5681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5739,7 +5716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5774,15 +5751,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5798,15 +5775,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5822,20 +5799,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
       <c r="B232" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5861,21 +5838,18 @@
         <v>18</v>
       </c>
       <c r="I234" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J234" t="s">
         <v>11</v>
       </c>
       <c r="K234" t="s">
-        <v>94</v>
-      </c>
-      <c r="L234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B235">
         <v>1.2300000000000001E-4</v>
@@ -5884,7 +5858,7 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F235" t="s">
         <v>32</v>
@@ -5896,12 +5870,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J235" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B236">
         <v>6.0000000000000002E-6</v>
@@ -5910,7 +5884,7 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F236" t="s">
         <v>32</v>
@@ -5922,21 +5896,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J236" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B237">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D237" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E237" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F237" t="s">
         <v>32</v>
@@ -5948,12 +5922,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J237" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5965,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F238" t="s">
         <v>22</v>
@@ -5974,15 +5948,12 @@
         <v>100</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
-      </c>
-      <c r="K238" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6006,15 +5977,15 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
+        <v>120</v>
+      </c>
+      <c r="K239" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>132</v>
-      </c>
-      <c r="K239" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>145</v>
       </c>
       <c r="B240">
         <v>0.38400000000000001</v>
@@ -6038,15 +6009,12 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J240" t="s">
-        <v>130</v>
-      </c>
-      <c r="K240" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B241">
         <v>8.2699999999999996E-11</v>
@@ -6070,18 +6038,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J241" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K241" t="s">
-        <v>127</v>
-      </c>
-      <c r="L241" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B242">
         <v>7.4400000000000002E-10</v>
@@ -6105,18 +6070,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J242" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K242" t="s">
-        <v>124</v>
-      </c>
-      <c r="L242" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B243">
         <v>8.2600000000000002E-5</v>
@@ -6140,18 +6102,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J243" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K243" t="s">
-        <v>122</v>
-      </c>
-      <c r="L243" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B244">
         <v>3.3099999999999999E-10</v>
@@ -6175,18 +6134,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J244" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K244" t="s">
-        <v>119</v>
-      </c>
-      <c r="L244" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B245">
         <v>5.1400000000000003E-12</v>
@@ -6210,18 +6166,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J245" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K245" t="s">
-        <v>116</v>
-      </c>
-      <c r="L245" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B246">
         <v>2.8400000000000002E-4</v>
@@ -6245,18 +6198,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J246" t="s">
+        <v>104</v>
+      </c>
+      <c r="K246" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>108</v>
-      </c>
-      <c r="K246" t="s">
-        <v>114</v>
-      </c>
-      <c r="L246" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>113</v>
       </c>
       <c r="B247">
         <v>5.7899999999999997E-10</v>
@@ -6280,18 +6230,15 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J247" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K247" t="s">
-        <v>111</v>
-      </c>
-      <c r="L247" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248">
         <v>3.0400000000000002E-4</v>
@@ -6315,18 +6262,15 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J248" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K248" t="s">
-        <v>46</v>
-      </c>
-      <c r="L248" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B249">
         <v>-2.2699999999999999E-4</v>
@@ -6350,24 +6294,21 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K249" t="s">
-        <v>107</v>
-      </c>
-      <c r="L249" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6383,15 +6324,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +6340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6407,20 +6348,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6446,21 +6387,18 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J259" t="s">
         <v>11</v>
       </c>
       <c r="K259" t="s">
-        <v>94</v>
-      </c>
-      <c r="L259" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B260">
         <v>1.2300000000000001E-4</v>
@@ -6469,7 +6407,7 @@
         <v>8</v>
       </c>
       <c r="E260" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F260" t="s">
         <v>32</v>
@@ -6481,12 +6419,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B261">
         <v>6.0000000000000002E-6</v>
@@ -6495,7 +6433,7 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F261" t="s">
         <v>32</v>
@@ -6507,21 +6445,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J261" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B262">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D262" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E262" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F262" t="s">
         <v>32</v>
@@ -6533,12 +6471,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J262" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6550,7 +6488,7 @@
         <v>8</v>
       </c>
       <c r="E263" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F263" t="s">
         <v>22</v>
@@ -6559,15 +6497,12 @@
         <v>100</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
-      </c>
-      <c r="K263" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6591,15 +6526,15 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K264" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B265">
         <v>0.38400000000000001</v>
@@ -6623,15 +6558,12 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J265" t="s">
-        <v>130</v>
-      </c>
-      <c r="K265" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B266">
         <v>8.2699999999999996E-11</v>
@@ -6655,18 +6587,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J266" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K266" t="s">
-        <v>127</v>
-      </c>
-      <c r="L266" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B267">
         <v>7.4400000000000002E-10</v>
@@ -6690,18 +6619,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J267" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K267" t="s">
-        <v>124</v>
-      </c>
-      <c r="L267" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B268">
         <v>8.2600000000000002E-5</v>
@@ -6725,18 +6651,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J268" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K268" t="s">
-        <v>122</v>
-      </c>
-      <c r="L268" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B269">
         <v>3.3099999999999999E-10</v>
@@ -6760,18 +6683,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J269" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K269" t="s">
-        <v>119</v>
-      </c>
-      <c r="L269" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B270">
         <v>5.1400000000000003E-12</v>
@@ -6795,18 +6715,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J270" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K270" t="s">
-        <v>116</v>
-      </c>
-      <c r="L270" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B271">
         <v>2.8400000000000002E-4</v>
@@ -6830,18 +6747,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J271" t="s">
+        <v>104</v>
+      </c>
+      <c r="K271" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>108</v>
-      </c>
-      <c r="K271" t="s">
-        <v>114</v>
-      </c>
-      <c r="L271" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>113</v>
       </c>
       <c r="B272">
         <v>5.7899999999999997E-10</v>
@@ -6865,18 +6779,15 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J272" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K272" t="s">
-        <v>111</v>
-      </c>
-      <c r="L272" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273">
         <v>3.0400000000000002E-4</v>
@@ -6900,18 +6811,15 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J273" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K273" t="s">
-        <v>46</v>
-      </c>
-      <c r="L273" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B274">
         <v>-2.2699999999999999E-4</v>
@@ -6935,13 +6843,10 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J274" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K274" t="s">
-        <v>107</v>
-      </c>
-      <c r="L274" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2345CB18-75B0-9644-B980-21DEC13AD1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
   <si>
     <t>Activity</t>
   </si>
@@ -172,6 +159,9 @@
     <t>range of values from different references</t>
   </si>
   <si>
+    <t>Sodium hydroxide, 50% in H2O, production mix, at plant/RER U</t>
+  </si>
+  <si>
     <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
   </si>
   <si>
@@ -196,6 +186,9 @@
     <t>SNG from hydrogen + CO2 from air</t>
   </si>
   <si>
+    <t>CO2 capture/100% SNG, post, 400km pipeline, storage 3000m/RER U</t>
+  </si>
+  <si>
     <t>90% capture rate</t>
   </si>
   <si>
@@ -322,6 +315,9 @@
     <t>Life cycle assessment of carbon capture and storage in power generation and industry in Europe, Volkart et al., 2013, International Journal of Greenhouse Gas Control</t>
   </si>
   <si>
+    <t>CO2 capture/100% SNG, post, 200km pipeline, storage 1000m/RER U</t>
+  </si>
+  <si>
     <t>CO2 capture/100% SNG, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
@@ -346,6 +342,9 @@
     <t>62% efficiency (P. Jansohn)</t>
   </si>
   <si>
+    <t>Disposal, solvents mixture, 16.5% water, to hazardous waste incineration/CH U</t>
+  </si>
+  <si>
     <t>Moser et al. (2010)</t>
   </si>
   <si>
@@ -355,36 +354,57 @@
     <t>RECCS 2007</t>
   </si>
   <si>
+    <t>Pump 40W, at plant/CH/I U</t>
+  </si>
+  <si>
     <t>n_pump = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for pump, 40W</t>
   </si>
   <si>
+    <t>Monoethanolamine, at plant/RER U</t>
+  </si>
+  <si>
     <t>market for monoethanolamine</t>
   </si>
   <si>
+    <t>Liquid storage tank, chemicals, organics/CH/I U</t>
+  </si>
+  <si>
     <t>n_tank = V_total*lifetime_ratio/(V_ref*lifetime plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for liquid storage tank, chemicals, organics</t>
   </si>
   <si>
+    <t>Gas turbine, 10MWe, at production plant/RER/I U</t>
+  </si>
+  <si>
     <t>n_GT = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for gas turbine, 10MW electrical</t>
   </si>
   <si>
+    <t>Charcoal, at plant/GLO U</t>
+  </si>
+  <si>
     <t>market for charcoal</t>
   </si>
   <si>
+    <t>Absorption chiller 100kW/CH/I U</t>
+  </si>
+  <si>
     <t>n_absorption chiller = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for absorption chiller, 100kW</t>
   </si>
   <si>
+    <t>Heat exchanger of cogen unit 160kWe/RER/I U</t>
+  </si>
+  <si>
     <t>n_HX = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
@@ -394,6 +414,9 @@
     <t>E_capture = E_el*(1-(eff_CCS/eff_no CCS))</t>
   </si>
   <si>
+    <t>CO2 storage/100% SNG, post, 400km pipeline, storage 3000m/RER U</t>
+  </si>
+  <si>
     <t>1 kg CO2 stored per 1 kg CO2 captured</t>
   </si>
   <si>
@@ -415,6 +438,9 @@
     <t>Ammonia</t>
   </si>
   <si>
+    <t>CO2 storage/100% SNG, post, 200km pipeline, storage 1000m/RER U</t>
+  </si>
+  <si>
     <t>CO2 storage/100% SNG, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
@@ -530,15 +556,12 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -918,22 +941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I197" sqref="I197"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -941,18 +964,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -960,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -968,15 +991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -992,12 +1015,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1026,21 +1049,21 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1052,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1061,15 +1084,15 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>5.81</v>
@@ -1078,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -1096,24 +1119,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1129,15 +1152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1153,12 +1176,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1187,21 +1210,21 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1213,7 +1236,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -1222,15 +1245,15 @@
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B23">
         <v>5.81</v>
@@ -1239,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -1257,24 +1280,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1290,15 +1313,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1314,12 +1337,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1348,21 +1371,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1374,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1383,15 +1406,15 @@
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34">
         <v>5.81</v>
@@ -1400,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
@@ -1418,24 +1441,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1451,15 +1474,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1467,28 +1490,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1517,21 +1540,21 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>7.9299999999999995E-13</v>
@@ -1540,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
@@ -1555,15 +1578,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>8.0000000000000003E-10</v>
@@ -1572,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
         <v>32</v>
@@ -1593,9 +1616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>1.2100000000000001E-7</v>
@@ -1604,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
         <v>32</v>
@@ -1625,9 +1648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>9.2600000000000001E-10</v>
@@ -1636,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
         <v>32</v>
@@ -1651,15 +1674,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>5.2899999999999997E-13</v>
@@ -1668,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
         <v>32</v>
@@ -1683,15 +1706,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>9.2600000000000001E-7</v>
@@ -1700,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
         <v>32</v>
@@ -1715,15 +1738,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>5.6000000000000001E-2</v>
@@ -1732,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
         <v>32</v>
@@ -1747,15 +1770,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>2.2000000000000001E-6</v>
@@ -1764,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
         <v>32</v>
@@ -1779,15 +1802,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>9.9999999999999995E-7</v>
@@ -1796,7 +1819,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -1811,15 +1834,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54">
         <v>2.9000000000000003E-17</v>
@@ -1828,7 +1851,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
         <v>32</v>
@@ -1849,9 +1872,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55">
         <v>1.37E-6</v>
@@ -1860,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
         <v>32</v>
@@ -1875,15 +1898,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>3.3099999999999999E-8</v>
@@ -1892,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
         <v>32</v>
@@ -1907,24 +1930,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>0.52500000000000002</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
         <v>32</v>
@@ -1939,15 +1962,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>7.9299999999999997E-7</v>
@@ -1956,7 +1979,7 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>32</v>
@@ -1971,15 +1994,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59">
         <v>3E-11</v>
@@ -1988,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
         <v>32</v>
@@ -2003,15 +2026,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>9.9999999999999995E-7</v>
@@ -2020,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
         <v>32</v>
@@ -2041,9 +2064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>2.72E-5</v>
@@ -2052,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -2067,15 +2090,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>8.0000000000000005E-9</v>
@@ -2084,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
@@ -2105,9 +2128,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>4.9999999999999998E-7</v>
@@ -2116,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
@@ -2131,15 +2154,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>1.15E-6</v>
@@ -2148,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
         <v>32</v>
@@ -2163,15 +2186,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>7.0500000000000003E-7</v>
@@ -2180,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>32</v>
@@ -2195,15 +2218,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>1.6000000000000001E-8</v>
@@ -2212,7 +2235,7 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
         <v>32</v>
@@ -2233,9 +2256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>4.9999999999999998E-7</v>
@@ -2244,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
         <v>32</v>
@@ -2259,15 +2282,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>1.5E-9</v>
@@ -2276,7 +2299,7 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
         <v>32</v>
@@ -2291,15 +2314,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2308,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -2320,10 +2343,10 @@
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2341,12 +2364,12 @@
         <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71">
         <v>2.28E-12</v>
@@ -2370,12 +2393,12 @@
         <v>2.28E-12</v>
       </c>
       <c r="K71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>48</v>
       </c>
       <c r="B72">
         <v>2.5000000000000002E-6</v>
@@ -2402,15 +2425,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B73">
         <v>1.9999999999999999E-6</v>
@@ -2437,15 +2460,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>0.5</v>
@@ -2478,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2516,15 +2539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2540,15 +2563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2556,28 +2579,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2606,21 +2629,21 @@
         <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
       <c r="L85" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>7.9299999999999995E-13</v>
@@ -2629,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
         <v>32</v>
@@ -2644,15 +2667,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>8.0000000000000003E-10</v>
@@ -2661,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
         <v>32</v>
@@ -2682,9 +2705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>1.2100000000000001E-7</v>
@@ -2693,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F88" t="s">
         <v>32</v>
@@ -2714,9 +2737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>9.2600000000000001E-10</v>
@@ -2725,7 +2748,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
@@ -2740,15 +2763,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>5.2899999999999997E-13</v>
@@ -2757,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F90" t="s">
         <v>32</v>
@@ -2772,15 +2795,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>9.2600000000000001E-7</v>
@@ -2789,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F91" t="s">
         <v>32</v>
@@ -2804,15 +2827,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B92">
         <v>5.5999999999999999E-3</v>
@@ -2821,7 +2844,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s">
         <v>32</v>
@@ -2836,15 +2859,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K92" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>2.2000000000000001E-6</v>
@@ -2853,7 +2876,7 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F93" t="s">
         <v>32</v>
@@ -2868,15 +2891,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K93" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B94">
         <v>9.9999999999999995E-7</v>
@@ -2885,7 +2908,7 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F94" t="s">
         <v>32</v>
@@ -2900,15 +2923,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B95">
         <v>2.9000000000000003E-17</v>
@@ -2917,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F95" t="s">
         <v>32</v>
@@ -2938,9 +2961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>1.37E-6</v>
@@ -2949,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F96" t="s">
         <v>32</v>
@@ -2964,15 +2987,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97">
         <v>3.3099999999999999E-8</v>
@@ -2981,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -2996,24 +3019,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K97" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B98">
         <v>0.52500000000000002</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F98" t="s">
         <v>32</v>
@@ -3028,15 +3051,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>7.9299999999999997E-7</v>
@@ -3045,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F99" t="s">
         <v>32</v>
@@ -3060,15 +3083,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B100">
         <v>3E-11</v>
@@ -3077,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F100" t="s">
         <v>32</v>
@@ -3092,15 +3115,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K100" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B101">
         <v>9.9999999999999995E-7</v>
@@ -3109,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F101" t="s">
         <v>32</v>
@@ -3130,9 +3153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B102">
         <v>9.9699999999999994E-6</v>
@@ -3141,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F102" t="s">
         <v>32</v>
@@ -3156,15 +3179,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K102" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B103">
         <v>8.0000000000000005E-9</v>
@@ -3173,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F103" t="s">
         <v>32</v>
@@ -3194,9 +3217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B104">
         <v>4.9999999999999998E-7</v>
@@ -3205,7 +3228,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
         <v>32</v>
@@ -3220,15 +3243,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B105">
         <v>1.15E-6</v>
@@ -3237,7 +3260,7 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F105" t="s">
         <v>32</v>
@@ -3252,15 +3275,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B106">
         <v>7.0500000000000003E-7</v>
@@ -3269,7 +3292,7 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F106" t="s">
         <v>32</v>
@@ -3284,15 +3307,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B107">
         <v>1.6000000000000001E-8</v>
@@ -3301,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F107" t="s">
         <v>32</v>
@@ -3322,9 +3345,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B108">
         <v>4.9999999999999998E-7</v>
@@ -3333,7 +3356,7 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
         <v>32</v>
@@ -3348,15 +3371,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B109">
         <v>1.5E-9</v>
@@ -3365,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F109" t="s">
         <v>32</v>
@@ -3380,15 +3403,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3397,10 +3420,10 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -3409,12 +3432,12 @@
         <v>100</v>
       </c>
       <c r="K110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B111">
         <v>5.04E-2</v>
@@ -3438,10 +3461,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3459,12 +3482,12 @@
         <v>25</v>
       </c>
       <c r="K112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>52</v>
       </c>
       <c r="B113">
         <v>7.7000000000000001E-5</v>
@@ -3488,12 +3511,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K113" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>50</v>
       </c>
       <c r="B114">
         <v>2.1900000000000002E-12</v>
@@ -3517,12 +3540,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>48</v>
       </c>
       <c r="B115">
         <v>2.5000000000000002E-6</v>
@@ -3549,15 +3572,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B116">
         <v>1.9999999999999999E-6</v>
@@ -3584,15 +3607,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B117">
         <v>0.5</v>
@@ -3625,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3663,15 +3686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3679,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3687,15 +3710,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3703,28 +3726,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3753,21 +3776,21 @@
         <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K128" t="s">
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B129">
         <v>7.9299999999999995E-13</v>
@@ -3776,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F129" t="s">
         <v>32</v>
@@ -3791,15 +3814,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K129" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B130">
         <v>8.0000000000000003E-10</v>
@@ -3808,7 +3831,7 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F130" t="s">
         <v>32</v>
@@ -3829,9 +3852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B131">
         <v>1.2100000000000001E-7</v>
@@ -3840,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F131" t="s">
         <v>32</v>
@@ -3861,9 +3884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B132">
         <v>9.2600000000000001E-10</v>
@@ -3872,7 +3895,7 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F132" t="s">
         <v>32</v>
@@ -3887,15 +3910,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K132" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B133">
         <v>5.2899999999999997E-13</v>
@@ -3904,7 +3927,7 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -3919,15 +3942,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K133" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B134">
         <v>9.2600000000000001E-7</v>
@@ -3936,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F134" t="s">
         <v>32</v>
@@ -3951,15 +3974,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K134" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B135">
         <v>5.5999999999999999E-3</v>
@@ -3968,7 +3991,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F135" t="s">
         <v>32</v>
@@ -3983,15 +4006,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K135" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B136">
         <v>2.2000000000000001E-6</v>
@@ -4000,7 +4023,7 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F136" t="s">
         <v>32</v>
@@ -4015,15 +4038,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K136" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B137">
         <v>9.9999999999999995E-7</v>
@@ -4032,7 +4055,7 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F137" t="s">
         <v>32</v>
@@ -4047,15 +4070,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B138">
         <v>2.9000000000000003E-17</v>
@@ -4064,7 +4087,7 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F138" t="s">
         <v>32</v>
@@ -4085,9 +4108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B139">
         <v>1.37E-6</v>
@@ -4096,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F139" t="s">
         <v>32</v>
@@ -4111,15 +4134,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K139" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B140">
         <v>3.3099999999999999E-8</v>
@@ -4128,7 +4151,7 @@
         <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F140" t="s">
         <v>32</v>
@@ -4143,24 +4166,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K140" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B141">
         <v>0.52500000000000002</v>
       </c>
       <c r="D141" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F141" t="s">
         <v>32</v>
@@ -4175,15 +4198,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K141" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B142">
         <v>7.9299999999999997E-7</v>
@@ -4192,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F142" t="s">
         <v>32</v>
@@ -4207,15 +4230,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K142" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B143">
         <v>3E-11</v>
@@ -4224,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F143" t="s">
         <v>32</v>
@@ -4239,15 +4262,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K143" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B144">
         <v>9.9999999999999995E-7</v>
@@ -4256,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F144" t="s">
         <v>32</v>
@@ -4277,9 +4300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B145">
         <v>9.9699999999999994E-6</v>
@@ -4288,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F145" t="s">
         <v>32</v>
@@ -4303,15 +4326,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K145" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B146">
         <v>8.0000000000000005E-9</v>
@@ -4320,7 +4343,7 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F146" t="s">
         <v>32</v>
@@ -4341,9 +4364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B147">
         <v>4.9999999999999998E-7</v>
@@ -4352,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
         <v>32</v>
@@ -4367,15 +4390,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K147" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B148">
         <v>1.15E-6</v>
@@ -4384,7 +4407,7 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F148" t="s">
         <v>32</v>
@@ -4399,15 +4422,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K148" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B149">
         <v>7.0500000000000003E-7</v>
@@ -4416,7 +4439,7 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
@@ -4431,15 +4454,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B150">
         <v>1.6000000000000001E-8</v>
@@ -4448,7 +4471,7 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F150" t="s">
         <v>32</v>
@@ -4469,9 +4492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B151">
         <v>4.9999999999999998E-7</v>
@@ -4480,7 +4503,7 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F151" t="s">
         <v>32</v>
@@ -4495,15 +4518,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K151" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B152">
         <v>1.5E-9</v>
@@ -4512,7 +4535,7 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F152" t="s">
         <v>32</v>
@@ -4527,15 +4550,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K152" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4544,10 +4567,10 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E153" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -4556,12 +4579,12 @@
         <v>100</v>
       </c>
       <c r="K153" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B154">
         <v>5.04E-2</v>
@@ -4585,10 +4608,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K154" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4606,12 +4629,12 @@
         <v>25</v>
       </c>
       <c r="K155" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>52</v>
       </c>
       <c r="B156">
         <v>7.7000000000000001E-5</v>
@@ -4635,12 +4658,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K156" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>50</v>
       </c>
       <c r="B157">
         <v>2.1900000000000002E-12</v>
@@ -4664,12 +4687,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>48</v>
       </c>
       <c r="B158">
         <v>2.5000000000000002E-6</v>
@@ -4696,15 +4719,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B159">
         <v>1.9999999999999999E-6</v>
@@ -4731,15 +4754,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B160">
         <v>0.5</v>
@@ -4772,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4810,15 +4833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4826,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4834,15 +4857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4850,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4858,28 +4881,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4905,9 +4928,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4925,10 +4948,10 @@
         <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4951,9 +4974,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B176">
         <f>(0.0028236*0.669)+0.208</f>
@@ -4972,12 +4995,12 @@
         <v>25</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -4990,18 +5013,18 @@
         <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G177" t="s">
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B178">
         <f>0.000000034944*0.669</f>
@@ -5011,21 +5034,21 @@
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F178" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G178" t="s">
         <v>25</v>
       </c>
       <c r="H178" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B179" s="7">
         <v>8.4800000000000005E-8</v>
@@ -5043,22 +5066,22 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B180">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C180" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E180" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F180" t="s">
         <v>8</v>
@@ -5067,19 +5090,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B181">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C181" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E181" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F181" t="s">
         <v>8</v>
@@ -5088,19 +5111,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B182">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C182" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F182" t="s">
         <v>8</v>
@@ -5109,19 +5132,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B183">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E183" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F183" t="s">
         <v>8</v>
@@ -5130,7 +5153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5146,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5154,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5162,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5170,7 +5193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5178,7 +5201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5186,20 +5209,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5237,7 +5260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5263,7 +5286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5300,7 +5323,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5332,14 +5355,14 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5363,12 +5386,12 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5402,7 +5425,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +5433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5418,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5434,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5442,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5450,20 +5473,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5498,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5524,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5559,7 +5582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5567,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5575,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5583,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5599,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5615,12 +5638,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5655,7 +5678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5681,7 +5704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5716,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5751,15 +5774,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5767,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5775,15 +5798,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5791,7 +5814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5799,20 +5822,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>40</v>
       </c>
       <c r="B232" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5838,18 +5861,21 @@
         <v>18</v>
       </c>
       <c r="I234" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J234" t="s">
         <v>11</v>
       </c>
       <c r="K234" t="s">
+        <v>94</v>
+      </c>
+      <c r="L234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B235">
         <v>1.2300000000000001E-4</v>
@@ -5858,7 +5884,7 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F235" t="s">
         <v>32</v>
@@ -5870,12 +5896,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J235" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B236">
         <v>6.0000000000000002E-6</v>
@@ -5884,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F236" t="s">
         <v>32</v>
@@ -5896,21 +5922,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J236" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B237">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D237" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E237" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F237" t="s">
         <v>32</v>
@@ -5922,12 +5948,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J237" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5939,7 +5965,7 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F238" t="s">
         <v>22</v>
@@ -5948,12 +5974,15 @@
         <v>100</v>
       </c>
       <c r="J238" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K238" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5977,15 +6006,15 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K239" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B240">
         <v>0.38400000000000001</v>
@@ -6009,12 +6038,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J240" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="K240" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B241">
         <v>8.2699999999999996E-11</v>
@@ -6038,15 +6070,18 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J241" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K241" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="L241" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B242">
         <v>7.4400000000000002E-10</v>
@@ -6070,15 +6105,18 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J242" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K242" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L242" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B243">
         <v>8.2600000000000002E-5</v>
@@ -6102,15 +6140,18 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J243" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K243" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="L243" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B244">
         <v>3.3099999999999999E-10</v>
@@ -6134,15 +6175,18 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J244" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K244" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="L244" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B245">
         <v>5.1400000000000003E-12</v>
@@ -6166,15 +6210,18 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J245" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K245" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L245" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B246">
         <v>2.8400000000000002E-4</v>
@@ -6198,15 +6245,18 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J246" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K246" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="L246" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B247">
         <v>5.7899999999999997E-10</v>
@@ -6230,15 +6280,18 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J247" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K247" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="L247" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B248">
         <v>3.0400000000000002E-4</v>
@@ -6262,15 +6315,18 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J248" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K248" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B249">
         <v>-2.2699999999999999E-4</v>
@@ -6294,21 +6350,24 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K249" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="L249" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6316,7 +6375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6324,15 +6383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6340,7 +6399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6348,20 +6407,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6387,18 +6446,21 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J259" t="s">
         <v>11</v>
       </c>
       <c r="K259" t="s">
+        <v>94</v>
+      </c>
+      <c r="L259" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B260">
         <v>1.2300000000000001E-4</v>
@@ -6407,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="E260" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F260" t="s">
         <v>32</v>
@@ -6419,12 +6481,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B261">
         <v>6.0000000000000002E-6</v>
@@ -6433,7 +6495,7 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F261" t="s">
         <v>32</v>
@@ -6445,21 +6507,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J261" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B262">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D262" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E262" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F262" t="s">
         <v>32</v>
@@ -6471,12 +6533,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J262" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6488,7 +6550,7 @@
         <v>8</v>
       </c>
       <c r="E263" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F263" t="s">
         <v>22</v>
@@ -6497,12 +6559,15 @@
         <v>100</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K263" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6526,15 +6591,15 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K264" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B265">
         <v>0.38400000000000001</v>
@@ -6558,12 +6623,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J265" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="K265" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B266">
         <v>8.2699999999999996E-11</v>
@@ -6587,15 +6655,18 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J266" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K266" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="L266" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B267">
         <v>7.4400000000000002E-10</v>
@@ -6619,15 +6690,18 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J267" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K267" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L267" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B268">
         <v>8.2600000000000002E-5</v>
@@ -6651,15 +6725,18 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J268" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K268" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="L268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B269">
         <v>3.3099999999999999E-10</v>
@@ -6683,15 +6760,18 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J269" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K269" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="L269" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B270">
         <v>5.1400000000000003E-12</v>
@@ -6715,15 +6795,18 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J270" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K270" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L270" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B271">
         <v>2.8400000000000002E-4</v>
@@ -6747,15 +6830,18 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J271" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K271" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="L271" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B272">
         <v>5.7899999999999997E-10</v>
@@ -6779,15 +6865,18 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J272" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K272" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="L272" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B273">
         <v>3.0400000000000002E-4</v>
@@ -6811,15 +6900,18 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J273" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K273" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L273" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B274">
         <v>-2.2699999999999999E-4</v>
@@ -6843,10 +6935,13 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J274" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K274" t="s">
-        <v>165</v>
+        <v>107</v>
+      </c>
+      <c r="L274" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669031E3-CA0E-964D-9EB7-84E9ADDE5606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
   <si>
     <t>Activity</t>
   </si>
@@ -556,12 +569,15 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -941,22 +957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -964,10 +980,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1015,12 +1031,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1176,12 +1192,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1337,12 +1353,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1506,12 +1522,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1616,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1680,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1840,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1936,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2346,7 +2362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2396,7 +2412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2466,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2595,12 +2611,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2801,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2865,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2897,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2961,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -2993,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3025,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3121,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3153,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3217,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3281,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3409,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3435,7 +3451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3485,7 +3501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3514,7 +3530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +3559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3613,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3651,7 +3667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -3742,12 +3758,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3820,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3852,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -3884,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -3916,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -3948,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3980,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -4012,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4044,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4108,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4172,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4204,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4268,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4300,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4332,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4364,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4396,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4428,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4492,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4556,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4582,7 +4598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4611,7 +4627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4690,7 +4706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4760,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4833,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4849,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -4865,7 +4881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +4905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -4897,12 +4913,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4951,7 +4967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +4990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -4998,7 +5014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -5022,7 +5038,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -5046,7 +5062,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -5069,7 +5085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -5090,7 +5106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -5111,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5153,7 +5169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -5217,12 +5233,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5323,7 +5339,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5355,12 +5371,12 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>169</v>
       </c>
@@ -5391,7 +5407,7 @@
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5425,7 +5441,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5457,7 +5473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5473,7 +5489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -5481,12 +5497,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5582,7 +5598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5614,7 +5630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5638,12 +5654,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5678,7 +5694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5739,7 +5755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -5830,12 +5846,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5873,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -5899,7 +5915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>136</v>
       </c>
@@ -5951,7 +5967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -5980,7 +5996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6012,7 +6028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>145</v>
       </c>
@@ -6044,7 +6060,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -6079,7 +6095,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -6114,7 +6130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>123</v>
       </c>
@@ -6149,7 +6165,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -6184,7 +6200,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -6219,7 +6235,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>115</v>
       </c>
@@ -6254,7 +6270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -6289,7 +6305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6324,7 +6340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>109</v>
       </c>
@@ -6359,7 +6375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6383,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6391,7 +6407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +6415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -6415,12 +6431,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -6484,7 +6500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>137</v>
       </c>
@@ -6510,7 +6526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>136</v>
       </c>
@@ -6536,7 +6552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6565,7 +6581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -6597,7 +6613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -6629,7 +6645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>129</v>
       </c>
@@ -6664,7 +6680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -6699,7 +6715,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>123</v>
       </c>
@@ -6734,7 +6750,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -6769,7 +6785,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>118</v>
       </c>
@@ -6804,7 +6820,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>115</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>113</v>
       </c>
@@ -6874,7 +6890,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6909,7 +6925,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>109</v>
       </c>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669031E3-CA0E-964D-9EB7-84E9ADDE5606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5673AA60-BBD3-344F-A9C0-C3C7975830AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,12 +529,6 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
@@ -572,6 +566,12 @@
   </si>
   <si>
     <t>carbon dioxide, captured from the atmosphere</t>
+  </si>
+  <si>
+    <t>market for heat, central or small-scale, biomethane</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, biomethane</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="K178" sqref="K178"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4910,7 +4910,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -5016,7 +5016,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -5035,7 +5035,7 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -5371,14 +5371,14 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
     <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5402,7 +5402,7 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
@@ -5494,7 +5494,7 @@
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>127</v>
       </c>
       <c r="L241" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>124</v>
       </c>
       <c r="L242" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -6162,7 +6162,7 @@
         <v>122</v>
       </c>
       <c r="L243" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -6197,7 +6197,7 @@
         <v>119</v>
       </c>
       <c r="L244" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
         <v>116</v>
       </c>
       <c r="L245" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -6267,7 +6267,7 @@
         <v>114</v>
       </c>
       <c r="L246" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>111</v>
       </c>
       <c r="L247" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -6337,7 +6337,7 @@
         <v>46</v>
       </c>
       <c r="L248" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>107</v>
       </c>
       <c r="L249" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6677,7 +6677,7 @@
         <v>127</v>
       </c>
       <c r="L266" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -6712,7 +6712,7 @@
         <v>124</v>
       </c>
       <c r="L267" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -6747,7 +6747,7 @@
         <v>122</v>
       </c>
       <c r="L268" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
         <v>119</v>
       </c>
       <c r="L269" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -6817,7 +6817,7 @@
         <v>116</v>
       </c>
       <c r="L270" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -6852,7 +6852,7 @@
         <v>114</v>
       </c>
       <c r="L271" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>111</v>
       </c>
       <c r="L272" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -6922,7 +6922,7 @@
         <v>46</v>
       </c>
       <c r="L273" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -6957,7 +6957,7 @@
         <v>107</v>
       </c>
       <c r="L274" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5673AA60-BBD3-344F-A9C0-C3C7975830AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
   <si>
     <t>Activity</t>
   </si>
@@ -516,12 +529,6 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
@@ -556,12 +563,21 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
+  </si>
+  <si>
+    <t>market for heat, central or small-scale, biomethane</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, biomethane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -941,22 +957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -964,10 +980,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +991,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1015,12 +1031,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1176,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1176,12 +1192,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1337,12 +1353,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1412,7 +1428,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1506,12 +1522,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1616,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1680,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1840,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1936,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2346,7 +2362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2396,7 +2412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2466,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2504,7 +2520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2595,12 +2611,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2801,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2865,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2897,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2961,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -2993,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3025,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3121,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3153,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3217,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3281,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3409,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3435,7 +3451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3485,7 +3501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3514,7 +3530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +3559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3613,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3651,7 +3667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -3742,12 +3758,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3820,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3852,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -3884,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -3916,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -3948,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3980,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -4012,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4044,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4108,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4172,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4204,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4268,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4300,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4332,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4364,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4396,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4428,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4492,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4556,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4582,7 +4598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4611,7 +4627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4690,7 +4706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4760,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4833,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4849,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -4865,7 +4881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4889,20 +4905,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4951,7 +4967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +4990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -4998,9 +5014,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -5019,10 +5035,10 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -5046,7 +5062,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -5069,7 +5085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -5090,7 +5106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -5111,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5153,7 +5169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5209,20 +5225,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5323,7 +5339,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5355,14 +5371,14 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5386,12 +5402,12 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5425,7 +5441,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5457,7 +5473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5473,20 +5489,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5582,7 +5598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5614,7 +5630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5638,12 +5654,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5678,7 +5694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5739,7 +5755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5822,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -5830,12 +5846,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5873,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -5899,7 +5915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>136</v>
       </c>
@@ -5951,7 +5967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -5980,7 +5996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6012,7 +6028,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>145</v>
       </c>
@@ -6044,7 +6060,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -6076,10 +6092,10 @@
         <v>127</v>
       </c>
       <c r="L241" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -6111,10 +6127,10 @@
         <v>124</v>
       </c>
       <c r="L242" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>123</v>
       </c>
@@ -6146,10 +6162,10 @@
         <v>122</v>
       </c>
       <c r="L243" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -6181,10 +6197,10 @@
         <v>119</v>
       </c>
       <c r="L244" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -6216,10 +6232,10 @@
         <v>116</v>
       </c>
       <c r="L245" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>115</v>
       </c>
@@ -6251,10 +6267,10 @@
         <v>114</v>
       </c>
       <c r="L246" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -6286,10 +6302,10 @@
         <v>111</v>
       </c>
       <c r="L247" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6321,10 +6337,10 @@
         <v>46</v>
       </c>
       <c r="L248" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>109</v>
       </c>
@@ -6356,10 +6372,10 @@
         <v>107</v>
       </c>
       <c r="L249" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6383,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6391,7 +6407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +6415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -6415,12 +6431,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -6484,7 +6500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>137</v>
       </c>
@@ -6510,7 +6526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>136</v>
       </c>
@@ -6536,7 +6552,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6565,7 +6581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -6597,7 +6613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -6629,7 +6645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>129</v>
       </c>
@@ -6661,10 +6677,10 @@
         <v>127</v>
       </c>
       <c r="L266" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -6696,10 +6712,10 @@
         <v>124</v>
       </c>
       <c r="L267" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>123</v>
       </c>
@@ -6731,10 +6747,10 @@
         <v>122</v>
       </c>
       <c r="L268" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -6766,10 +6782,10 @@
         <v>119</v>
       </c>
       <c r="L269" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>118</v>
       </c>
@@ -6801,10 +6817,10 @@
         <v>116</v>
       </c>
       <c r="L270" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>115</v>
       </c>
@@ -6836,10 +6852,10 @@
         <v>114</v>
       </c>
       <c r="L271" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>113</v>
       </c>
@@ -6871,10 +6887,10 @@
         <v>111</v>
       </c>
       <c r="L272" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6906,10 +6922,10 @@
         <v>46</v>
       </c>
       <c r="L273" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>109</v>
       </c>
@@ -6941,7 +6957,7 @@
         <v>107</v>
       </c>
       <c r="L274" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5673AA60-BBD3-344F-A9C0-C3C7975830AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
   <si>
     <t>Activity</t>
   </si>
@@ -529,6 +516,12 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
+    <t>heat and power co-generation, biogas, gas engine</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
     <t>Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
@@ -563,21 +556,12 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
-    <t>market for heat, central or small-scale, biomethane</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, biomethane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -957,22 +941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -980,10 +964,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +975,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -999,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +999,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1031,12 +1015,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1106,7 +1090,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1144,7 +1128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1192,12 +1176,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1267,7 +1251,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1305,7 +1289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1297,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1321,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1353,12 +1337,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1428,7 +1412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1466,7 +1450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1482,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1522,12 +1506,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1600,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1632,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1664,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1696,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1728,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1760,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1792,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1824,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1856,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1888,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1920,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1952,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1984,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2016,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2048,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2080,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2112,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2144,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2176,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2208,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2240,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2304,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2362,7 +2346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2383,7 +2367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2412,7 +2396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2447,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2482,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2520,7 +2504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2571,7 +2555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2587,7 +2571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2595,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2611,12 +2595,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2689,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2721,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2753,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2785,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2817,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2849,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2881,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2913,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2945,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2977,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -3009,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3041,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3073,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3105,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3137,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3169,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3201,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3233,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3265,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3297,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3329,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3361,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3393,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3425,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3451,7 +3435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -3480,7 +3464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3530,7 +3514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3559,7 +3543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3594,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3629,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3667,7 +3651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3702,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +3702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3726,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3742,7 +3726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -3758,12 +3742,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3804,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3836,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3868,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -3900,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -3932,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -3964,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3996,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -4028,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4060,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4092,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4124,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4156,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4188,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4220,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4252,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4284,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4316,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4348,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4380,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4412,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4444,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4476,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4508,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4540,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4572,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4598,7 +4582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4627,7 +4611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4677,7 +4661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4706,7 +4690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4741,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4776,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4814,7 +4798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4849,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4865,7 +4849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4873,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -4881,7 +4865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4889,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4905,20 +4889,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>40</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4944,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4967,7 +4951,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +4974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -5014,9 +4998,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
@@ -5035,10 +5019,10 @@
         <v>25</v>
       </c>
       <c r="H177" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -5062,7 +5046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -5085,7 +5069,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -5106,7 +5090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -5127,7 +5111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5148,7 +5132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5169,7 +5153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5177,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5185,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5193,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5201,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5209,7 +5193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5217,7 +5201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5225,20 +5209,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5276,7 +5260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5302,7 +5286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5339,7 +5323,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5371,14 +5355,14 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B198">
         <v>0.50779661016949151</v>
@@ -5402,12 +5386,12 @@
         <v>39</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5441,7 +5425,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +5433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5457,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5465,7 +5449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5473,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5481,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5489,20 +5473,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>40</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5537,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5563,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5598,7 +5582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5606,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5614,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5622,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5630,7 +5614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5646,7 +5630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5654,12 +5638,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5694,7 +5678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5720,7 +5704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5755,7 +5739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5790,7 +5774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +5782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5806,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -5822,7 +5806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5830,7 +5814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -5846,12 +5830,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5889,7 +5873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -5915,7 +5899,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -5941,7 +5925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>136</v>
       </c>
@@ -5967,7 +5951,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -5996,7 +5980,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6028,7 +6012,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>145</v>
       </c>
@@ -6060,7 +6044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -6092,10 +6076,10 @@
         <v>127</v>
       </c>
       <c r="L241" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -6127,10 +6111,10 @@
         <v>124</v>
       </c>
       <c r="L242" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>123</v>
       </c>
@@ -6162,10 +6146,10 @@
         <v>122</v>
       </c>
       <c r="L243" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -6197,10 +6181,10 @@
         <v>119</v>
       </c>
       <c r="L244" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -6232,10 +6216,10 @@
         <v>116</v>
       </c>
       <c r="L245" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>115</v>
       </c>
@@ -6267,10 +6251,10 @@
         <v>114</v>
       </c>
       <c r="L246" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -6302,10 +6286,10 @@
         <v>111</v>
       </c>
       <c r="L247" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6337,10 +6321,10 @@
         <v>46</v>
       </c>
       <c r="L248" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>109</v>
       </c>
@@ -6372,10 +6356,10 @@
         <v>107</v>
       </c>
       <c r="L249" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6383,7 +6367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6391,7 +6375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6399,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6407,7 +6391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +6399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6423,7 +6407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -6431,12 +6415,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6474,7 +6458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -6500,7 +6484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>137</v>
       </c>
@@ -6526,7 +6510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>136</v>
       </c>
@@ -6552,7 +6536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6581,7 +6565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -6613,7 +6597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -6645,7 +6629,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>129</v>
       </c>
@@ -6677,10 +6661,10 @@
         <v>127</v>
       </c>
       <c r="L266" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -6712,10 +6696,10 @@
         <v>124</v>
       </c>
       <c r="L267" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>123</v>
       </c>
@@ -6747,10 +6731,10 @@
         <v>122</v>
       </c>
       <c r="L268" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -6782,10 +6766,10 @@
         <v>119</v>
       </c>
       <c r="L269" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>118</v>
       </c>
@@ -6817,10 +6801,10 @@
         <v>116</v>
       </c>
       <c r="L270" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>115</v>
       </c>
@@ -6852,10 +6836,10 @@
         <v>114</v>
       </c>
       <c r="L271" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>113</v>
       </c>
@@ -6887,10 +6871,10 @@
         <v>111</v>
       </c>
       <c r="L272" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6922,10 +6906,10 @@
         <v>46</v>
       </c>
       <c r="L273" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>109</v>
       </c>
@@ -6957,7 +6941,7 @@
         <v>107</v>
       </c>
       <c r="L274" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA0965-2001-5F4C-854D-B0DCBFD867C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
   <si>
     <t>Activity</t>
   </si>
@@ -556,12 +570,15 @@
   </si>
   <si>
     <t>spent solvent mixture</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from the atmosphere</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -941,22 +958,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -964,10 +981,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1016,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1015,12 +1032,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1090,7 +1107,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1177,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1176,12 +1193,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1239,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1289,7 +1306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1337,12 +1354,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1400,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1412,7 +1429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1506,12 +1523,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1616,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1648,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1680,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1712,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1744,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -1776,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1808,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1872,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1904,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1936,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1968,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2000,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2128,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2160,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2192,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2224,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2346,7 +2363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2396,7 +2413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2431,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2504,7 +2521,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2555,7 +2572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2563,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2579,7 +2596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2595,12 +2612,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2801,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2833,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2865,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2897,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2929,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2961,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -2993,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3025,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3057,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3185,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3435,7 +3452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3514,7 +3531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3613,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3651,7 +3668,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3686,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3694,7 +3711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3718,7 +3735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -3742,12 +3759,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3820,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3852,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -3916,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -3948,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -4012,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4044,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4076,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4172,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4204,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4268,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4300,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4332,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4364,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4396,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4460,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4524,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4556,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4582,7 +4599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4661,7 +4678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4725,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4760,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4798,7 +4815,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4833,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4849,7 +4866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4857,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -4865,7 +4882,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
@@ -4897,12 +4914,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4928,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4951,7 +4968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4974,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -4998,7 +5015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -5022,7 +5039,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -5046,7 +5063,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -5069,7 +5086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>160</v>
       </c>
@@ -5090,7 +5107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -5111,7 +5128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5169,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5185,7 +5202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5193,7 +5210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -5217,12 +5234,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5286,7 +5303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5323,7 +5340,7 @@
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5355,12 +5372,12 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>169</v>
       </c>
@@ -5391,7 +5408,7 @@
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5425,7 +5442,7 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5441,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5457,7 +5474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5473,7 +5490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
@@ -5481,12 +5498,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5598,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5606,7 +5623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5638,12 +5655,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5678,7 +5695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5739,7 +5756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5774,7 +5791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5822,7 +5839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -5830,12 +5847,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5873,7 +5890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -5899,7 +5916,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -5925,7 +5942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>136</v>
       </c>
@@ -5951,7 +5968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6012,7 +6029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>145</v>
       </c>
@@ -6044,7 +6061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -6079,7 +6096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -6114,7 +6131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>123</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -6184,7 +6201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>115</v>
       </c>
@@ -6254,7 +6271,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -6289,7 +6306,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6324,7 +6341,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>109</v>
       </c>
@@ -6359,7 +6376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6367,7 +6384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6383,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6391,7 +6408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +6416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6407,7 +6424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -6415,12 +6432,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -6484,7 +6501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>137</v>
       </c>
@@ -6510,7 +6527,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>136</v>
       </c>
@@ -6536,7 +6553,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6565,7 +6582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -6597,7 +6614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -6629,7 +6646,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>129</v>
       </c>
@@ -6664,7 +6681,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -6699,7 +6716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>123</v>
       </c>
@@ -6734,7 +6751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -6769,7 +6786,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>118</v>
       </c>
@@ -6804,7 +6821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>115</v>
       </c>
@@ -6839,7 +6856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>113</v>
       </c>
@@ -6874,7 +6891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6909,7 +6926,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>109</v>
       </c>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA0965-2001-5F4C-854D-B0DCBFD867C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94480C36-D820-6843-BA58-D054A1A5E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35320" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$S$274</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -572,7 +575,7 @@
     <t>spent solvent mixture</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
+    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,7 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,10 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -981,10 +984,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +995,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1032,12 +1035,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1145,7 +1148,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1193,12 +1197,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -1306,7 +1310,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1354,12 +1359,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -1429,7 +1434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1467,7 +1472,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1523,12 +1529,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2483,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2562,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2572,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2612,12 +2619,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -2690,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -2722,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2754,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2882,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>84</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>82</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -3074,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>78</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>75</v>
       </c>
@@ -3170,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -3202,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -3234,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3298,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -3362,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -3394,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -3426,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -3481,7 +3488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>53</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -3595,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3703,7 +3710,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -3759,12 +3767,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -3965,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>86</v>
       </c>
@@ -4061,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -4093,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -4157,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -4189,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>80</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -4285,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4317,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -4381,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>71</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>69</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -4509,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>66</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>64</v>
       </c>
@@ -4573,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>61</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +4657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -4678,7 +4686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -4707,7 +4715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -4742,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>48</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4850,7 +4858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4858,7 +4868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4874,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -4906,20 +4916,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>40</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>164</v>
       </c>
@@ -5015,7 +5025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -5063,7 +5073,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>158</v>
       </c>
@@ -5107,7 +5117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>163</v>
       </c>
@@ -5170,7 +5180,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5178,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5202,7 +5213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5218,7 +5229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -5226,20 +5237,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5277,7 +5288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5303,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>23</v>
       </c>
@@ -5342,7 +5353,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B197">
         <v>2.768361581920904</v>
@@ -5372,12 +5383,12 @@
         <v>39</v>
       </c>
       <c r="K197" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Q197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>169</v>
       </c>
@@ -5408,7 +5419,7 @@
       <c r="Q198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -5442,7 +5453,8 @@
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -5466,7 +5478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5474,7 +5486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5490,20 +5502,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>40</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5538,7 +5550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>23</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -5599,7 +5611,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -5623,7 +5636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5631,7 +5644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -5655,12 +5668,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>35</v>
       </c>
@@ -5756,7 +5769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5791,7 +5804,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -5799,7 +5813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5807,7 +5821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5815,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -5823,7 +5837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5839,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>40</v>
       </c>
@@ -5847,12 +5861,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>14</v>
       </c>
@@ -5890,7 +5904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -5916,7 +5930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -5942,7 +5956,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>136</v>
       </c>
@@ -5968,7 +5982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>99</v>
       </c>
@@ -5997,7 +6011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6029,7 +6043,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>145</v>
       </c>
@@ -6061,7 +6075,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -6096,7 +6110,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -6131,7 +6145,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>123</v>
       </c>
@@ -6166,7 +6180,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>118</v>
       </c>
@@ -6236,7 +6250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>115</v>
       </c>
@@ -6271,7 +6285,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -6306,7 +6320,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -6341,7 +6355,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>109</v>
       </c>
@@ -6376,7 +6390,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6392,7 +6407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6400,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -6408,7 +6423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6416,7 +6431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6424,7 +6439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -6432,12 +6447,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -6501,7 +6516,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>137</v>
       </c>
@@ -6527,7 +6542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>136</v>
       </c>
@@ -6553,7 +6568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -6582,7 +6597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>133</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>147</v>
       </c>
@@ -6646,7 +6661,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>129</v>
       </c>
@@ -6681,7 +6696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>126</v>
       </c>
@@ -6716,7 +6731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>123</v>
       </c>
@@ -6751,7 +6766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>121</v>
       </c>
@@ -6786,7 +6801,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>118</v>
       </c>
@@ -6821,7 +6836,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>115</v>
       </c>
@@ -6856,7 +6871,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>113</v>
       </c>
@@ -6891,7 +6906,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -6926,7 +6941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>109</v>
       </c>
@@ -6962,6 +6977,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S274" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="carbon dioxide, captured from atmosphere"/>
+        <filter val="Carbon dioxide, non-fossil"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94480C36-D820-6843-BA58-D054A1A5E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CCC7D9-1B51-1A4E-A39D-11EFB48CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35320" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$S$274</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="180">
   <si>
     <t>Activity</t>
   </si>
@@ -74,9 +74,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of gas: .708 kg/Nm3</t>
-  </si>
-  <si>
     <t>Exchanges</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
+  </si>
+  <si>
+    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of synthetic methane: .717 kg/Nm3, LHV ~47.5 MJ/kg. Using the "CO2 methanation - sewage sludge - PSA - worst - BFB_FB" configuration. Source: Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
 </sst>
 </file>
@@ -961,41 +961,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H283" sqref="H283"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1011,15 +1011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1027,25 +1027,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1054,36 +1054,36 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1092,27 +1092,27 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>5.81</v>
@@ -1121,13 +1121,13 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1139,25 +1139,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1173,15 +1172,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1189,25 +1188,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -1216,36 +1215,36 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
         <v>17</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1254,27 +1253,27 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>5.81</v>
@@ -1283,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1301,25 +1300,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1335,15 +1333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1351,25 +1349,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1378,36 +1376,36 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
       </c>
       <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
         <v>17</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1416,27 +1414,27 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>5.81</v>
@@ -1445,13 +1443,13 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
         <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1463,25 +1461,24 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1497,15 +1494,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1513,33 +1510,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>14</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1548,36 +1545,36 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
       </c>
       <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
         <v>17</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
       <c r="J44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>7.9299999999999995E-13</v>
@@ -1586,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -1601,15 +1598,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>8.0000000000000003E-10</v>
@@ -1618,10 +1615,10 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1633,15 +1630,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>1.2100000000000001E-7</v>
@@ -1650,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -1665,15 +1662,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>9.2600000000000001E-10</v>
@@ -1682,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1697,15 +1694,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>5.2899999999999997E-13</v>
@@ -1714,10 +1711,10 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1729,15 +1726,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>9.2600000000000001E-7</v>
@@ -1746,10 +1743,10 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1761,7 +1758,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51">
         <v>5.6000000000000001E-2</v>
@@ -1778,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -1793,15 +1790,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52">
         <v>2.2000000000000001E-6</v>
@@ -1810,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1825,15 +1822,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>9.9999999999999995E-7</v>
@@ -1842,10 +1839,10 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -1857,15 +1854,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>2.9000000000000003E-17</v>
@@ -1874,10 +1871,10 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1889,15 +1886,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>1.37E-6</v>
@@ -1906,10 +1903,10 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -1921,15 +1918,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>3.3099999999999999E-8</v>
@@ -1938,10 +1935,10 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1953,27 +1950,27 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>0.52500000000000002</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1985,15 +1982,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>7.9299999999999997E-7</v>
@@ -2002,10 +1999,10 @@
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2017,15 +2014,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59">
         <v>3E-11</v>
@@ -2034,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2049,15 +2046,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>9.9999999999999995E-7</v>
@@ -2066,10 +2063,10 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2081,15 +2078,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>2.72E-5</v>
@@ -2098,10 +2095,10 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2113,15 +2110,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>8.0000000000000005E-9</v>
@@ -2130,10 +2127,10 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2145,15 +2142,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>4.9999999999999998E-7</v>
@@ -2162,10 +2159,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -2177,15 +2174,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>1.15E-6</v>
@@ -2194,10 +2191,10 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2209,15 +2206,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>7.0500000000000003E-7</v>
@@ -2226,10 +2223,10 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -2241,15 +2238,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>1.6000000000000001E-8</v>
@@ -2258,10 +2255,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2273,15 +2270,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>4.9999999999999998E-7</v>
@@ -2290,10 +2287,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -2305,15 +2302,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>1.5E-9</v>
@@ -2322,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2337,15 +2334,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2354,22 +2351,22 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69">
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2384,30 +2381,30 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>2.28E-12</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
         <v>24</v>
-      </c>
-      <c r="F71" t="s">
-        <v>25</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2416,12 +2413,12 @@
         <v>2.28E-12</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <v>2.5000000000000002E-6</v>
@@ -2433,10 +2430,10 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
         <v>24</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2448,30 +2445,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>47</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>48</v>
       </c>
       <c r="B73">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
         <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>25</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2483,30 +2480,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74">
         <v>0.5</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
         <v>24</v>
-      </c>
-      <c r="F74" t="s">
-        <v>25</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2518,33 +2515,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -2556,22 +2553,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2587,15 +2583,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2603,33 +2599,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -2638,36 +2634,36 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
         <v>5</v>
       </c>
       <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
         <v>17</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>18</v>
       </c>
-      <c r="I85" t="s">
-        <v>19</v>
-      </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
       </c>
       <c r="L85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>7.9299999999999995E-13</v>
@@ -2676,10 +2672,10 @@
         <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2691,15 +2687,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>8.0000000000000003E-10</v>
@@ -2708,10 +2704,10 @@
         <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -2723,15 +2719,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88">
         <v>1.2100000000000001E-7</v>
@@ -2740,10 +2736,10 @@
         <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2755,15 +2751,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>9.2600000000000001E-10</v>
@@ -2772,10 +2768,10 @@
         <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -2787,15 +2783,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>5.2899999999999997E-13</v>
@@ -2804,10 +2800,10 @@
         <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -2819,15 +2815,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>9.2600000000000001E-7</v>
@@ -2836,10 +2832,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -2851,7 +2847,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -2859,7 +2855,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92">
         <v>5.5999999999999999E-3</v>
@@ -2868,10 +2864,10 @@
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -2883,15 +2879,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>2.2000000000000001E-6</v>
@@ -2900,10 +2896,10 @@
         <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -2915,15 +2911,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94">
         <v>9.9999999999999995E-7</v>
@@ -2932,10 +2928,10 @@
         <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -2947,15 +2943,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95">
         <v>2.9000000000000003E-17</v>
@@ -2964,10 +2960,10 @@
         <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -2979,15 +2975,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>1.37E-6</v>
@@ -2996,10 +2992,10 @@
         <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3011,15 +3007,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>3.3099999999999999E-8</v>
@@ -3028,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -3043,27 +3039,27 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>0.52500000000000002</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3075,15 +3071,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>7.9299999999999997E-7</v>
@@ -3092,10 +3088,10 @@
         <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -3107,15 +3103,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100">
         <v>3E-11</v>
@@ -3124,10 +3120,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3139,15 +3135,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>9.9999999999999995E-7</v>
@@ -3156,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -3171,15 +3167,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102">
         <v>9.9699999999999994E-6</v>
@@ -3188,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -3203,15 +3199,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103">
         <v>8.0000000000000005E-9</v>
@@ -3220,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -3235,15 +3231,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104">
         <v>4.9999999999999998E-7</v>
@@ -3252,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3267,15 +3263,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B105">
         <v>1.15E-6</v>
@@ -3284,10 +3280,10 @@
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -3299,15 +3295,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106">
         <v>7.0500000000000003E-7</v>
@@ -3316,10 +3312,10 @@
         <v>8</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3331,15 +3327,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B107">
         <v>1.6000000000000001E-8</v>
@@ -3348,10 +3344,10 @@
         <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -3363,15 +3359,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108">
         <v>4.9999999999999998E-7</v>
@@ -3380,10 +3376,10 @@
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3395,15 +3391,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B109">
         <v>1.5E-9</v>
@@ -3412,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -3427,15 +3423,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3444,24 +3440,24 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J110">
         <v>100</v>
       </c>
       <c r="K110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111">
         <v>5.04E-2</v>
@@ -3473,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
         <v>24</v>
-      </c>
-      <c r="F111" t="s">
-        <v>25</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3485,10 +3481,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3503,30 +3499,30 @@
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
       <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
         <v>24</v>
-      </c>
-      <c r="F113" t="s">
-        <v>25</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3535,27 +3531,27 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B114">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
         <v>24</v>
-      </c>
-      <c r="F114" t="s">
-        <v>25</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3564,12 +3560,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115">
         <v>2.5000000000000002E-6</v>
@@ -3581,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" t="s">
         <v>24</v>
-      </c>
-      <c r="F115" t="s">
-        <v>25</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -3596,30 +3592,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>47</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>48</v>
       </c>
       <c r="B116">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
         <v>24</v>
-      </c>
-      <c r="F116" t="s">
-        <v>25</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -3631,30 +3627,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>0.5</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" t="s">
         <v>24</v>
-      </c>
-      <c r="F117" t="s">
-        <v>25</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -3666,33 +3662,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -3704,22 +3700,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3735,15 +3730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3751,33 +3746,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
         <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>9</v>
@@ -3786,36 +3781,36 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
       </c>
       <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
         <v>17</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>18</v>
       </c>
-      <c r="I128" t="s">
-        <v>19</v>
-      </c>
       <c r="J128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K128" t="s">
         <v>11</v>
       </c>
       <c r="L128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B129">
         <v>7.9299999999999995E-13</v>
@@ -3824,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -3839,15 +3834,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130">
         <v>8.0000000000000003E-10</v>
@@ -3856,10 +3851,10 @@
         <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -3871,15 +3866,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131">
         <v>1.2100000000000001E-7</v>
@@ -3888,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -3903,15 +3898,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132">
         <v>9.2600000000000001E-10</v>
@@ -3920,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -3935,15 +3930,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B133">
         <v>5.2899999999999997E-13</v>
@@ -3952,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -3967,15 +3962,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B134">
         <v>9.2600000000000001E-7</v>
@@ -3984,10 +3979,10 @@
         <v>8</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -3999,7 +3994,7 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -4007,7 +4002,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135">
         <v>5.5999999999999999E-3</v>
@@ -4016,10 +4011,10 @@
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -4031,15 +4026,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B136">
         <v>2.2000000000000001E-6</v>
@@ -4048,10 +4043,10 @@
         <v>8</v>
       </c>
       <c r="E136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -4063,15 +4058,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B137">
         <v>9.9999999999999995E-7</v>
@@ -4080,10 +4075,10 @@
         <v>8</v>
       </c>
       <c r="E137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -4095,15 +4090,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138">
         <v>2.9000000000000003E-17</v>
@@ -4112,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -4127,15 +4122,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B139">
         <v>1.37E-6</v>
@@ -4144,10 +4139,10 @@
         <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -4159,15 +4154,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B140">
         <v>3.3099999999999999E-8</v>
@@ -4176,10 +4171,10 @@
         <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -4191,27 +4186,27 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141">
         <v>0.52500000000000002</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4223,15 +4218,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142">
         <v>7.9299999999999997E-7</v>
@@ -4240,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -4255,15 +4250,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143">
         <v>3E-11</v>
@@ -4272,10 +4267,10 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -4287,15 +4282,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K143" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144">
         <v>9.9999999999999995E-7</v>
@@ -4304,10 +4299,10 @@
         <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -4319,15 +4314,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B145">
         <v>9.9699999999999994E-6</v>
@@ -4336,10 +4331,10 @@
         <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -4351,15 +4346,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K145" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146">
         <v>8.0000000000000005E-9</v>
@@ -4368,10 +4363,10 @@
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -4383,15 +4378,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B147">
         <v>4.9999999999999998E-7</v>
@@ -4400,10 +4395,10 @@
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -4415,15 +4410,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B148">
         <v>1.15E-6</v>
@@ -4432,10 +4427,10 @@
         <v>8</v>
       </c>
       <c r="E148" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -4447,15 +4442,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B149">
         <v>7.0500000000000003E-7</v>
@@ -4464,10 +4459,10 @@
         <v>8</v>
       </c>
       <c r="E149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -4479,15 +4474,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B150">
         <v>1.6000000000000001E-8</v>
@@ -4496,10 +4491,10 @@
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -4511,15 +4506,15 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151">
         <v>4.9999999999999998E-7</v>
@@ -4528,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -4543,15 +4538,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B152">
         <v>1.5E-9</v>
@@ -4560,10 +4555,10 @@
         <v>8</v>
       </c>
       <c r="E152" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -4575,15 +4570,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4592,24 +4587,24 @@
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J153">
         <v>100</v>
       </c>
       <c r="K153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154">
         <v>5.04E-2</v>
@@ -4621,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="s">
         <v>24</v>
-      </c>
-      <c r="F154" t="s">
-        <v>25</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4633,10 +4628,10 @@
         <v>5.04E-2</v>
       </c>
       <c r="K154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4651,30 +4646,30 @@
         <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K155" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B156">
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
         <v>8</v>
       </c>
       <c r="E156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" t="s">
         <v>24</v>
-      </c>
-      <c r="F156" t="s">
-        <v>25</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4683,27 +4678,27 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K156" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B157">
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s">
         <v>24</v>
-      </c>
-      <c r="F157" t="s">
-        <v>25</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4712,12 +4707,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B158">
         <v>2.5000000000000002E-6</v>
@@ -4729,10 +4724,10 @@
         <v>8</v>
       </c>
       <c r="E158" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s">
         <v>24</v>
-      </c>
-      <c r="F158" t="s">
-        <v>25</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -4744,30 +4739,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>47</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>48</v>
       </c>
       <c r="B159">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
         <v>8</v>
       </c>
       <c r="E159" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" t="s">
         <v>24</v>
-      </c>
-      <c r="F159" t="s">
-        <v>25</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -4779,30 +4774,30 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B160">
         <v>0.5</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
       </c>
       <c r="E160" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" t="s">
         <v>24</v>
-      </c>
-      <c r="F160" t="s">
-        <v>25</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -4814,33 +4809,33 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B161">
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -4852,23 +4847,21 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4876,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4884,15 +4877,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4900,7 +4893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4908,42 +4901,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
         <v>14</v>
       </c>
-      <c r="B173" t="s">
-        <v>15</v>
-      </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
         <v>7</v>
@@ -4955,15 +4948,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
@@ -4972,13 +4965,13 @@
         <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -4986,7 +4979,7 @@
         <v>1.02</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -4995,193 +4988,192 @@
         <v>8</v>
       </c>
       <c r="G175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B176">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B177">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H177" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B178">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F178" t="s">
+        <v>155</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+      <c r="H178" t="s">
         <v>156</v>
       </c>
-      <c r="G178" t="s">
-        <v>25</v>
-      </c>
-      <c r="H178" t="s">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>158</v>
       </c>
       <c r="B179" s="7">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F179" t="s">
         <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H179" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B180">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C180" t="s">
+        <v>160</v>
+      </c>
+      <c r="E180" t="s">
+        <v>86</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>161</v>
-      </c>
-      <c r="E180" t="s">
-        <v>87</v>
-      </c>
-      <c r="F180" t="s">
-        <v>8</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>162</v>
       </c>
       <c r="B181">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F181" t="s">
         <v>8</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B182">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F182" t="s">
         <v>8</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B183">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F183" t="s">
         <v>8</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -5189,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -5197,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5213,7 +5205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5221,7 +5213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5229,33 +5221,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
       <c r="B191" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>39</v>
+      </c>
+      <c r="B192" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>40</v>
-      </c>
-      <c r="B192" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
         <v>14</v>
-      </c>
-      <c r="B194" t="s">
-        <v>15</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -5264,31 +5256,19 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F194" t="s">
         <v>5</v>
       </c>
       <c r="G194" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
-      </c>
-      <c r="I194" t="s">
-        <v>19</v>
-      </c>
-      <c r="J194" t="s">
-        <v>20</v>
-      </c>
-      <c r="K194" t="s">
-        <v>3</v>
-      </c>
-      <c r="L194" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -5302,24 +5282,22 @@
         <v>8</v>
       </c>
       <c r="E195" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" t="s">
         <v>21</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J195" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B196">
-        <v>8.06180790960452E-6</v>
+        <f>0.000000283/0.717</f>
+        <v>3.9470013947001396E-7</v>
       </c>
       <c r="C196" t="s">
         <v>10</v>
@@ -5328,35 +5306,24 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" t="s">
         <v>24</v>
       </c>
-      <c r="F196" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196">
-        <v>2</v>
-      </c>
-      <c r="H196">
-        <v>-12.073683905484531</v>
-      </c>
-      <c r="I196">
-        <v>0.41862376226685111</v>
-      </c>
-      <c r="J196" t="s">
-        <v>39</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>23</v>
+      <c r="G196" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="Q196" s="3"/>
       <c r="S196" s="3"/>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B197">
-        <v>2.768361581920904</v>
+        <f>1.972/0.717</f>
+        <v>2.7503486750348678</v>
       </c>
       <c r="C197" t="s">
         <v>10</v>
@@ -5365,35 +5332,25 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" t="s">
         <v>24</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>25</v>
       </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="H197">
-        <v>0.67294447324242579</v>
-      </c>
-      <c r="I197">
-        <v>0.20605482541341649</v>
-      </c>
-      <c r="J197" t="s">
-        <v>39</v>
-      </c>
-      <c r="K197" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q197" s="4"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B198">
-        <v>0.50779661016949151</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C198" t="s">
         <v>10</v>
@@ -5402,29 +5359,25 @@
         <v>8</v>
       </c>
       <c r="E198" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="s">
         <v>24</v>
       </c>
-      <c r="F198" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="J198" t="s">
-        <v>39</v>
-      </c>
-      <c r="K198" s="2" t="s">
-        <v>168</v>
+      <c r="G198" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B199">
-        <v>1.7655367231638421E-4</v>
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
@@ -5433,36 +5386,23 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
+        <v>23</v>
+      </c>
+      <c r="F199" t="s">
         <v>24</v>
-      </c>
-      <c r="F199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-      <c r="H199">
-        <v>-8.987196820661973</v>
-      </c>
-      <c r="I199">
-        <v>7.4210002559136581E-2</v>
-      </c>
-      <c r="J199" t="s">
-        <v>39</v>
       </c>
       <c r="Q199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="201" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2</v>
       </c>
@@ -5470,15 +5410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5486,7 +5426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5494,7 +5434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -5502,25 +5442,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="B209" t="s">
         <v>14</v>
-      </c>
-      <c r="B209" t="s">
-        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
@@ -5529,30 +5469,30 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F209" t="s">
         <v>5</v>
       </c>
       <c r="G209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
         <v>17</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>18</v>
       </c>
-      <c r="I209" t="s">
+      <c r="J209" t="s">
         <v>19</v>
-      </c>
-      <c r="J209" t="s">
-        <v>20</v>
       </c>
       <c r="K209" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5564,36 +5504,36 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" t="s">
         <v>21</v>
       </c>
-      <c r="F210" t="s">
+      <c r="J210" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J210" t="s">
-        <v>39</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211">
         <v>300</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
       </c>
       <c r="E211" t="s">
+        <v>23</v>
+      </c>
+      <c r="F211" t="s">
         <v>24</v>
-      </c>
-      <c r="F211" t="s">
-        <v>25</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -5605,22 +5545,21 @@
         <v>0.46212945076166601</v>
       </c>
       <c r="J211" t="s">
+        <v>29</v>
+      </c>
+      <c r="K211" t="s">
         <v>30</v>
       </c>
-      <c r="K211" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2</v>
       </c>
@@ -5628,15 +5567,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -5644,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -5652,7 +5591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -5660,25 +5599,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="s">
         <v>40</v>
       </c>
-      <c r="B219" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
         <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>15</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -5687,30 +5626,30 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F221" t="s">
         <v>5</v>
       </c>
       <c r="G221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
         <v>17</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
         <v>18</v>
-      </c>
-      <c r="I221" t="s">
-        <v>19</v>
       </c>
       <c r="J221" t="s">
         <v>3</v>
       </c>
       <c r="K221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5722,36 +5661,36 @@
         <v>8</v>
       </c>
       <c r="E222" t="s">
+        <v>20</v>
+      </c>
+      <c r="F222" t="s">
         <v>21</v>
       </c>
-      <c r="F222" t="s">
-        <v>22</v>
-      </c>
       <c r="J222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K222" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223">
         <v>0.81</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
       </c>
       <c r="E223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" t="s">
         <v>24</v>
-      </c>
-      <c r="F223" t="s">
-        <v>25</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -5763,30 +5702,30 @@
         <v>0.30759281954511669</v>
       </c>
       <c r="J223" t="s">
+        <v>35</v>
+      </c>
+      <c r="K223" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>36</v>
-      </c>
-      <c r="K223" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>37</v>
       </c>
       <c r="B224">
         <v>0.19</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D224" t="s">
         <v>8</v>
       </c>
       <c r="E224" t="s">
+        <v>23</v>
+      </c>
+      <c r="F224" t="s">
         <v>24</v>
-      </c>
-      <c r="F224" t="s">
-        <v>25</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -5798,22 +5737,21 @@
         <v>0.31028824386255488</v>
       </c>
       <c r="J224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K224" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5821,7 +5759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -5829,15 +5767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5845,7 +5783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5853,25 +5791,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="B234" t="s">
         <v>14</v>
-      </c>
-      <c r="B234" t="s">
-        <v>15</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
@@ -5880,33 +5818,33 @@
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F234" t="s">
         <v>5</v>
       </c>
       <c r="G234" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s">
         <v>17</v>
       </c>
-      <c r="H234" t="s">
-        <v>18</v>
-      </c>
       <c r="I234" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J234" t="s">
         <v>11</v>
       </c>
       <c r="K234" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L234" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B235">
         <v>1.2300000000000001E-4</v>
@@ -5915,10 +5853,10 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -5927,12 +5865,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J235" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B236">
         <v>6.0000000000000002E-6</v>
@@ -5941,10 +5879,10 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -5953,24 +5891,24 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J236" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B237">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D237" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E237" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -5979,12 +5917,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J237" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5996,24 +5934,24 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I238">
         <v>100</v>
       </c>
       <c r="J238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K238" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6025,10 +5963,10 @@
         <v>8</v>
       </c>
       <c r="E239" t="s">
+        <v>23</v>
+      </c>
+      <c r="F239" t="s">
         <v>24</v>
-      </c>
-      <c r="F239" t="s">
-        <v>25</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6037,15 +5975,15 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K239" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B240">
         <v>0.38400000000000001</v>
@@ -6054,13 +5992,13 @@
         <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E240" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" t="s">
         <v>24</v>
-      </c>
-      <c r="F240" t="s">
-        <v>25</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6069,15 +6007,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J240" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K240" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B241">
         <v>8.2699999999999996E-11</v>
@@ -6089,10 +6027,10 @@
         <v>7</v>
       </c>
       <c r="E241" t="s">
+        <v>23</v>
+      </c>
+      <c r="F241" t="s">
         <v>24</v>
-      </c>
-      <c r="F241" t="s">
-        <v>25</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6101,33 +6039,33 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J241" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K241" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L241" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B242">
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="C242" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D242" t="s">
         <v>7</v>
       </c>
       <c r="E242" t="s">
+        <v>23</v>
+      </c>
+      <c r="F242" t="s">
         <v>24</v>
-      </c>
-      <c r="F242" t="s">
-        <v>25</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6136,33 +6074,33 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J242" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K242" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L242" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B243">
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D243" t="s">
         <v>8</v>
       </c>
       <c r="E243" t="s">
+        <v>23</v>
+      </c>
+      <c r="F243" t="s">
         <v>24</v>
-      </c>
-      <c r="F243" t="s">
-        <v>25</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6171,33 +6109,33 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J243" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L243" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B244">
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="C244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
       </c>
       <c r="E244" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" t="s">
         <v>24</v>
-      </c>
-      <c r="F244" t="s">
-        <v>25</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6206,33 +6144,33 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J244" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K244" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L244" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B245">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="C245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D245" t="s">
         <v>7</v>
       </c>
       <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" t="s">
         <v>24</v>
-      </c>
-      <c r="F245" t="s">
-        <v>25</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6241,33 +6179,33 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J245" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K245" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L245" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B246">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="C246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D246" t="s">
         <v>8</v>
       </c>
       <c r="E246" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246" t="s">
         <v>24</v>
-      </c>
-      <c r="F246" t="s">
-        <v>25</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6276,33 +6214,33 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J246" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K246" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L246" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B247">
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="C247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
       </c>
       <c r="E247" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247" t="s">
         <v>24</v>
-      </c>
-      <c r="F247" t="s">
-        <v>25</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6311,33 +6249,33 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J247" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K247" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L247" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248">
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D248" t="s">
         <v>8</v>
       </c>
       <c r="E248" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" t="s">
         <v>24</v>
-      </c>
-      <c r="F248" t="s">
-        <v>25</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6346,33 +6284,33 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J248" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L248" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B249">
         <v>-2.2699999999999999E-4</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D249" t="s">
         <v>8</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6381,25 +6319,24 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J249" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K249" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L249" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -6407,7 +6344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2</v>
       </c>
@@ -6415,15 +6352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6431,7 +6368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6439,25 +6376,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B257" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
         <v>14</v>
-      </c>
-      <c r="B259" t="s">
-        <v>15</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
@@ -6466,33 +6403,33 @@
         <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F259" t="s">
         <v>5</v>
       </c>
       <c r="G259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
         <v>17</v>
       </c>
-      <c r="H259" t="s">
-        <v>18</v>
-      </c>
       <c r="I259" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J259" t="s">
         <v>11</v>
       </c>
       <c r="K259" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L259" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B260">
         <v>1.2300000000000001E-4</v>
@@ -6501,10 +6438,10 @@
         <v>8</v>
       </c>
       <c r="E260" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -6513,12 +6450,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J260" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B261">
         <v>6.0000000000000002E-6</v>
@@ -6527,10 +6464,10 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -6539,24 +6476,24 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J261" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B262">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D262" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E262" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -6565,12 +6502,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J262" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6582,24 +6519,24 @@
         <v>8</v>
       </c>
       <c r="E263" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I263">
         <v>100</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K263" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6611,10 +6548,10 @@
         <v>8</v>
       </c>
       <c r="E264" t="s">
+        <v>23</v>
+      </c>
+      <c r="F264" t="s">
         <v>24</v>
-      </c>
-      <c r="F264" t="s">
-        <v>25</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -6623,15 +6560,15 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K264" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B265">
         <v>0.38400000000000001</v>
@@ -6640,13 +6577,13 @@
         <v>10</v>
       </c>
       <c r="D265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E265" t="s">
+        <v>23</v>
+      </c>
+      <c r="F265" t="s">
         <v>24</v>
-      </c>
-      <c r="F265" t="s">
-        <v>25</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -6655,15 +6592,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J265" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K265" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B266">
         <v>8.2699999999999996E-11</v>
@@ -6675,10 +6612,10 @@
         <v>7</v>
       </c>
       <c r="E266" t="s">
+        <v>23</v>
+      </c>
+      <c r="F266" t="s">
         <v>24</v>
-      </c>
-      <c r="F266" t="s">
-        <v>25</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -6687,33 +6624,33 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J266" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K266" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L266" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B267">
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="C267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
       </c>
       <c r="E267" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267" t="s">
         <v>24</v>
-      </c>
-      <c r="F267" t="s">
-        <v>25</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -6722,33 +6659,33 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J267" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K267" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L267" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B268">
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="C268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D268" t="s">
         <v>8</v>
       </c>
       <c r="E268" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268" t="s">
         <v>24</v>
-      </c>
-      <c r="F268" t="s">
-        <v>25</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -6757,33 +6694,33 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J268" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L268" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B269">
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="C269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
       </c>
       <c r="E269" t="s">
+        <v>23</v>
+      </c>
+      <c r="F269" t="s">
         <v>24</v>
-      </c>
-      <c r="F269" t="s">
-        <v>25</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -6792,33 +6729,33 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J269" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L269" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B270">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="C270" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D270" t="s">
         <v>7</v>
       </c>
       <c r="E270" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270" t="s">
         <v>24</v>
-      </c>
-      <c r="F270" t="s">
-        <v>25</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -6827,33 +6764,33 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J270" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K270" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L270" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B271">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="C271" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D271" t="s">
         <v>8</v>
       </c>
       <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271" t="s">
         <v>24</v>
-      </c>
-      <c r="F271" t="s">
-        <v>25</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -6862,33 +6799,33 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J271" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K271" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L271" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B272">
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="C272" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
       </c>
       <c r="E272" t="s">
+        <v>23</v>
+      </c>
+      <c r="F272" t="s">
         <v>24</v>
-      </c>
-      <c r="F272" t="s">
-        <v>25</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -6897,33 +6834,33 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J272" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K272" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L272" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273">
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="C273" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D273" t="s">
         <v>8</v>
       </c>
       <c r="E273" t="s">
+        <v>23</v>
+      </c>
+      <c r="F273" t="s">
         <v>24</v>
-      </c>
-      <c r="F273" t="s">
-        <v>25</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -6932,33 +6869,33 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J273" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K273" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L273" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B274">
         <v>-2.2699999999999999E-4</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D274" t="s">
         <v>8</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -6967,24 +6904,17 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J274" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K274" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L274" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S274" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="carbon dioxide, captured from atmosphere"/>
-        <filter val="Carbon dioxide, non-fossil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S274" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF597483-9A7E-B143-9A0C-8A4BC9DDBD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F23179-7F29-F041-8167-3E70B7415EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="175">
   <si>
     <t>Activity</t>
   </si>
@@ -149,9 +149,6 @@
     <t>range of values from different references</t>
   </si>
   <si>
-    <t>Sodium hydroxide, 50% in H2O, production mix, at plant/RER U</t>
-  </si>
-  <si>
     <t>basic uncertainty:1.05;(4,na,3,1,1,na)</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>CCS Europe 2025::Wood</t>
   </si>
   <si>
-    <t>Disposal, solvents mixture, 16.5% water, to hazardous waste incineration/CH U</t>
-  </si>
-  <si>
     <t>Moser et al. (2010)</t>
   </si>
   <si>
@@ -305,57 +299,36 @@
     <t>RECCS 2007</t>
   </si>
   <si>
-    <t>Pump 40W, at plant/CH/I U</t>
-  </si>
-  <si>
     <t>n_pump = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for pump, 40W</t>
   </si>
   <si>
-    <t>Monoethanolamine, at plant/RER U</t>
-  </si>
-  <si>
     <t>market for monoethanolamine</t>
   </si>
   <si>
-    <t>Liquid storage tank, chemicals, organics/CH/I U</t>
-  </si>
-  <si>
     <t>n_tank = V_total*lifetime_ratio/(V_ref*lifetime plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for liquid storage tank, chemicals, organics</t>
   </si>
   <si>
-    <t>Gas turbine, 10MWe, at production plant/RER/I U</t>
-  </si>
-  <si>
     <t>n_GT = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for gas turbine, 10MW electrical</t>
   </si>
   <si>
-    <t>Charcoal, at plant/GLO U</t>
-  </si>
-  <si>
     <t>market for charcoal</t>
   </si>
   <si>
-    <t>Absorption chiller 100kW/CH/I U</t>
-  </si>
-  <si>
     <t>n_absorption chiller = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
     <t>market for absorption chiller, 100kW</t>
   </si>
   <si>
-    <t>Heat exchanger of cogen unit 160kWe/RER/I U</t>
-  </si>
-  <si>
     <t>n_HX = n_total*lifetime_ratio/(lifetime_plant*annual m_flow)</t>
   </si>
   <si>
@@ -536,9 +509,6 @@
     <t>heat pump, heat and power co-generation unit, 160kW electrical</t>
   </si>
   <si>
-    <t>methane, from electrochemical methanation, with carbon from atmospheric carbon dioxide capture</t>
-  </si>
-  <si>
     <t>SNG from hydrogen + carbon dioxide from air</t>
   </si>
   <si>
@@ -557,24 +527,9 @@
     <t>carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2</t>
   </si>
   <si>
-    <t>carbon dioxide capture/synthetic natural gas, post, 200km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>carbon dioxide capture/synthetic natural gas, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
-    <t>carbon dioxide storage/synthetic natural gas, post, 200km pipeline, storage 1000m</t>
-  </si>
-  <si>
-    <t>carbon dioxide storage/synthetic natural gas, post, 200km pipeline, storage 1000m/RER U</t>
-  </si>
-  <si>
     <t>electricity production, from combined cycle plant, synthetic natural gas</t>
   </si>
   <si>
-    <t>electricity production, from combined cycle plant, synthetic natural gas/RER U</t>
-  </si>
-  <si>
     <t>measurement, single combined cycle power plant</t>
   </si>
   <si>
@@ -588,6 +543,24 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at synthetic natural gas plant, post, 200km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage at synthetic natural gas plant, post, 200km pipeline, storage 1000m</t>
+  </si>
+  <si>
+    <t>market group for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>ENTSO-E</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere</t>
   </si>
 </sst>
 </file>
@@ -1002,11 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +991,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1027,18 +999,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1054,15 +1026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1070,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1078,12 +1050,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1112,21 +1084,15 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1138,24 +1104,18 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>4.6073299999999991E-12</v>
@@ -1164,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1178,16 +1138,16 @@
       <c r="I12">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>4.6479999999999997E-9</v>
@@ -1196,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1210,16 +1170,16 @@
       <c r="I13">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>7.0301000000000005E-7</v>
@@ -1228,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -1242,16 +1202,16 @@
       <c r="I14">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>5.3800599999999993E-9</v>
@@ -1260,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1274,16 +1234,16 @@
       <c r="I15">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>3.0734899999999997E-12</v>
@@ -1292,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -1306,16 +1266,16 @@
       <c r="I16">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>5.3800599999999993E-6</v>
@@ -1324,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -1338,26 +1298,26 @@
       <c r="I17">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B18">
-        <f>2.75*B36</f>
-        <v>0.28788288288288283</v>
+        <f>B36*47.5*0.054</f>
+        <v>0.31354838709677418</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -1371,16 +1331,16 @@
       <c r="I18">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>1.2782000000000001E-5</v>
@@ -1389,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1403,16 +1363,16 @@
       <c r="I19">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>5.8099999999999994E-6</v>
@@ -1421,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1435,16 +1395,16 @@
       <c r="I20">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <v>1.6849E-16</v>
@@ -1453,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1467,16 +1427,16 @@
       <c r="I21">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K21" t="s">
+      <c r="J21" t="s">
         <v>33</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>7.9596999999999994E-6</v>
@@ -1485,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -1499,16 +1459,16 @@
       <c r="I22">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>1.9231099999999998E-7</v>
@@ -1517,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -1531,25 +1491,25 @@
       <c r="I23">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>3.0502500000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -1563,16 +1523,16 @@
       <c r="I24">
         <v>2.439508208471609E-2</v>
       </c>
-      <c r="K24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>4.6073299999999995E-6</v>
@@ -1581,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -1595,16 +1555,16 @@
       <c r="I25">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>1.7429999999999998E-10</v>
@@ -1613,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -1627,16 +1587,16 @@
       <c r="I26">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K26" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>5.8099999999999994E-6</v>
@@ -1645,7 +1605,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -1659,16 +1619,16 @@
       <c r="I27">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K27" t="s">
+      <c r="J27" t="s">
         <v>36</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>1.5803199999999998E-4</v>
@@ -1677,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -1691,16 +1651,16 @@
       <c r="I28">
         <v>0.20273255405408211</v>
       </c>
-      <c r="K28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>4.6479999999999997E-8</v>
@@ -1709,7 +1669,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -1723,16 +1683,16 @@
       <c r="I29">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K29" t="s">
+      <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>2.9049999999999997E-6</v>
@@ -1741,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -1755,16 +1715,16 @@
       <c r="I30">
         <v>0.54930614433405478</v>
       </c>
-      <c r="K30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>6.6814999999999995E-6</v>
@@ -1773,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
@@ -1787,16 +1747,16 @@
       <c r="I31">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>4.0960499999999995E-6</v>
@@ -1805,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -1819,16 +1779,16 @@
       <c r="I32">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K32" t="s">
-        <v>48</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>9.2959999999999993E-8</v>
@@ -1837,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -1851,16 +1811,16 @@
       <c r="I33">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K33" t="s">
+      <c r="J33" t="s">
         <v>33</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>2.9049999999999997E-6</v>
@@ -1869,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>25</v>
@@ -1883,16 +1843,16 @@
       <c r="I34">
         <v>4.7655089902162509E-2</v>
       </c>
-      <c r="K34" t="s">
-        <v>51</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>8.714999999999999E-9</v>
@@ -1901,7 +1861,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
         <v>25</v>
@@ -1915,19 +1875,20 @@
       <c r="I35">
         <v>0.80471895621705025</v>
       </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B36" s="5">
-        <v>0.10468468468468467</v>
+        <f>3.6/0.62/47.5</f>
+        <v>0.12224108658743633</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1938,13 +1899,13 @@
       <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="K36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>1.3246799999999999E-11</v>
@@ -1967,13 +1928,13 @@
       <c r="H37">
         <v>2.28E-12</v>
       </c>
-      <c r="K37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1.4525000000000001E-5</v>
@@ -1999,16 +1960,16 @@
       <c r="I38">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>38</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>39</v>
       </c>
       <c r="B39">
         <v>1.1619999999999999E-5</v>
@@ -2034,16 +1995,16 @@
       <c r="I39">
         <v>0.1075556898084728</v>
       </c>
-      <c r="K39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>2.9049999999999998</v>
@@ -2069,17 +2030,14 @@
       <c r="I40">
         <v>0.45814536593707761</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>36</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2107,24 +2065,22 @@
       <c r="I41">
         <v>1.0397207708399181</v>
       </c>
-      <c r="K41" t="s">
+      <c r="J41" t="s">
         <v>33</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2140,15 +2096,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2164,12 +2120,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2198,21 +2154,21 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2224,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2233,15 +2189,15 @@
         <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>4.6073299999999991E-12</v>
@@ -2250,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
@@ -2265,15 +2221,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>4.6479999999999997E-9</v>
@@ -2282,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
@@ -2303,9 +2259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>7.0301000000000005E-7</v>
@@ -2314,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
         <v>25</v>
@@ -2335,9 +2291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>5.3800599999999993E-9</v>
@@ -2346,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
         <v>25</v>
@@ -2361,15 +2317,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57">
         <v>3.0734899999999997E-12</v>
@@ -2378,7 +2334,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
@@ -2393,15 +2349,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>5.3800599999999993E-6</v>
@@ -2410,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
         <v>25</v>
@@ -2425,25 +2381,25 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B59">
-        <f>2.75*B78*0.1</f>
-        <v>2.8788288288288284E-2</v>
+        <f>B78*47.5*0.054*0.1</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s">
         <v>25</v>
@@ -2458,15 +2414,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>1.2782000000000001E-5</v>
@@ -2475,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -2490,15 +2446,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>5.8099999999999994E-6</v>
@@ -2507,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
         <v>25</v>
@@ -2522,15 +2478,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>1.6849E-16</v>
@@ -2539,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
         <v>25</v>
@@ -2560,9 +2516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>7.9596999999999994E-6</v>
@@ -2571,7 +2527,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
@@ -2586,15 +2542,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>1.9231099999999998E-7</v>
@@ -2603,7 +2559,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
@@ -2618,24 +2574,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>3.0502500000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
@@ -2650,15 +2606,15 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>4.6073299999999995E-6</v>
@@ -2667,7 +2623,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -2682,15 +2638,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>1.7429999999999998E-10</v>
@@ -2699,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" t="s">
         <v>25</v>
@@ -2714,15 +2670,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>5.8099999999999994E-6</v>
@@ -2731,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
         <v>25</v>
@@ -2752,9 +2708,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>5.7925699999999993E-5</v>
@@ -2763,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -2778,15 +2734,15 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>4.6479999999999997E-8</v>
@@ -2795,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>25</v>
@@ -2816,9 +2772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71">
         <v>2.9049999999999997E-6</v>
@@ -2827,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" t="s">
         <v>25</v>
@@ -2842,15 +2798,15 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <v>6.6814999999999995E-6</v>
@@ -2859,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
@@ -2874,15 +2830,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>4.0960499999999995E-6</v>
@@ -2891,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
         <v>25</v>
@@ -2906,15 +2862,15 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <v>9.2959999999999993E-8</v>
@@ -2923,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
         <v>25</v>
@@ -2944,9 +2900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
         <v>2.9049999999999997E-6</v>
@@ -2955,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
         <v>25</v>
@@ -2970,15 +2926,15 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>8.714999999999999E-9</v>
@@ -2987,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
         <v>25</v>
@@ -3002,19 +2958,19 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B77">
-        <f>2.75*B78*0.9</f>
-        <v>0.25909459459459455</v>
+        <f>B78*47.5*0.054*0.9</f>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -3035,15 +2991,16 @@
         <v>5.04E-2</v>
       </c>
       <c r="K77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B78" s="5">
-        <v>0.10468468468468467</v>
+        <f>3.6/0.54/47.5</f>
+        <v>0.14035087719298245</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -3055,12 +3012,12 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79">
         <v>4.4736999999999999E-4</v>
@@ -3084,12 +3041,12 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>1.27239E-11</v>
@@ -3113,12 +3070,12 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81">
         <v>1.4525000000000001E-5</v>
@@ -3145,15 +3102,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>38</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>39</v>
       </c>
       <c r="B82">
         <v>1.1619999999999999E-5</v>
@@ -3180,15 +3137,15 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>2.9049999999999998</v>
@@ -3221,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -3259,16 +3216,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3284,15 +3240,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3308,20 +3264,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3347,21 +3303,18 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
       </c>
       <c r="K94" t="s">
-        <v>79</v>
-      </c>
-      <c r="L94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>1.2300000000000001E-4</v>
@@ -3370,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F95" t="s">
         <v>25</v>
@@ -3382,12 +3335,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>6.0000000000000002E-6</v>
@@ -3396,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F96" t="s">
         <v>25</v>
@@ -3408,21 +3361,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -3434,12 +3387,12 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3451,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
@@ -3460,15 +3413,12 @@
         <v>100</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3492,21 +3442,18 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>168</v>
-      </c>
-      <c r="K99" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B100">
         <v>0.38400000000000001</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -3524,15 +3471,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J100" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B101">
         <v>8.2699999999999996E-11</v>
@@ -3556,18 +3503,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J101" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s">
-        <v>105</v>
-      </c>
-      <c r="L101" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>7.4400000000000002E-10</v>
@@ -3591,18 +3535,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>102</v>
-      </c>
-      <c r="L102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>8.2600000000000002E-5</v>
@@ -3626,18 +3567,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s">
-        <v>100</v>
-      </c>
-      <c r="L103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>3.3099999999999999E-10</v>
@@ -3661,18 +3599,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J104" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s">
-        <v>97</v>
-      </c>
-      <c r="L104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B105">
         <v>5.1400000000000003E-12</v>
@@ -3696,18 +3631,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J105" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s">
-        <v>94</v>
-      </c>
-      <c r="L105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>2.8400000000000002E-4</v>
@@ -3731,18 +3663,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K106" t="s">
-        <v>92</v>
-      </c>
-      <c r="L106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107">
         <v>5.7899999999999997E-10</v>
@@ -3766,18 +3695,15 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J107" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K107" t="s">
-        <v>89</v>
-      </c>
-      <c r="L107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108">
         <v>3.0400000000000002E-4</v>
@@ -3801,18 +3727,15 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s">
-        <v>37</v>
-      </c>
-      <c r="L108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B109">
         <v>-2.2699999999999999E-4</v>
@@ -3836,22 +3759,18 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J109" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -3860,7 +3779,7 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>1</v>
       </c>
@@ -3874,7 +3793,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>2</v>
       </c>
@@ -3888,7 +3807,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>4</v>
       </c>
@@ -3902,7 +3821,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +3835,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>8</v>
       </c>
@@ -3930,12 +3849,12 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3944,12 +3863,12 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3958,7 +3877,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>11</v>
       </c>
@@ -3969,7 +3888,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>12</v>
       </c>
@@ -4001,39 +3920,39 @@
         <v>16</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -4057,12 +3976,12 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="T121" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B122" s="7">
         <f>0.000000283/0.717</f>
@@ -4123,9 +4042,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B123" s="8">
         <f>1.972/0.717</f>
@@ -4179,7 +4098,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B124" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4195,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I124" s="7">
         <v>2</v>
@@ -4231,9 +4150,9 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B125" s="7">
         <f>0.00006/0.717</f>
@@ -4249,7 +4168,7 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
@@ -4284,7 +4203,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="11"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -4293,12 +4212,12 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4307,7 +4226,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>1</v>
       </c>
@@ -4321,7 +4240,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>2</v>
       </c>
@@ -4335,7 +4254,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4268,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>6</v>
       </c>
@@ -4363,7 +4282,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>8</v>
       </c>
@@ -4377,12 +4296,12 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4391,12 +4310,12 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4405,7 +4324,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>11</v>
       </c>
@@ -4416,7 +4335,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>12</v>
       </c>
@@ -4448,39 +4367,39 @@
         <v>16</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L136" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S136" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -4504,12 +4423,12 @@
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
       <c r="T137" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B138" s="7">
         <f>0.000000283/0.717</f>
@@ -4570,9 +4489,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B139" s="7">
         <f>1.972/0.717</f>
@@ -4588,7 +4507,7 @@
         <v>22</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I139" s="7">
         <v>2</v>
@@ -4626,7 +4545,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B140" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -4642,7 +4561,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4678,9 +4597,9 @@
       </c>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B141" s="7">
         <f>0.00006/0.717</f>
@@ -4696,7 +4615,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
@@ -4731,7 +4650,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
@@ -4739,12 +4658,12 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4753,7 +4672,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +4686,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>2</v>
       </c>
@@ -4781,7 +4700,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
@@ -4795,7 +4714,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>6</v>
       </c>
@@ -4809,7 +4728,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>8</v>
       </c>
@@ -4823,12 +4742,12 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4837,12 +4756,12 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4851,7 +4770,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>11</v>
       </c>
@@ -4862,7 +4781,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>12</v>
       </c>
@@ -4894,37 +4813,37 @@
         <v>16</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L152" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O152" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P152" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S152" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="str">
         <f>B143</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
@@ -4951,12 +4870,12 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="T153" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B154" s="7">
         <f>0.000000283/0.717</f>
@@ -5017,9 +4936,9 @@
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B155" s="7">
         <f>1.972/0.717</f>
@@ -5035,7 +4954,7 @@
         <v>22</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I155" s="7">
         <v>2</v>
@@ -5073,7 +4992,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B156" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5089,7 +5008,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -5125,9 +5044,9 @@
       </c>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B157" s="7">
         <f>0.00006/0.717</f>
@@ -5143,7 +5062,7 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
@@ -5178,7 +5097,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="8"/>
@@ -5186,12 +5105,12 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
     </row>
-    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5200,7 +5119,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>1</v>
       </c>
@@ -5214,12 +5133,12 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5228,7 +5147,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>4</v>
       </c>
@@ -5242,7 +5161,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5175,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>8</v>
       </c>
@@ -5270,12 +5189,12 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5284,12 +5203,12 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5298,7 +5217,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>11</v>
       </c>
@@ -5309,7 +5228,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>12</v>
       </c>
@@ -5341,37 +5260,37 @@
         <v>16</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L168" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M168" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O168" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P168" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S168" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f>B159</f>
         <v>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</v>
@@ -5399,12 +5318,12 @@
       <c r="O169" s="8"/>
       <c r="P169" s="8"/>
       <c r="T169" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B170" s="7">
         <v>2.75</v>
@@ -5467,7 +5386,7 @@
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B171" s="7">
         <v>0.5</v>
@@ -5482,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -5518,9 +5437,9 @@
       </c>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B172" s="7">
         <v>1.55</v>
@@ -5535,10 +5454,10 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
@@ -5574,9 +5493,9 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B173" s="14">
         <f>0.0833/51.3</f>
@@ -5592,10 +5511,10 @@
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -5631,28 +5550,28 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B174" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -5700,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -5708,12 +5627,12 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5722,7 +5641,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>1</v>
       </c>
@@ -5736,12 +5655,12 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5750,7 +5669,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5683,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
@@ -5778,7 +5697,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -5792,12 +5711,12 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5806,12 +5725,12 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5820,7 +5739,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>11</v>
       </c>
@@ -5831,7 +5750,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>12</v>
       </c>
@@ -5863,37 +5782,37 @@
         <v>16</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L185" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M185" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O185" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P185" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S185" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="str">
         <f>B176</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
@@ -5921,12 +5840,12 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="T186" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B187" s="7">
         <v>2.75</v>
@@ -5941,7 +5860,7 @@
         <v>22</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I187" s="7">
         <v>2</v>
@@ -5989,7 +5908,7 @@
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B188" s="7">
         <v>0.5</v>
@@ -6004,7 +5923,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -6040,9 +5959,9 @@
       </c>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B189" s="7">
         <v>1.55</v>
@@ -6057,10 +5976,10 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
@@ -6096,9 +6015,9 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B190" s="14">
         <f>0.0833/51.3</f>
@@ -6114,10 +6033,10 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
@@ -6153,28 +6072,28 @@
       </c>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B191" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I191" s="7">
         <v>2</v>
@@ -6222,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -6230,12 +6149,12 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -6244,7 +6163,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>1</v>
       </c>
@@ -6258,12 +6177,12 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6272,7 +6191,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>4</v>
       </c>
@@ -6286,7 +6205,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>6</v>
       </c>
@@ -6300,7 +6219,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>8</v>
       </c>
@@ -6314,12 +6233,12 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6328,12 +6247,12 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6342,7 +6261,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>11</v>
       </c>
@@ -6353,7 +6272,7 @@
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>12</v>
       </c>
@@ -6385,37 +6304,37 @@
         <v>16</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L202" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O202" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P202" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S202" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="str">
         <f>B193</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
@@ -6443,12 +6362,12 @@
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
       <c r="T203" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B204" s="7">
         <v>2.75</v>
@@ -6463,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I204" s="7">
         <v>2</v>
@@ -6511,7 +6430,7 @@
     </row>
     <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B205" s="7">
         <v>0.5</v>
@@ -6526,7 +6445,7 @@
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>
@@ -6562,9 +6481,9 @@
       </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B206" s="7">
         <v>1.55</v>
@@ -6579,10 +6498,10 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -6618,9 +6537,9 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B207" s="14">
         <f>0.0833/51.3</f>
@@ -6636,10 +6555,10 @@
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
@@ -6675,28 +6594,28 @@
       </c>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B208" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I208" s="7">
         <v>2</v>
@@ -6744,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
       <c r="M209" s="8"/>
@@ -6752,12 +6671,12 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
@@ -6766,7 +6685,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>1</v>
       </c>
@@ -6780,7 +6699,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6713,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6727,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>6</v>
       </c>
@@ -6822,7 +6741,7 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>8</v>
       </c>
@@ -6836,12 +6755,12 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6850,7 +6769,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>11</v>
       </c>
@@ -6861,7 +6780,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>12</v>
       </c>
@@ -6893,39 +6812,39 @@
         <v>16</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M218" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O218" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P218" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S218" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B219" s="7">
         <v>1</v>
@@ -6949,12 +6868,12 @@
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
       <c r="T219" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B220" s="7">
         <v>5940</v>
@@ -6969,7 +6888,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I220" s="7">
         <v>2</v>
@@ -7014,9 +6933,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B221" s="7">
         <v>660</v>
@@ -7031,7 +6950,7 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
@@ -7066,7 +6985,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
       <c r="M222" s="8"/>
@@ -7074,12 +6993,12 @@
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
@@ -7088,7 +7007,7 @@
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>1</v>
       </c>
@@ -7102,12 +7021,12 @@
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7116,7 +7035,7 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7049,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>6</v>
       </c>
@@ -7144,7 +7063,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>8</v>
       </c>
@@ -7158,7 +7077,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>31</v>
       </c>
@@ -7172,7 +7091,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7102,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>12</v>
       </c>
@@ -7215,39 +7134,39 @@
         <v>16</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L231" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M231" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O231" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P231" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S231" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B232" s="7">
         <v>1</v>
@@ -7262,7 +7181,7 @@
         <v>19</v>
       </c>
       <c r="G232" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -7271,10 +7190,10 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
       <c r="T232" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>28</v>
       </c>
@@ -7336,9 +7255,9 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B234" s="7">
         <v>0.19</v>
@@ -7353,7 +7272,7 @@
         <v>22</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I234" s="7">
         <v>2</v>
@@ -7388,7 +7307,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
@@ -7397,13 +7316,7 @@
       <c r="P235" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 200 bar, from PEM electrolysis, from grid electricity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B200" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
     <hyperlink ref="B183" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F23179-7F29-F041-8167-3E70B7415EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB0CF3-42E5-F84D-AFBD-F03AB20A1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,9 +518,6 @@
     <t>Originally in cubic meter. Composition: 96% CH4, 4% carbon dioxide, Density of synthetic methane: .717 kg/Nm3, LHV ~47.5 MJ/kg. Using the "carbon dioxide methanation - sewage sludge - PSA - worst - BFB_FB" configuration. Source: Life cycle assessment of power-to-gas with biogas as the carbon source. Xiaojin Zhang, Julia Witte, Tilman Schildhauer and Christian Bauer. https://doi.org/10.1039/C9SE00986H</t>
   </si>
   <si>
-    <t>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</t>
-  </si>
-  <si>
     <t>Based on stoichiometry, for every kilogram of methane produced, the system would consume approximately 2.75 kilograms of carbon dioxide and 0.5 kilograms of H2, and produce approximately 2.25 kilograms of water. Rest of info Adapted from BioCat II project Annex I 2014. Consider 51.3 kg CH4 per full-load hour. Reactor heat re-circulated at the wastewater treatment plant, hence not considered here. Infrastructure missing.</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>methane, from electrochemical methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>methane, from biological methanation, with carbon from atmosphere</t>
   </si>
 </sst>
 </file>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="5">
         <f>3.6/0.62/47.5</f>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77">
         <f>B78*47.5*0.054*0.9</f>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="5">
         <f>3.6/0.54/47.5</f>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3245,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3392,7 +3392,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3447,13 +3447,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100">
         <v>0.38400000000000001</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -3474,7 +3474,7 @@
         <v>98</v>
       </c>
       <c r="K100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="8">
         <f>1.972/0.717</f>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4114,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I124" s="7">
         <v>2</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -4561,7 +4561,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5008,7 +5008,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5194,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5293,7 +5293,7 @@
     <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f>B159</f>
-        <v>methane, from biological methanation, with carbon from atmospheric carbon dioxide capture</v>
+        <v>methane, from biological methanation, with carbon from atmosphere</v>
       </c>
       <c r="B169" s="7">
         <v>1</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B170" s="7">
         <v>2.75</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B171" s="7">
         <v>0.5</v>
@@ -5401,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
@@ -5716,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B188" s="7">
         <v>0.5</v>
@@ -5923,7 +5923,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -6238,7 +6238,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B205" s="7">
         <v>0.5</v>
@@ -6445,7 +6445,7 @@
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB0CF3-42E5-F84D-AFBD-F03AB20A1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AA586-EB61-CD42-92B2-6EB10E4E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="178">
   <si>
     <t>Activity</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>methane, from biological methanation, with carbon from atmosphere</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>We assume 600 gallons of water consumed per ton CO2 captured, the rest is evaporated. Very uncertain. Based on https://netl.doe.gov/sites/default/files/event-proceedings/2014/carbon_storage/10--Christopher-Harto.pdf</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +669,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2392,8 +2402,8 @@
         <v>107</v>
       </c>
       <c r="B59">
-        <f>B78*47.5*0.054*0.1</f>
-        <v>3.5999999999999997E-2</v>
+        <f>B78*2.65*0.1</f>
+        <v>3.7192982456140354E-2</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2969,8 +2979,8 @@
         <v>168</v>
       </c>
       <c r="B77">
-        <f>B78*47.5*0.054*0.9</f>
-        <v>0.32400000000000001</v>
+        <f>B78*2.65*0.9</f>
+        <v>0.33473684210526317</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -3392,33 +3402,28 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="B98" s="15">
+        <f>((B97*1000)-(600*3.78541/1000))/1000</f>
+        <v>8.0928753999999992E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3430,33 +3435,30 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I99">
+        <v>100</v>
       </c>
       <c r="J99" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100">
-        <v>0.38400000000000001</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -3468,27 +3470,24 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.38400000000000001</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>98</v>
-      </c>
-      <c r="K100" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B101">
-        <v>8.2699999999999996E-11</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -3500,24 +3499,24 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>8.2699999999999996E-11</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="J101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K101" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B102">
-        <v>7.4400000000000002E-10</v>
+        <v>8.2699999999999996E-11</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
@@ -3532,27 +3531,27 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>7.4400000000000002E-10</v>
+        <v>8.2699999999999996E-11</v>
       </c>
       <c r="J102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B103">
-        <v>8.2600000000000002E-5</v>
+        <v>7.4400000000000002E-10</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -3564,27 +3563,27 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8.2600000000000002E-5</v>
+        <v>7.4400000000000002E-10</v>
       </c>
       <c r="J103" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B104">
-        <v>3.3099999999999999E-10</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -3596,21 +3595,21 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>3.3099999999999999E-10</v>
+        <v>8.2600000000000002E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B105">
-        <v>5.1400000000000003E-12</v>
+        <v>3.3099999999999999E-10</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -3628,27 +3627,27 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5.1400000000000003E-12</v>
+        <v>3.3099999999999999E-10</v>
       </c>
       <c r="J105" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106">
-        <v>2.8400000000000002E-4</v>
+        <v>5.1400000000000003E-12</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -3660,27 +3659,27 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>2.8400000000000002E-4</v>
+        <v>5.1400000000000003E-12</v>
       </c>
       <c r="J106" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B107">
-        <v>5.7899999999999997E-10</v>
+        <v>2.8400000000000002E-4</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -3692,27 +3691,27 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>5.7899999999999997E-10</v>
+        <v>2.8400000000000002E-4</v>
       </c>
       <c r="J107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B108">
-        <v>3.0400000000000002E-4</v>
+        <v>5.7899999999999997E-10</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -3724,30 +3723,30 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>3.0400000000000002E-4</v>
+        <v>5.7899999999999997E-10</v>
       </c>
       <c r="J108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B109">
-        <v>-2.2699999999999999E-4</v>
+        <v>3.0400000000000002E-4</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>22</v>
@@ -3756,35 +3755,53 @@
         <v>0</v>
       </c>
       <c r="H109">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110">
+        <v>-2.2699999999999999E-4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J110" t="s">
         <v>84</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K110" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="6" t="s">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="7">
-        <v>1</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -3795,10 +3812,10 @@
     </row>
     <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -3809,10 +3826,10 @@
     </row>
     <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -3823,10 +3840,10 @@
     </row>
     <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -3837,10 +3854,10 @@
     </row>
     <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -3851,10 +3868,10 @@
     </row>
     <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3865,10 +3882,10 @@
     </row>
     <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3878,8 +3895,11 @@
       <c r="P118" s="8"/>
     </row>
     <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>11</v>
+      <c r="A119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -3890,238 +3910,195 @@
     </row>
     <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="6" t="s">
+      <c r="G121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I121" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K121" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L120" s="9" t="s">
+      <c r="L121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M120" s="9" t="s">
+      <c r="M121" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N120" s="9" t="s">
+      <c r="N121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O120" s="9" t="s">
+      <c r="O121" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P120" s="9" t="s">
+      <c r="P121" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q120" s="1" t="s">
+      <c r="Q121" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R120" s="1" t="s">
+      <c r="R121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S120" s="6" t="s">
+      <c r="S121" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T120" s="1" t="s">
+      <c r="T121" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="7">
-        <v>1</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="T121" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="7">
+        <v>1</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="T122" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B123" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D123" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I122" s="7">
-        <v>2</v>
-      </c>
-      <c r="J122">
-        <f t="shared" ref="J122:J125" si="0">LN(B122)</f>
+      <c r="I123" s="7">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123:J126" si="0">LN(B123)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K123" s="3">
         <v>1.05</v>
       </c>
-      <c r="L122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M122" s="3">
+      <c r="L123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M123" s="3">
         <v>1.03</v>
       </c>
-      <c r="N122" s="3">
+      <c r="N123" s="3">
         <v>1.01</v>
       </c>
-      <c r="O122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P122" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q122">
+      <c r="O123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P123" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q123">
         <v>3</v>
       </c>
-      <c r="R122">
-        <f t="shared" ref="R122:R125" si="1">LN(SQRT(EXP(
+      <c r="R123">
+        <f t="shared" ref="R123:R126" si="1">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K122),2)
-+POWER(LN(L122),2)
-+POWER(LN(M122),2)
-+POWER(LN(N122),2)
-+POWER(LN(O122),2)
-+POWER(LN(P122),2)
-+POWER(LN(Q122),2)
++POWER(LN(K123),2)
++POWER(LN(L123),2)
++POWER(LN(M123),2)
++POWER(LN(N123),2)
++POWER(LN(O123),2)
++POWER(LN(P123),2)
++POWER(LN(Q123),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+    <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B124" s="8">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="7" t="s">
+      <c r="D124" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="7">
-        <v>2</v>
-      </c>
-      <c r="J123">
+      <c r="I124" s="7">
+        <v>2</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="0"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K123" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M123" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N123" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P123" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q123">
-        <v>1.05</v>
-      </c>
-      <c r="R123">
-        <f t="shared" si="1"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S123" s="10"/>
-    </row>
-    <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B124" s="8">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I124" s="7">
-        <v>2</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="0"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K124" s="3">
         <v>1.05</v>
@@ -4151,12 +4128,12 @@
       <c r="S124" s="10"/>
     </row>
     <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+      <c r="A125" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="8">
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>9</v>
@@ -4168,14 +4145,14 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
       </c>
       <c r="J125">
         <f t="shared" si="0"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K125" s="3">
         <v>1.05</v>
@@ -4202,23 +4179,63 @@
         <f t="shared" si="1"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S125" s="10"/>
     </row>
     <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B126" s="11"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
+      <c r="A126" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I126" s="7">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="0"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K126" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M126" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P126" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q126">
+        <v>1.05</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="1"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="B127" s="11"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -4227,11 +4244,11 @@
       <c r="P127" s="8"/>
     </row>
     <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B128" s="7">
-        <v>1</v>
+      <c r="A128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4242,10 +4259,10 @@
     </row>
     <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B129" s="7">
+        <v>1</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -4256,10 +4273,10 @@
     </row>
     <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -4270,10 +4287,10 @@
     </row>
     <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -4284,10 +4301,10 @@
     </row>
     <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -4298,10 +4315,10 @@
     </row>
     <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4312,10 +4329,10 @@
     </row>
     <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4325,8 +4342,11 @@
       <c r="P134" s="8"/>
     </row>
     <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>11</v>
+      <c r="A135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4337,238 +4357,195 @@
     </row>
     <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C137" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D137" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E137" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F137" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="6" t="s">
+      <c r="G137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="6" t="s">
+      <c r="I137" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K137" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L136" s="9" t="s">
+      <c r="L137" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M136" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N136" s="9" t="s">
+      <c r="N137" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="O137" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P136" s="9" t="s">
+      <c r="P137" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q136" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R136" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S136" s="6" t="s">
+      <c r="S137" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T136" s="1" t="s">
+      <c r="T137" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="7">
-        <v>1</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="T137" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="T138" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B139" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D139" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="7">
-        <v>2</v>
-      </c>
-      <c r="J138">
-        <f t="shared" ref="J138:J141" si="2">LN(B138)</f>
+      <c r="I139" s="7">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J142" si="2">LN(B139)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K139" s="3">
         <v>1.05</v>
       </c>
-      <c r="L138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M138" s="3">
+      <c r="L139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M139" s="3">
         <v>1.03</v>
       </c>
-      <c r="N138" s="3">
+      <c r="N139" s="3">
         <v>1.01</v>
       </c>
-      <c r="O138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P138" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q138">
+      <c r="O139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q139">
         <v>3</v>
       </c>
-      <c r="R138">
-        <f t="shared" ref="R138:R141" si="3">LN(SQRT(EXP(
+      <c r="R139">
+        <f t="shared" ref="R139:R142" si="3">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K138),2)
-+POWER(LN(L138),2)
-+POWER(LN(M138),2)
-+POWER(LN(N138),2)
-+POWER(LN(O138),2)
-+POWER(LN(P138),2)
-+POWER(LN(Q138),2)
++POWER(LN(K139),2)
++POWER(LN(L139),2)
++POWER(LN(M139),2)
++POWER(LN(N139),2)
++POWER(LN(O139),2)
++POWER(LN(P139),2)
++POWER(LN(Q139),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+    <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B140" s="7">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="7" t="s">
+      <c r="D140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I139" s="7">
-        <v>2</v>
-      </c>
-      <c r="J139">
+      <c r="I140" s="7">
+        <v>2</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="2"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K139" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M139" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N139" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P139" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q139">
-        <v>1.05</v>
-      </c>
-      <c r="R139">
-        <f t="shared" si="3"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S139" s="10"/>
-    </row>
-    <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="7">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I140" s="7">
-        <v>2</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K140" s="3">
         <v>1.05</v>
@@ -4598,12 +4575,12 @@
       <c r="S140" s="10"/>
     </row>
     <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>127</v>
+      <c r="A141" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B141" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>9</v>
@@ -4615,14 +4592,14 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
       </c>
       <c r="J141">
         <f t="shared" si="2"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K141" s="3">
         <v>1.05</v>
@@ -4649,22 +4626,62 @@
         <f t="shared" si="3"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S141" s="10"/>
     </row>
     <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
+      <c r="A142" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I142" s="7">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N142" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P142" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q142">
+        <v>1.05</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="3"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -4673,11 +4690,11 @@
       <c r="P143" s="8"/>
     </row>
     <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="7">
-        <v>1</v>
+      <c r="A144" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4688,10 +4705,10 @@
     </row>
     <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -4702,10 +4719,10 @@
     </row>
     <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -4716,10 +4733,10 @@
     </row>
     <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -4730,10 +4747,10 @@
     </row>
     <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -4744,10 +4761,10 @@
     </row>
     <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4758,10 +4775,10 @@
     </row>
     <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4771,8 +4788,11 @@
       <c r="P150" s="8"/>
     </row>
     <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>11</v>
+      <c r="A151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -4783,239 +4803,196 @@
     </row>
     <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E153" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F153" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H152" s="6" t="s">
+      <c r="G153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H153" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I153" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K153" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L152" s="9" t="s">
+      <c r="L153" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M152" s="9" t="s">
+      <c r="M153" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N152" s="9" t="s">
+      <c r="N153" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O152" s="9" t="s">
+      <c r="O153" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P152" s="9" t="s">
+      <c r="P153" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q152" s="1" t="s">
+      <c r="Q153" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R152" s="1" t="s">
+      <c r="R153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S152" s="6" t="s">
+      <c r="S153" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T152" s="1" t="s">
+      <c r="T153" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="str">
-        <f>B143</f>
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="str">
+        <f>B144</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B154" s="7">
         <v>1</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="7" t="s">
+      <c r="D154" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="G154" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="T153" s="7" t="s">
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="T154" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B155" s="7">
         <f>0.000000283/0.717</f>
         <v>3.9470013947001396E-7</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G155" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I154" s="7">
-        <v>2</v>
-      </c>
-      <c r="J154">
-        <f t="shared" ref="J154:J157" si="4">LN(B154)</f>
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <f t="shared" ref="J155:J158" si="4">LN(B155)</f>
         <v>-14.745139500920656</v>
       </c>
-      <c r="K154" s="3">
+      <c r="K155" s="3">
         <v>1.05</v>
       </c>
-      <c r="L154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M154" s="3">
+      <c r="L155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M155" s="3">
         <v>1.03</v>
       </c>
-      <c r="N154" s="3">
+      <c r="N155" s="3">
         <v>1.01</v>
       </c>
-      <c r="O154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P154" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q154">
+      <c r="O155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P155" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q155">
         <v>3</v>
       </c>
-      <c r="R154">
-        <f t="shared" ref="R154:R157" si="5">LN(SQRT(EXP(
+      <c r="R155">
+        <f t="shared" ref="R155:R158" si="5">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K154),2)
-+POWER(LN(L154),2)
-+POWER(LN(M154),2)
-+POWER(LN(N154),2)
-+POWER(LN(O154),2)
-+POWER(LN(P154),2)
-+POWER(LN(Q154),2)
++POWER(LN(K155),2)
++POWER(LN(L155),2)
++POWER(LN(M155),2)
++POWER(LN(N155),2)
++POWER(LN(O155),2)
++POWER(LN(P155),2)
++POWER(LN(Q155),2)
 )
 )))</f>
         <v>0.57228175382009561</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B156" s="7">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="7" t="s">
+      <c r="D156" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G155" s="7" t="s">
+      <c r="G156" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I155" s="7">
-        <v>2</v>
-      </c>
-      <c r="J155">
+      <c r="I156" s="7">
+        <v>2</v>
+      </c>
+      <c r="J156">
         <f t="shared" si="4"/>
         <v>1.0117276945629605</v>
-      </c>
-      <c r="K155" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="L155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M155" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N155" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P155" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q155">
-        <v>1.05</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="5"/>
-        <v>0.1623708273741902</v>
-      </c>
-      <c r="S155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B156" s="7">
-        <f>(4*0.0893)/0.717</f>
-        <v>0.49818688981868903</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I156" s="7">
-        <v>2</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="4"/>
-        <v>-0.69677999159727633</v>
       </c>
       <c r="K156" s="3">
         <v>1.05</v>
@@ -5045,12 +5022,12 @@
       <c r="S156" s="10"/>
     </row>
     <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>127</v>
+      <c r="A157" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B157" s="7">
-        <f>0.00006/0.717</f>
-        <v>8.3682008368200843E-5</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>9</v>
@@ -5062,14 +5039,14 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
       </c>
       <c r="J157">
         <f t="shared" si="4"/>
-        <v>-9.3884865573596574</v>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K157" s="3">
         <v>1.05</v>
@@ -5096,22 +5073,62 @@
         <f t="shared" si="5"/>
         <v>0.1623708273741902</v>
       </c>
+      <c r="S157" s="10"/>
     </row>
     <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K158" s="8"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
+      <c r="A158" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I158" s="7">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="4"/>
+        <v>-9.3884865573596574</v>
+      </c>
+      <c r="K158" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N158" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P158" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q158">
+        <v>1.05</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="5"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -5120,11 +5137,11 @@
       <c r="P159" s="8"/>
     </row>
     <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="7">
-        <v>1</v>
+      <c r="A160" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5135,10 +5152,10 @@
     </row>
     <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B161" s="7">
+        <v>1</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5149,10 +5166,10 @@
     </row>
     <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5163,10 +5180,10 @@
     </row>
     <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -5177,10 +5194,10 @@
     </row>
     <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -5191,10 +5208,10 @@
     </row>
     <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5205,10 +5222,10 @@
     </row>
     <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5218,8 +5235,11 @@
       <c r="P166" s="8"/>
     </row>
     <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>11</v>
+      <c r="A167" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5230,103 +5250,84 @@
     </row>
     <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E169" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F169" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="6" t="s">
+      <c r="G169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H169" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I168" s="6" t="s">
+      <c r="I169" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J169" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K168" s="9" t="s">
+      <c r="K169" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L168" s="9" t="s">
+      <c r="L169" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M168" s="9" t="s">
+      <c r="M169" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N168" s="9" t="s">
+      <c r="N169" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O168" s="9" t="s">
+      <c r="O169" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P168" s="9" t="s">
+      <c r="P169" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q168" s="1" t="s">
+      <c r="Q169" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R168" s="1" t="s">
+      <c r="R169" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S168" s="6" t="s">
+      <c r="S169" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T168" s="1" t="s">
+      <c r="T169" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="str">
-        <f>B159</f>
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="str">
+        <f>B160</f>
         <v>methane, from biological methanation, with carbon from atmosphere</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B170" s="7">
         <v>1</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="7" t="str">
-        <f>B161</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-      <c r="T169" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B170" s="7">
-        <v>2.75</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>9</v>
@@ -5335,136 +5336,110 @@
         <v>7</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="7" t="str">
+        <f>B162</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+      <c r="T170" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B171" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I170" s="7">
-        <v>2</v>
-      </c>
-      <c r="J170">
-        <f>LN(B170)</f>
+      <c r="I171" s="7">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <f>LN(B171)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M170" s="3">
+      <c r="K171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M171" s="3">
         <v>1.03</v>
       </c>
-      <c r="N170" s="3">
+      <c r="N171" s="3">
         <v>1.01</v>
       </c>
-      <c r="O170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P170" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q170">
+      <c r="O171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P171" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q171">
         <v>1.05</v>
       </c>
-      <c r="R170">
-        <f t="shared" ref="R170:R173" si="6">LN(SQRT(EXP(
+      <c r="R171">
+        <f t="shared" ref="R171:R174" si="6">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K170),2)
-+POWER(LN(L170),2)
-+POWER(LN(M170),2)
-+POWER(LN(N170),2)
-+POWER(LN(O170),2)
-+POWER(LN(P170),2)
-+POWER(LN(Q170),2)
++POWER(LN(K171),2)
++POWER(LN(L171),2)
++POWER(LN(M171),2)
++POWER(LN(N171),2)
++POWER(LN(O171),2)
++POWER(LN(P171),2)
++POWER(LN(Q171),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S170" s="10"/>
-    </row>
-    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I171" s="7">
-        <v>2</v>
-      </c>
-      <c r="J171">
-        <f>LN(B171)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M171" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N171" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P171" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q171">
-        <v>1.05</v>
-      </c>
-      <c r="R171">
-        <f t="shared" si="6"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S171" s="10"/>
     </row>
     <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B172" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
       </c>
       <c r="J172">
         <f>LN(B172)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K172" s="3">
         <v>1.2</v>
@@ -5493,35 +5468,34 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="7">
+        <v>1.55</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
       </c>
       <c r="J173">
         <f>LN(B173)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K173" s="3">
         <v>1.2</v>
@@ -5550,90 +5524,133 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I174" s="7">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <f>LN(B174)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M174" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N174" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P174" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q174">
+        <v>1.05</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="6"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S174" s="10"/>
+    </row>
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="11">
+      <c r="B175" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I174" s="7">
-        <v>2</v>
-      </c>
-      <c r="J174">
-        <f>LN(B174*-1)</f>
+      <c r="I175" s="7">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <f>LN(B175*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M174" s="3">
+      <c r="K175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M175" s="3">
         <v>1.03</v>
       </c>
-      <c r="N174" s="3">
+      <c r="N175" s="3">
         <v>1.01</v>
       </c>
-      <c r="O174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P174" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q174">
+      <c r="O175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P175" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q175">
         <v>1.05</v>
       </c>
-      <c r="R174">
+      <c r="R175">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K174),2)
-+POWER(LN(L174),2)
-+POWER(LN(M174),2)
-+POWER(LN(N174),2)
-+POWER(LN(O174),2)
-+POWER(LN(P174),2)
-+POWER(LN(Q174),2)
++POWER(LN(K175),2)
++POWER(LN(L175),2)
++POWER(LN(M175),2)
++POWER(LN(N175),2)
++POWER(LN(O175),2)
++POWER(LN(P175),2)
++POWER(LN(Q175),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S174" s="7" t="b">
+      <c r="S175" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-    </row>
     <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -5642,11 +5659,11 @@
       <c r="P176" s="8"/>
     </row>
     <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="7">
-        <v>1</v>
+      <c r="A177" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5657,10 +5674,10 @@
     </row>
     <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B178" s="7">
+        <v>1</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5671,10 +5688,10 @@
     </row>
     <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5685,10 +5702,10 @@
     </row>
     <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -5699,10 +5716,10 @@
     </row>
     <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -5713,10 +5730,10 @@
     </row>
     <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5727,10 +5744,10 @@
     </row>
     <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B183" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5740,8 +5757,11 @@
       <c r="P183" s="8"/>
     </row>
     <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
-        <v>11</v>
+      <c r="A184" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -5752,103 +5772,84 @@
     </row>
     <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B186" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D186" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E186" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F186" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H185" s="6" t="s">
+      <c r="G186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="6" t="s">
+      <c r="I186" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K185" s="9" t="s">
+      <c r="K186" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L185" s="9" t="s">
+      <c r="L186" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M185" s="9" t="s">
+      <c r="M186" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N185" s="9" t="s">
+      <c r="N186" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O185" s="9" t="s">
+      <c r="O186" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P185" s="9" t="s">
+      <c r="P186" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q185" s="1" t="s">
+      <c r="Q186" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R185" s="1" t="s">
+      <c r="R186" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S185" s="6" t="s">
+      <c r="S186" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T185" s="1" t="s">
+      <c r="T186" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="str">
-        <f>B176</f>
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="str">
+        <f>B177</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
       </c>
-      <c r="B186" s="7">
+      <c r="B187" s="7">
         <v>1</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="7" t="str">
-        <f>B178</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K186" s="8"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-      <c r="T186" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B187" s="7">
-        <v>2.75</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>9</v>
@@ -5857,136 +5858,110 @@
         <v>7</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="7" t="str">
+        <f>B179</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+      <c r="T187" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B188" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G187" s="7" t="s">
+      <c r="G188" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I187" s="7">
-        <v>2</v>
-      </c>
-      <c r="J187">
-        <f>LN(B187)</f>
+      <c r="I188" s="7">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <f>LN(B188)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M187" s="3">
+      <c r="K188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M188" s="3">
         <v>1.03</v>
       </c>
-      <c r="N187" s="3">
+      <c r="N188" s="3">
         <v>1.01</v>
       </c>
-      <c r="O187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P187" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q187">
+      <c r="O188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P188" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q188">
         <v>1.05</v>
       </c>
-      <c r="R187">
-        <f t="shared" ref="R187:R190" si="7">LN(SQRT(EXP(
+      <c r="R188">
+        <f t="shared" ref="R188:R191" si="7">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K187),2)
-+POWER(LN(L187),2)
-+POWER(LN(M187),2)
-+POWER(LN(N187),2)
-+POWER(LN(O187),2)
-+POWER(LN(P187),2)
-+POWER(LN(Q187),2)
++POWER(LN(K188),2)
++POWER(LN(L188),2)
++POWER(LN(M188),2)
++POWER(LN(N188),2)
++POWER(LN(O188),2)
++POWER(LN(P188),2)
++POWER(LN(Q188),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B188" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I188" s="7">
-        <v>2</v>
-      </c>
-      <c r="J188">
-        <f>LN(B188)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M188" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N188" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P188" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q188">
-        <v>1.05</v>
-      </c>
-      <c r="R188">
-        <f t="shared" si="7"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S188" s="10"/>
     </row>
     <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B189" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
       </c>
       <c r="J189">
         <f>LN(B189)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K189" s="3">
         <v>1.2</v>
@@ -6015,35 +5990,34 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B190" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="7">
+        <v>1.55</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
       </c>
       <c r="J190">
         <f>LN(B190)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K190" s="3">
         <v>1.2</v>
@@ -6072,90 +6046,133 @@
       </c>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B191" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I191" s="7">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <f>LN(B191)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M191" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N191" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q191">
+        <v>1.05</v>
+      </c>
+      <c r="R191">
+        <f t="shared" si="7"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S191" s="10"/>
+    </row>
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B191" s="11">
+      <c r="B192" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F192" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G191" s="7" t="s">
+      <c r="G192" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I191" s="7">
-        <v>2</v>
-      </c>
-      <c r="J191">
-        <f>LN(B191*-1)</f>
+      <c r="I192" s="7">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <f>LN(B192*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M191" s="3">
+      <c r="K192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M192" s="3">
         <v>1.03</v>
       </c>
-      <c r="N191" s="3">
+      <c r="N192" s="3">
         <v>1.01</v>
       </c>
-      <c r="O191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q191">
+      <c r="O192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P192" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q192">
         <v>1.05</v>
       </c>
-      <c r="R191">
+      <c r="R192">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K191),2)
-+POWER(LN(L191),2)
-+POWER(LN(M191),2)
-+POWER(LN(N191),2)
-+POWER(LN(O191),2)
-+POWER(LN(P191),2)
-+POWER(LN(Q191),2)
++POWER(LN(K192),2)
++POWER(LN(L192),2)
++POWER(LN(M192),2)
++POWER(LN(N192),2)
++POWER(LN(O192),2)
++POWER(LN(P192),2)
++POWER(LN(Q192),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S191" s="7" t="b">
+      <c r="S192" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K192" s="8"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-    </row>
     <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -6164,11 +6181,11 @@
       <c r="P193" s="8"/>
     </row>
     <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="7">
-        <v>1</v>
+      <c r="A194" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6179,10 +6196,10 @@
     </row>
     <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="B195" s="7">
+        <v>1</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6193,10 +6210,10 @@
     </row>
     <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6207,10 +6224,10 @@
     </row>
     <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -6221,10 +6238,10 @@
     </row>
     <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6235,10 +6252,10 @@
     </row>
     <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6249,10 +6266,10 @@
     </row>
     <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B200" s="12" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6262,8 +6279,11 @@
       <c r="P200" s="8"/>
     </row>
     <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
-        <v>11</v>
+      <c r="A201" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -6274,103 +6294,84 @@
     </row>
     <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="8"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="8"/>
+      <c r="P202" s="8"/>
+    </row>
+    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D203" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E203" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H202" s="6" t="s">
+      <c r="G203" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H203" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I202" s="6" t="s">
+      <c r="I203" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K202" s="9" t="s">
+      <c r="K203" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L202" s="9" t="s">
+      <c r="L203" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M202" s="9" t="s">
+      <c r="M203" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N202" s="9" t="s">
+      <c r="N203" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O202" s="9" t="s">
+      <c r="O203" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P202" s="9" t="s">
+      <c r="P203" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q202" s="1" t="s">
+      <c r="Q203" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R202" s="1" t="s">
+      <c r="R203" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S202" s="6" t="s">
+      <c r="S203" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T202" s="1" t="s">
+      <c r="T203" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="str">
-        <f>B193</f>
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="str">
+        <f>B194</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B204" s="7">
         <v>1</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" s="7" t="str">
-        <f>B195</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-      <c r="T203" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B204" s="7">
-        <v>2.75</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>9</v>
@@ -6379,136 +6380,110 @@
         <v>7</v>
       </c>
       <c r="F204" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" s="7" t="str">
+        <f>B196</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+      <c r="P204" s="8"/>
+      <c r="T204" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="G205" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I204" s="7">
-        <v>2</v>
-      </c>
-      <c r="J204">
-        <f>LN(B204)</f>
+      <c r="I205" s="7">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <f>LN(B205)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M204" s="3">
+      <c r="K205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M205" s="3">
         <v>1.03</v>
       </c>
-      <c r="N204" s="3">
+      <c r="N205" s="3">
         <v>1.01</v>
       </c>
-      <c r="O204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P204" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q204">
+      <c r="O205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q205">
         <v>1.05</v>
       </c>
-      <c r="R204">
-        <f t="shared" ref="R204:R207" si="8">LN(SQRT(EXP(
+      <c r="R205">
+        <f t="shared" ref="R205:R208" si="8">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K204),2)
-+POWER(LN(L204),2)
-+POWER(LN(M204),2)
-+POWER(LN(N204),2)
-+POWER(LN(O204),2)
-+POWER(LN(P204),2)
-+POWER(LN(Q204),2)
++POWER(LN(K205),2)
++POWER(LN(L205),2)
++POWER(LN(M205),2)
++POWER(LN(N205),2)
++POWER(LN(O205),2)
++POWER(LN(P205),2)
++POWER(LN(Q205),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S204" s="10"/>
-    </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B205" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I205" s="7">
-        <v>2</v>
-      </c>
-      <c r="J205">
-        <f>LN(B205)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="K205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M205" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N205" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q205">
-        <v>1.05</v>
-      </c>
-      <c r="R205">
-        <f t="shared" si="8"/>
-        <v>0.18460621081155912</v>
-      </c>
       <c r="S205" s="10"/>
     </row>
     <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B206" s="7">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
       </c>
       <c r="J206">
         <f>LN(B206)</f>
-        <v>0.43825493093115531</v>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K206" s="3">
         <v>1.2</v>
@@ -6537,35 +6512,34 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B207" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B207" s="7">
+        <v>1.55</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
       </c>
       <c r="J207">
         <f>LN(B207)</f>
-        <v>-6.422997481986064</v>
+        <v>0.43825493093115531</v>
       </c>
       <c r="K207" s="3">
         <v>1.2</v>
@@ -6594,90 +6568,133 @@
       </c>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B208" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I208" s="7">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <f>LN(B208)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M208" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N208" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P208" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q208">
+        <v>1.05</v>
+      </c>
+      <c r="R208">
+        <f t="shared" si="8"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B209" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F209" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G208" s="7" t="s">
+      <c r="G209" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I208" s="7">
-        <v>2</v>
-      </c>
-      <c r="J208">
-        <f>LN(B208*-1)</f>
+      <c r="I209" s="7">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <f>LN(B209*-1)</f>
         <v>-0.41133022756056237</v>
       </c>
-      <c r="K208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M208" s="3">
+      <c r="K209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M209" s="3">
         <v>1.03</v>
       </c>
-      <c r="N208" s="3">
+      <c r="N209" s="3">
         <v>1.01</v>
       </c>
-      <c r="O208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q208">
+      <c r="O209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P209" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q209">
         <v>1.05</v>
       </c>
-      <c r="R208">
+      <c r="R209">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K208),2)
-+POWER(LN(L208),2)
-+POWER(LN(M208),2)
-+POWER(LN(N208),2)
-+POWER(LN(O208),2)
-+POWER(LN(P208),2)
-+POWER(LN(Q208),2)
++POWER(LN(K209),2)
++POWER(LN(L209),2)
++POWER(LN(M209),2)
++POWER(LN(N209),2)
++POWER(LN(O209),2)
++POWER(LN(P209),2)
++POWER(LN(Q209),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S208" s="7" t="b">
+      <c r="S209" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-    </row>
     <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -6686,11 +6703,11 @@
       <c r="P210" s="8"/>
     </row>
     <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="7">
-        <v>1</v>
+      <c r="A211" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6701,10 +6718,10 @@
     </row>
     <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B212" s="7">
+        <v>1</v>
       </c>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -6715,10 +6732,10 @@
     </row>
     <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -6729,10 +6746,10 @@
     </row>
     <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -6743,10 +6760,10 @@
     </row>
     <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -6757,10 +6774,10 @@
     </row>
     <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6770,8 +6787,11 @@
       <c r="P216" s="8"/>
     </row>
     <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
-        <v>11</v>
+      <c r="A217" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -6782,224 +6802,221 @@
     </row>
     <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+      <c r="O218" s="8"/>
+      <c r="P218" s="8"/>
+    </row>
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B219" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C219" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D219" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E219" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F219" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H218" s="6" t="s">
+      <c r="G219" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H219" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I218" s="6" t="s">
+      <c r="I219" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K218" s="9" t="s">
+      <c r="K219" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L218" s="9" t="s">
+      <c r="L219" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M218" s="9" t="s">
+      <c r="M219" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N218" s="9" t="s">
+      <c r="N219" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O218" s="9" t="s">
+      <c r="O219" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P218" s="9" t="s">
+      <c r="P219" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q218" s="1" t="s">
+      <c r="Q219" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R218" s="1" t="s">
+      <c r="R219" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S218" s="6" t="s">
+      <c r="S219" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T218" s="1" t="s">
+      <c r="T219" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B219" s="7">
-        <v>1</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="T219" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+      <c r="O220" s="8"/>
+      <c r="P220" s="8"/>
+      <c r="T220" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B221" s="7">
         <v>5940</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D220" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" s="7" t="s">
+      <c r="D221" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="G221" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I220" s="7">
-        <v>2</v>
-      </c>
-      <c r="J220">
-        <f t="shared" ref="J220:J221" si="9">LN(B220)</f>
+      <c r="I221" s="7">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <f t="shared" ref="J221:J222" si="9">LN(B221)</f>
         <v>8.6894644123566902</v>
       </c>
-      <c r="K220" s="3">
+      <c r="K221" s="3">
         <v>1.5</v>
       </c>
-      <c r="L220" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M220" s="3">
+      <c r="L221" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M221" s="3">
         <v>1.5</v>
       </c>
-      <c r="N220" s="3">
+      <c r="N221" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O220" s="3">
-        <v>2</v>
-      </c>
-      <c r="P220" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q220">
+      <c r="O221" s="3">
+        <v>2</v>
+      </c>
+      <c r="P221" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q221">
         <v>1.05</v>
       </c>
-      <c r="R220">
-        <f t="shared" ref="R220:R221" si="10">LN(SQRT(EXP(
+      <c r="R221">
+        <f t="shared" ref="R221:R222" si="10">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K220),2)
-+POWER(LN(L220),2)
-+POWER(LN(M220),2)
-+POWER(LN(N220),2)
-+POWER(LN(O220),2)
-+POWER(LN(P220),2)
-+POWER(LN(Q220),2)
++POWER(LN(K221),2)
++POWER(LN(L221),2)
++POWER(LN(M221),2)
++POWER(LN(N221),2)
++POWER(LN(O221),2)
++POWER(LN(P221),2)
++POWER(LN(Q221),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B221" s="7">
+      <c r="B222" s="7">
         <v>660</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D221" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F221" s="7" t="s">
+      <c r="D222" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G221" s="7" t="s">
+      <c r="G222" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I221" s="7">
-        <v>2</v>
-      </c>
-      <c r="J221">
+      <c r="I222" s="7">
+        <v>2</v>
+      </c>
+      <c r="J222">
         <f t="shared" si="9"/>
         <v>6.4922398350204711</v>
       </c>
-      <c r="K221" s="3">
+      <c r="K222" s="3">
         <v>1.5</v>
       </c>
-      <c r="L221" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M221" s="3">
+      <c r="L222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M222" s="3">
         <v>1.5</v>
       </c>
-      <c r="N221" s="3">
+      <c r="N222" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O221" s="3">
-        <v>2</v>
-      </c>
-      <c r="P221" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q221">
+      <c r="O222" s="3">
+        <v>2</v>
+      </c>
+      <c r="P222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q222">
         <v>1.05</v>
       </c>
-      <c r="R221">
+      <c r="R222">
         <f t="shared" si="10"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-    </row>
     <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
       <c r="M223" s="8"/>
@@ -7008,11 +7025,11 @@
       <c r="P223" s="8"/>
     </row>
     <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="7">
-        <v>1</v>
+      <c r="A224" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -7023,10 +7040,10 @@
     </row>
     <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="B225" s="7">
+        <v>1</v>
       </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
@@ -7037,10 +7054,10 @@
     </row>
     <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -7051,10 +7068,10 @@
     </row>
     <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -7065,10 +7082,10 @@
     </row>
     <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -7079,10 +7096,10 @@
     </row>
     <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -7092,8 +7109,11 @@
       <c r="P229" s="8"/>
     </row>
     <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>11</v>
+      <c r="A230" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -7104,223 +7124,234 @@
     </row>
     <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="8"/>
+      <c r="L231" s="8"/>
+      <c r="M231" s="8"/>
+      <c r="N231" s="8"/>
+      <c r="O231" s="8"/>
+      <c r="P231" s="8"/>
+    </row>
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B232" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C232" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D232" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="E232" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="F232" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H231" s="6" t="s">
+      <c r="G232" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I231" s="6" t="s">
+      <c r="I232" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K231" s="9" t="s">
+      <c r="K232" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L231" s="9" t="s">
+      <c r="L232" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M231" s="9" t="s">
+      <c r="M232" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N231" s="9" t="s">
+      <c r="N232" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O231" s="9" t="s">
+      <c r="O232" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P231" s="9" t="s">
+      <c r="P232" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q231" s="1" t="s">
+      <c r="Q232" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R231" s="1" t="s">
+      <c r="R232" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S231" s="6" t="s">
+      <c r="S232" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T231" s="1" t="s">
+      <c r="T232" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B232" s="7">
-        <v>1</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-      <c r="M232" s="8"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="T232" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B233" s="7">
+        <v>1</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K233" s="8"/>
+      <c r="L233" s="8"/>
+      <c r="M233" s="8"/>
+      <c r="N233" s="8"/>
+      <c r="O233" s="8"/>
+      <c r="P233" s="8"/>
+      <c r="T233" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B234" s="7">
         <v>0.81</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D233" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F233" s="7" t="s">
+      <c r="D234" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G233" s="7" t="s">
+      <c r="G234" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I233" s="7">
-        <v>2</v>
-      </c>
-      <c r="J233">
-        <f t="shared" ref="J233:J234" si="11">LN(B233)</f>
+      <c r="I234" s="7">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <f t="shared" ref="J234:J235" si="11">LN(B234)</f>
         <v>-0.21072103131565253</v>
       </c>
-      <c r="K233" s="3">
+      <c r="K234" s="3">
         <v>1.5</v>
       </c>
-      <c r="L233" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M233" s="3">
+      <c r="L234" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M234" s="3">
         <v>1.5</v>
       </c>
-      <c r="N233" s="3">
+      <c r="N234" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O233" s="3">
-        <v>2</v>
-      </c>
-      <c r="P233" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q233">
+      <c r="O234" s="3">
+        <v>2</v>
+      </c>
+      <c r="P234" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q234">
         <v>1.05</v>
       </c>
-      <c r="R233">
-        <f t="shared" ref="R233:R234" si="12">LN(SQRT(EXP(
+      <c r="R234">
+        <f t="shared" ref="R234:R235" si="12">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K233),2)
-+POWER(LN(L233),2)
-+POWER(LN(M233),2)
-+POWER(LN(N233),2)
-+POWER(LN(O233),2)
-+POWER(LN(P233),2)
-+POWER(LN(Q233),2)
++POWER(LN(K234),2)
++POWER(LN(L234),2)
++POWER(LN(M234),2)
++POWER(LN(N234),2)
++POWER(LN(O234),2)
++POWER(LN(P234),2)
++POWER(LN(Q234),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B234" s="7">
+      <c r="B235" s="7">
         <v>0.19</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C235" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D234" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" s="7" t="s">
+      <c r="D235" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G234" s="7" t="s">
+      <c r="G235" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I234" s="7">
-        <v>2</v>
-      </c>
-      <c r="J234">
+      <c r="I235" s="7">
+        <v>2</v>
+      </c>
+      <c r="J235">
         <f t="shared" si="11"/>
         <v>-1.6607312068216509</v>
       </c>
-      <c r="K234" s="3">
+      <c r="K235" s="3">
         <v>1.5</v>
       </c>
-      <c r="L234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M234" s="3">
+      <c r="L235" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M235" s="3">
         <v>1.5</v>
       </c>
-      <c r="N234" s="3">
+      <c r="N235" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O234" s="3">
-        <v>2</v>
-      </c>
-      <c r="P234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q234">
+      <c r="O235" s="3">
+        <v>2</v>
+      </c>
+      <c r="P235" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q235">
         <v>1.05</v>
       </c>
-      <c r="R234">
+      <c r="R235">
         <f t="shared" si="12"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K235" s="8"/>
-      <c r="L235" s="8"/>
-      <c r="M235" s="8"/>
-      <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
+    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K236" s="8"/>
+      <c r="L236" s="8"/>
+      <c r="M236" s="8"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T236" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B200" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
-    <hyperlink ref="B183" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
-    <hyperlink ref="B166" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
+    <hyperlink ref="B201" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
+    <hyperlink ref="B184" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
+    <hyperlink ref="B167" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AA586-EB61-CD42-92B2-6EB10E4E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C17057-12A8-9540-8C67-F24862A33F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C17057-12A8-9540-8C67-F24862A33F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C15DB6-8D2D-A34F-B51F-BFB465A3821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="181">
   <si>
     <t>Activity</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Acenaphthene</t>
   </si>
   <si>
-    <t>simapro name</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -570,6 +567,18 @@
   </si>
   <si>
     <t>We assume 600 gallons of water consumed per ton CO2 captured, the rest is evaporated. Very uncertain. Based on https://netl.doe.gov/sites/default/files/event-proceedings/2014/carbon_storage/10--Christopher-Harto.pdf</t>
+  </si>
+  <si>
+    <t>gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>residue from cooling tower</t>
+  </si>
+  <si>
+    <t>NOx retained, by selective catalytic reduction</t>
   </si>
 </sst>
 </file>
@@ -689,9 +698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +738,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -835,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -977,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -987,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1010,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1009,18 +1018,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1036,15 +1045,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1060,12 +1069,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1097,12 +1106,15 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1114,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1123,7 +1135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1317,7 +1329,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <f>B36*47.5*0.054</f>
@@ -1374,7 +1386,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1662,7 +1674,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1796,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1892,9 +1904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="5">
         <f>3.6/0.62/47.5</f>
@@ -1910,10 +1922,13 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1941,8 +1956,11 @@
       <c r="J37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1976,8 +1994,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2011,10 +2032,13 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>2.9049999999999998</v>
@@ -2046,8 +2070,11 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2081,16 +2108,19 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2106,15 +2136,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2164,21 +2194,21 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2190,7 +2220,7 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2202,7 +2232,7 @@
         <v>40</v>
       </c>
       <c r="M52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2399,7 +2429,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59">
         <f>B78*2.65*0.1</f>
@@ -2456,7 +2486,7 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2590,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2654,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2718,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2750,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -2782,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -2814,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -2846,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -2942,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -2974,9 +3004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77">
         <f>B78*2.65*0.9</f>
@@ -3003,10 +3033,13 @@
       <c r="K77" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78" s="5">
         <f>3.6/0.54/47.5</f>
@@ -3022,10 +3055,13 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="M78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -3053,8 +3089,11 @@
       <c r="K79" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -3081,6 +3120,9 @@
       </c>
       <c r="K80" t="s">
         <v>40</v>
+      </c>
+      <c r="M80" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3117,6 +3159,9 @@
       <c r="L81">
         <v>0</v>
       </c>
+      <c r="M81" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -3152,10 +3197,13 @@
       <c r="L82">
         <v>0</v>
       </c>
+      <c r="M82" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83">
         <v>2.9049999999999998</v>
@@ -3188,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3225,13 +3273,16 @@
       <c r="L84">
         <v>0</v>
       </c>
+      <c r="M84" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3255,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3279,7 +3330,7 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3313,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
@@ -3324,7 +3375,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95">
         <v>1.2300000000000001E-4</v>
@@ -3345,12 +3396,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>6.0000000000000002E-6</v>
@@ -3371,21 +3422,21 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
         <v>25</v>
@@ -3397,33 +3448,33 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B98" s="15">
         <f>((B97*1000)-(600*3.78541/1000))/1000</f>
         <v>8.0928753999999992E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
         <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3449,7 +3500,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3473,18 +3524,18 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>0.38400000000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
@@ -3502,15 +3553,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B102">
         <v>8.2699999999999996E-11</v>
@@ -3534,15 +3585,15 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>7.4400000000000002E-10</v>
@@ -3566,15 +3617,15 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>8.2600000000000002E-5</v>
@@ -3598,15 +3649,15 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105">
         <v>3.3099999999999999E-10</v>
@@ -3630,15 +3681,15 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106">
         <v>5.1400000000000003E-12</v>
@@ -3662,15 +3713,15 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B107">
         <v>2.8400000000000002E-4</v>
@@ -3694,15 +3745,15 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108">
         <v>5.7899999999999997E-10</v>
@@ -3726,10 +3777,10 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -3758,15 +3809,15 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110">
         <v>-2.2699999999999999E-4</v>
@@ -3790,10 +3841,10 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3801,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -3885,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3899,7 +3950,7 @@
         <v>31</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -3951,39 +4002,39 @@
         <v>16</v>
       </c>
       <c r="K121" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L121" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L121" s="9" t="s">
+      <c r="M121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M121" s="9" t="s">
+      <c r="N121" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N121" s="9" t="s">
+      <c r="O121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O121" s="9" t="s">
+      <c r="P121" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P121" s="9" t="s">
+      <c r="Q121" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" s="7">
         <v>1</v>
@@ -4007,12 +4058,12 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
       <c r="T122" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="7">
         <f>0.000000283/0.717</f>
@@ -4075,7 +4126,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124" s="8">
         <f>1.972/0.717</f>
@@ -4129,7 +4180,7 @@
     </row>
     <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4145,7 +4196,7 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
@@ -4183,7 +4234,7 @@
     </row>
     <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="7">
         <f>0.00006/0.717</f>
@@ -4199,7 +4250,7 @@
         <v>22</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I126" s="7">
         <v>2</v>
@@ -4248,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4332,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4346,7 +4397,7 @@
         <v>31</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4398,39 +4449,39 @@
         <v>16</v>
       </c>
       <c r="K137" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L137" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L137" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M137" s="9" t="s">
+      <c r="N137" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N137" s="9" t="s">
+      <c r="O137" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O137" s="9" t="s">
+      <c r="P137" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P137" s="9" t="s">
+      <c r="Q137" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S137" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="7">
         <v>1</v>
@@ -4454,12 +4505,12 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="T138" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B139" s="7">
         <f>0.000000283/0.717</f>
@@ -4522,7 +4573,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B140" s="7">
         <f>1.972/0.717</f>
@@ -4538,7 +4589,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4576,7 +4627,7 @@
     </row>
     <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B141" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -4592,7 +4643,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
@@ -4630,7 +4681,7 @@
     </row>
     <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B142" s="7">
         <f>0.00006/0.717</f>
@@ -4646,7 +4697,7 @@
         <v>22</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I142" s="7">
         <v>2</v>
@@ -4694,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4778,7 +4829,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4792,7 +4843,7 @@
         <v>31</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -4844,34 +4895,34 @@
         <v>16</v>
       </c>
       <c r="K153" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L153" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L153" s="9" t="s">
+      <c r="M153" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="N153" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N153" s="9" t="s">
+      <c r="O153" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O153" s="9" t="s">
+      <c r="P153" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P153" s="9" t="s">
+      <c r="Q153" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S153" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4901,12 +4952,12 @@
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="T154" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B155" s="7">
         <f>0.000000283/0.717</f>
@@ -4969,7 +5020,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="7">
         <f>1.972/0.717</f>
@@ -4985,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -5023,7 +5074,7 @@
     </row>
     <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5039,7 +5090,7 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
@@ -5077,7 +5128,7 @@
     </row>
     <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B158" s="7">
         <f>0.00006/0.717</f>
@@ -5093,7 +5144,7 @@
         <v>22</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I158" s="7">
         <v>2</v>
@@ -5141,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5169,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5225,7 +5276,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5239,7 +5290,7 @@
         <v>31</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5291,34 +5342,34 @@
         <v>16</v>
       </c>
       <c r="K169" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L169" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L169" s="9" t="s">
+      <c r="M169" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M169" s="9" t="s">
+      <c r="N169" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N169" s="9" t="s">
+      <c r="O169" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O169" s="9" t="s">
+      <c r="P169" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P169" s="9" t="s">
+      <c r="Q169" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q169" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S169" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5349,12 +5400,12 @@
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="T170" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" s="7">
         <v>2.75</v>
@@ -5417,7 +5468,7 @@
     </row>
     <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="7">
         <v>0.5</v>
@@ -5432,7 +5483,7 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
@@ -5470,7 +5521,7 @@
     </row>
     <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173" s="7">
         <v>1.55</v>
@@ -5485,10 +5536,10 @@
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H173" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -5526,7 +5577,7 @@
     </row>
     <row r="174" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B174" s="14">
         <f>0.0833/51.3</f>
@@ -5542,10 +5593,10 @@
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H174" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -5583,26 +5634,26 @@
     </row>
     <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G175" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H175" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I175" s="7">
         <v>2</v>
@@ -5663,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5691,7 +5742,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5747,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5761,7 +5812,7 @@
         <v>31</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -5813,34 +5864,34 @@
         <v>16</v>
       </c>
       <c r="K186" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L186" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L186" s="9" t="s">
+      <c r="M186" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M186" s="9" t="s">
+      <c r="N186" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N186" s="9" t="s">
+      <c r="O186" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O186" s="9" t="s">
+      <c r="P186" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P186" s="9" t="s">
+      <c r="Q186" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S186" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5871,12 +5922,12 @@
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
       <c r="T187" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B188" s="7">
         <v>2.75</v>
@@ -5891,7 +5942,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -5939,7 +5990,7 @@
     </row>
     <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B189" s="7">
         <v>0.5</v>
@@ -5954,7 +6005,7 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
@@ -5992,7 +6043,7 @@
     </row>
     <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B190" s="7">
         <v>1.55</v>
@@ -6007,10 +6058,10 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H190" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
@@ -6048,7 +6099,7 @@
     </row>
     <row r="191" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B191" s="14">
         <f>0.0833/51.3</f>
@@ -6064,10 +6115,10 @@
         <v>22</v>
       </c>
       <c r="G191" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H191" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="I191" s="7">
         <v>2</v>
@@ -6105,26 +6156,26 @@
     </row>
     <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B192" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G192" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H192" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I192" s="7">
         <v>2</v>
@@ -6185,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6213,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6269,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6283,7 +6334,7 @@
         <v>31</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -6335,34 +6386,34 @@
         <v>16</v>
       </c>
       <c r="K203" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L203" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L203" s="9" t="s">
+      <c r="M203" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M203" s="9" t="s">
+      <c r="N203" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N203" s="9" t="s">
+      <c r="O203" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O203" s="9" t="s">
+      <c r="P203" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P203" s="9" t="s">
+      <c r="Q203" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q203" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S203" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T203" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -6393,12 +6444,12 @@
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
       <c r="T204" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B205" s="7">
         <v>2.75</v>
@@ -6413,7 +6464,7 @@
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>
@@ -6461,7 +6512,7 @@
     </row>
     <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B206" s="7">
         <v>0.5</v>
@@ -6476,7 +6527,7 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -6514,7 +6565,7 @@
     </row>
     <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B207" s="7">
         <v>1.55</v>
@@ -6529,10 +6580,10 @@
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H207" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
@@ -6570,7 +6621,7 @@
     </row>
     <row r="208" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B208" s="14">
         <f>0.0833/51.3</f>
@@ -6586,10 +6637,10 @@
         <v>22</v>
       </c>
       <c r="G208" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H208" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="I208" s="7">
         <v>2</v>
@@ -6627,26 +6678,26 @@
     </row>
     <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B209" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G209" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H209" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I209" s="7">
         <v>2</v>
@@ -6707,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6791,7 +6842,7 @@
         <v>31</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -6843,39 +6894,39 @@
         <v>16</v>
       </c>
       <c r="K219" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L219" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L219" s="9" t="s">
+      <c r="M219" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M219" s="9" t="s">
+      <c r="N219" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N219" s="9" t="s">
+      <c r="O219" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O219" s="9" t="s">
+      <c r="P219" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P219" s="9" t="s">
+      <c r="Q219" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q219" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S219" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T219" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B220" s="7">
         <v>1</v>
@@ -6899,12 +6950,12 @@
       <c r="O220" s="8"/>
       <c r="P220" s="8"/>
       <c r="T220" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B221" s="7">
         <v>5940</v>
@@ -6919,7 +6970,7 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
@@ -6966,7 +7017,7 @@
     </row>
     <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B222" s="7">
         <v>660</v>
@@ -6981,7 +7032,7 @@
         <v>22</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I222" s="7">
         <v>2</v>
@@ -7029,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
@@ -7057,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -7165,39 +7216,39 @@
         <v>16</v>
       </c>
       <c r="K232" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L232" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L232" s="9" t="s">
+      <c r="M232" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M232" s="9" t="s">
+      <c r="N232" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N232" s="9" t="s">
+      <c r="O232" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O232" s="9" t="s">
+      <c r="P232" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P232" s="9" t="s">
+      <c r="Q232" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="Q232" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="R232" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S232" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T232" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B233" s="7">
         <v>1</v>
@@ -7212,7 +7263,7 @@
         <v>19</v>
       </c>
       <c r="G233" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -7221,7 +7272,7 @@
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
       <c r="T233" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -7288,7 +7339,7 @@
     </row>
     <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B235" s="7">
         <v>0.19</v>
@@ -7303,7 +7354,7 @@
         <v>22</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I235" s="7">
         <v>2</v>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C15DB6-8D2D-A34F-B51F-BFB465A3821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62BEE3-7421-6842-B70D-F2CD79F5D183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1075,40 +1075,40 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1163,9 +1163,6 @@
       <c r="J12" t="s">
         <v>47</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1195,9 +1192,6 @@
       <c r="J13" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1227,9 +1221,6 @@
       <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1259,9 +1250,6 @@
       <c r="J15" t="s">
         <v>47</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1291,11 +1279,8 @@
       <c r="J16" t="s">
         <v>47</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1323,11 +1308,8 @@
       <c r="J17" t="s">
         <v>47</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1356,11 +1338,8 @@
       <c r="J18" t="s">
         <v>50</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1388,11 +1367,8 @@
       <c r="J19" t="s">
         <v>162</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1420,11 +1396,8 @@
       <c r="J20" t="s">
         <v>55</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1452,11 +1425,8 @@
       <c r="J21" t="s">
         <v>33</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1484,11 +1454,8 @@
       <c r="J22" t="s">
         <v>47</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1516,11 +1483,8 @@
       <c r="J23" t="s">
         <v>47</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1548,11 +1512,8 @@
       <c r="J24" t="s">
         <v>64</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1580,11 +1541,8 @@
       <c r="J25" t="s">
         <v>47</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1612,11 +1570,8 @@
       <c r="J26" t="s">
         <v>61</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1644,11 +1599,8 @@
       <c r="J27" t="s">
         <v>36</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1676,11 +1628,8 @@
       <c r="J28" t="s">
         <v>81</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1708,11 +1657,8 @@
       <c r="J29" t="s">
         <v>33</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1740,11 +1686,8 @@
       <c r="J30" t="s">
         <v>55</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1772,11 +1715,8 @@
       <c r="J31" t="s">
         <v>47</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1803,9 +1743,6 @@
       </c>
       <c r="J32" t="s">
         <v>47</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1836,9 +1773,6 @@
       <c r="J33" t="s">
         <v>33</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1868,9 +1802,6 @@
       <c r="J34" t="s">
         <v>50</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1900,9 +1831,6 @@
       <c r="J35" t="s">
         <v>47</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1991,9 +1919,6 @@
       <c r="J38" t="s">
         <v>37</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38" t="s">
         <v>178</v>
       </c>
@@ -2029,9 +1954,6 @@
       <c r="J39" t="s">
         <v>37</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39" t="s">
         <v>114</v>
       </c>
@@ -2067,9 +1989,6 @@
       <c r="J40" t="s">
         <v>36</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40" t="s">
         <v>105</v>
       </c>
@@ -2105,8 +2024,8 @@
       <c r="J41" t="s">
         <v>33</v>
       </c>
-      <c r="K41">
-        <v>0</v>
+      <c r="K41" t="b">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>179</v>
@@ -2166,43 +2085,43 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2263,9 +2182,6 @@
       <c r="K53" t="s">
         <v>47</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2295,9 +2211,6 @@
       <c r="K54" t="s">
         <v>33</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2327,9 +2240,6 @@
       <c r="K55" t="s">
         <v>33</v>
       </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2359,9 +2269,6 @@
       <c r="K56" t="s">
         <v>47</v>
       </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -2391,9 +2298,6 @@
       <c r="K57" t="s">
         <v>47</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -2423,9 +2327,6 @@
       <c r="K58" t="s">
         <v>47</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2456,9 +2357,6 @@
       <c r="K59" t="s">
         <v>44</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2488,9 +2386,6 @@
       <c r="K60" t="s">
         <v>162</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -2520,9 +2415,6 @@
       <c r="K61" t="s">
         <v>55</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2552,9 +2444,6 @@
       <c r="K62" t="s">
         <v>33</v>
       </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -2584,9 +2473,6 @@
       <c r="K63" t="s">
         <v>47</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -2616,9 +2502,6 @@
       <c r="K64" t="s">
         <v>47</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -2648,9 +2531,6 @@
       <c r="K65" t="s">
         <v>64</v>
       </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2680,9 +2560,6 @@
       <c r="K66" t="s">
         <v>47</v>
       </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2712,9 +2589,6 @@
       <c r="K67" t="s">
         <v>61</v>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -2744,9 +2618,6 @@
       <c r="K68" t="s">
         <v>36</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -2776,9 +2647,6 @@
       <c r="K69" t="s">
         <v>58</v>
       </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -2808,9 +2676,6 @@
       <c r="K70" t="s">
         <v>33</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -2840,9 +2705,6 @@
       <c r="K71" t="s">
         <v>55</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -2872,9 +2734,6 @@
       <c r="K72" t="s">
         <v>47</v>
       </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2904,9 +2763,6 @@
       <c r="K73" t="s">
         <v>47</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -2936,9 +2792,6 @@
       <c r="K74" t="s">
         <v>33</v>
       </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2968,9 +2821,6 @@
       <c r="K75" t="s">
         <v>50</v>
       </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3000,9 +2850,6 @@
       <c r="K76" t="s">
         <v>47</v>
       </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -3156,9 +3003,6 @@
       <c r="K81" t="s">
         <v>37</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
       <c r="M81" t="s">
         <v>178</v>
       </c>
@@ -3194,9 +3038,6 @@
       <c r="K82" t="s">
         <v>37</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
       <c r="M82" t="s">
         <v>114</v>
       </c>
@@ -3232,9 +3073,6 @@
       <c r="K83" t="s">
         <v>36</v>
       </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
       <c r="M83" t="s">
         <v>105</v>
       </c>
@@ -3270,8 +3108,8 @@
       <c r="K84" t="s">
         <v>33</v>
       </c>
-      <c r="L84">
-        <v>0</v>
+      <c r="L84" t="b">
+        <v>1</v>
       </c>
       <c r="M84" t="s">
         <v>179</v>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD62BEE3-7421-6842-B70D-F2CD79F5D183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B14AC95-0A5A-3F40-8DC9-88D2D5ADA97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34060" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Syngas!$A$1:$T$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="185">
   <si>
     <t>Activity</t>
   </si>
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>NOx retained, by selective catalytic reduction</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere, using heat pump heat</t>
+  </si>
+  <si>
+    <t>methane, from electrochemical methanation, with carbon from atmosphere, using waste heat</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2, with heat pump heat, and grid electricity</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2, with waste heat, and grid electricity</t>
   </si>
 </sst>
 </file>
@@ -994,15 +1006,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T236"/>
+  <dimension ref="A1:T268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="101.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -4137,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4319,7 +4331,7 @@
     </row>
     <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="B138" s="7">
         <v>1</v>
@@ -4411,9 +4423,9 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B140" s="7">
+        <v>183</v>
+      </c>
+      <c r="B140" s="8">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
@@ -4427,7 +4439,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4467,7 +4479,7 @@
       <c r="A141" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="8">
         <f>(4*0.0893)/0.717</f>
         <v>0.49818688981868903</v>
       </c>
@@ -4571,6 +4583,7 @@
       </c>
     </row>
     <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B143" s="11"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
@@ -4583,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4764,9 +4777,8 @@
       </c>
     </row>
     <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="str">
-        <f>B144</f>
-        <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
+      <c r="A154" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B154" s="7">
         <v>1</v>
@@ -4858,9 +4870,9 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B156" s="7">
+        <v>184</v>
+      </c>
+      <c r="B156" s="8">
         <f>1.972/0.717</f>
         <v>2.7503486750348678</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -4914,7 +4926,7 @@
       <c r="A157" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="8">
         <f>(4*0.0893)/0.717</f>
         <v>0.49818688981868903</v>
       </c>
@@ -5018,6 +5030,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="11"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="8"/>
@@ -5030,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5058,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5114,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5127,8 +5140,8 @@
       <c r="A167" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B167" s="12" t="s">
-        <v>134</v>
+      <c r="B167" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5211,9 +5224,8 @@
       </c>
     </row>
     <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="str">
-        <f>B160</f>
-        <v>methane, from biological methanation, with carbon from atmosphere</v>
+      <c r="A170" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B170" s="7">
         <v>1</v>
@@ -5227,9 +5239,8 @@
       <c r="F170" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G170" s="7" t="str">
-        <f>B162</f>
-        <v>methane, from biological methanation</v>
+      <c r="G170" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -5243,32 +5254,33 @@
     </row>
     <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B171" s="7">
-        <v>2.75</v>
+        <f>0.000000283/0.717</f>
+        <v>3.9470013947001396E-7</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I171" s="7">
         <v>2</v>
       </c>
       <c r="J171">
-        <f>LN(B171)</f>
-        <v>1.0116009116784799</v>
+        <f t="shared" ref="J171:J174" si="6">LN(B171)</f>
+        <v>-14.745139500920656</v>
       </c>
       <c r="K171" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L171" s="3">
         <v>1.2</v>
@@ -5286,10 +5298,10 @@
         <v>1.2</v>
       </c>
       <c r="Q171">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="R171">
-        <f t="shared" ref="R171:R174" si="6">LN(SQRT(EXP(
+        <f t="shared" ref="R171:R174" si="7">LN(SQRT(EXP(
 SQRT(
 +POWER(LN(K171),2)
 +POWER(LN(L171),2)
@@ -5300,16 +5312,16 @@
 +POWER(LN(Q171),2)
 )
 )))</f>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S171" s="10"/>
+        <v>0.57228175382009561</v>
+      </c>
     </row>
     <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
-        <v>165</v>
+      <c r="A172" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B172" s="7">
-        <v>0.5</v>
+        <f>1.972/0.717</f>
+        <v>2.7503486750348678</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>9</v>
@@ -5321,17 +5333,17 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
       </c>
       <c r="J172">
-        <f>LN(B172)</f>
-        <v>-0.69314718055994529</v>
+        <f t="shared" si="6"/>
+        <v>1.0117276945629605</v>
       </c>
       <c r="K172" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L172" s="3">
         <v>1.2</v>
@@ -5352,42 +5364,40 @@
         <v>1.05</v>
       </c>
       <c r="R172">
-        <f t="shared" si="6"/>
-        <v>0.18460621081155912</v>
+        <f t="shared" si="7"/>
+        <v>0.1623708273741902</v>
       </c>
       <c r="S172" s="10"/>
     </row>
     <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B173" s="7">
-        <v>1.55</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
       </c>
       <c r="J173">
-        <f>LN(B173)</f>
-        <v>0.43825493093115531</v>
+        <f t="shared" si="6"/>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K173" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L173" s="3">
         <v>1.2</v>
@@ -5408,18 +5418,18 @@
         <v>1.05</v>
       </c>
       <c r="R173">
-        <f t="shared" si="6"/>
-        <v>0.18460621081155912</v>
+        <f t="shared" si="7"/>
+        <v>0.1623708273741902</v>
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B174" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174" s="7">
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>9</v>
@@ -5431,20 +5441,17 @@
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
       </c>
       <c r="J174">
-        <f>LN(B174)</f>
-        <v>-6.422997481986064</v>
+        <f t="shared" si="6"/>
+        <v>-9.3884865573596574</v>
       </c>
       <c r="K174" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L174" s="3">
         <v>1.2</v>
@@ -5465,81 +5472,25 @@
         <v>1.05</v>
       </c>
       <c r="R174">
-        <f t="shared" si="6"/>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S174" s="10"/>
+        <f t="shared" si="7"/>
+        <v>0.1623708273741902</v>
+      </c>
     </row>
     <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B175" s="11">
-        <f>(34/51.3)*-1</f>
-        <v>-0.66276803118908389</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I175" s="7">
-        <v>2</v>
-      </c>
-      <c r="J175">
-        <f>LN(B175*-1)</f>
-        <v>-0.41133022756056237</v>
-      </c>
-      <c r="K175" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L175" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M175" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N175" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O175" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P175" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q175">
-        <v>1.05</v>
-      </c>
-      <c r="R175">
-        <f>LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K175),2)
-+POWER(LN(L175),2)
-+POWER(LN(M175),2)
-+POWER(LN(N175),2)
-+POWER(LN(O175),2)
-+POWER(LN(P175),2)
-+POWER(LN(Q175),2)
-)
-)))</f>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S175" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
     </row>
     <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="8"/>
@@ -5548,11 +5499,11 @@
       <c r="P176" s="8"/>
     </row>
     <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>144</v>
+      <c r="A177" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="7">
+        <v>1</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5563,10 +5514,10 @@
     </row>
     <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5577,10 +5528,10 @@
     </row>
     <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5591,10 +5542,10 @@
     </row>
     <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -5605,10 +5556,10 @@
     </row>
     <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -5619,10 +5570,10 @@
     </row>
     <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5633,10 +5584,10 @@
     </row>
     <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5646,11 +5597,8 @@
       <c r="P183" s="8"/>
     </row>
     <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>134</v>
+      <c r="A184" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -5661,114 +5609,166 @@
     </row>
     <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="8"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="8"/>
-      <c r="P185" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N185" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O185" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P185" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S185" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I186" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K186" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L186" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M186" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N186" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O186" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P186" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R186" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S186" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T186" s="1" t="s">
-        <v>123</v>
+      <c r="A186" s="7" t="str">
+        <f>B176</f>
+        <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
+      </c>
+      <c r="B186" s="7">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+      <c r="T186" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="str">
-        <f>B177</f>
-        <v>methane, from biological methanation, with carbon from cement plant</v>
+      <c r="A187" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B187" s="7">
-        <v>1</v>
+        <f>0.000000283/0.717</f>
+        <v>3.9470013947001396E-7</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" s="7" t="str">
-        <f>B179</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K187" s="8"/>
-      <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
-      <c r="P187" s="8"/>
-      <c r="T187" s="7" t="s">
-        <v>124</v>
+        <v>22</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" s="7">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <f t="shared" ref="J187:J190" si="8">LN(B187)</f>
+        <v>-14.745139500920656</v>
+      </c>
+      <c r="K187" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="L187" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M187" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N187" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O187" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P187" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187">
+        <f t="shared" ref="R187:R190" si="9">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K187),2)
++POWER(LN(L187),2)
++POWER(LN(M187),2)
++POWER(LN(N187),2)
++POWER(LN(O187),2)
++POWER(LN(P187),2)
++POWER(LN(Q187),2)
+)
+)))</f>
+        <v>0.57228175382009561</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B188" s="7">
-        <v>2.75</v>
+        <f>1.972/0.717</f>
+        <v>2.7503486750348678</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>9</v>
@@ -5786,11 +5786,11 @@
         <v>2</v>
       </c>
       <c r="J188">
-        <f>LN(B188)</f>
-        <v>1.0116009116784799</v>
+        <f t="shared" si="8"/>
+        <v>1.0117276945629605</v>
       </c>
       <c r="K188" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L188" s="3">
         <v>1.2</v>
@@ -5811,18 +5811,8 @@
         <v>1.05</v>
       </c>
       <c r="R188">
-        <f t="shared" ref="R188:R191" si="7">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K188),2)
-+POWER(LN(L188),2)
-+POWER(LN(M188),2)
-+POWER(LN(N188),2)
-+POWER(LN(O188),2)
-+POWER(LN(P188),2)
-+POWER(LN(Q188),2)
-)
-)))</f>
-        <v>0.18460621081155912</v>
+        <f t="shared" si="9"/>
+        <v>0.1623708273741902</v>
       </c>
       <c r="S188" s="10"/>
     </row>
@@ -5831,7 +5821,8 @@
         <v>165</v>
       </c>
       <c r="B189" s="7">
-        <v>0.5</v>
+        <f>(4*0.0893)/0.717</f>
+        <v>0.49818688981868903</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>9</v>
@@ -5849,11 +5840,11 @@
         <v>2</v>
       </c>
       <c r="J189">
-        <f>LN(B189)</f>
-        <v>-0.69314718055994529</v>
+        <f t="shared" si="8"/>
+        <v>-0.69677999159727633</v>
       </c>
       <c r="K189" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L189" s="3">
         <v>1.2</v>
@@ -5874,42 +5865,40 @@
         <v>1.05</v>
       </c>
       <c r="R189">
-        <f t="shared" si="7"/>
-        <v>0.18460621081155912</v>
+        <f t="shared" si="9"/>
+        <v>0.1623708273741902</v>
       </c>
       <c r="S189" s="10"/>
     </row>
     <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="11" t="s">
-        <v>153</v>
+      <c r="A190" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B190" s="7">
-        <v>1.55</v>
+        <f>0.00006/0.717</f>
+        <v>8.3682008368200843E-5</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
       </c>
       <c r="J190">
-        <f>LN(B190)</f>
-        <v>0.43825493093115531</v>
+        <f t="shared" si="8"/>
+        <v>-9.3884865573596574</v>
       </c>
       <c r="K190" s="3">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="L190" s="3">
         <v>1.2</v>
@@ -5930,138 +5919,39 @@
         <v>1.05</v>
       </c>
       <c r="R190">
-        <f t="shared" si="7"/>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S190" s="10"/>
-    </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B191" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I191" s="7">
-        <v>2</v>
-      </c>
-      <c r="J191">
-        <f>LN(B191)</f>
-        <v>-6.422997481986064</v>
-      </c>
-      <c r="K191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M191" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N191" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P191" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q191">
-        <v>1.05</v>
-      </c>
-      <c r="R191">
-        <f t="shared" si="7"/>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S191" s="10"/>
+        <f t="shared" si="9"/>
+        <v>0.1623708273741902</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
+      <c r="N191" s="8"/>
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
     </row>
     <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B192" s="11">
-        <f>(34/51.3)*-1</f>
-        <v>-0.66276803118908389</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I192" s="7">
-        <v>2</v>
-      </c>
-      <c r="J192">
-        <f>LN(B192*-1)</f>
-        <v>-0.41133022756056237</v>
-      </c>
-      <c r="K192" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L192" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M192" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N192" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O192" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P192" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q192">
-        <v>1.05</v>
-      </c>
-      <c r="R192">
-        <f>LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K192),2)
-+POWER(LN(L192),2)
-+POWER(LN(M192),2)
-+POWER(LN(N192),2)
-+POWER(LN(O192),2)
-+POWER(LN(P192),2)
-+POWER(LN(Q192),2)
-)
-)))</f>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S192" s="7" t="b">
+      <c r="A192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B193" s="7">
+        <v>1</v>
+      </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -6070,11 +5960,11 @@
       <c r="P193" s="8"/>
     </row>
     <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>145</v>
+      <c r="A194" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6085,10 +5975,10 @@
     </row>
     <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6099,10 +5989,10 @@
     </row>
     <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6113,10 +6003,10 @@
     </row>
     <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -6127,10 +6017,10 @@
     </row>
     <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6141,10 +6031,10 @@
     </row>
     <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6154,11 +6044,8 @@
       <c r="P199" s="8"/>
     </row>
     <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>159</v>
+      <c r="A200" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6168,22 +6055,87 @@
       <c r="P200" s="8"/>
     </row>
     <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B201" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-      <c r="P201" s="8"/>
+      <c r="A201" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L201" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M201" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N201" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O201" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P201" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S201" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
-        <v>11</v>
+      <c r="A202" s="7" t="str">
+        <f>B192</f>
+        <v>methane, from biological methanation, with carbon from atmosphere</v>
+      </c>
+      <c r="B202" s="7">
+        <v>1</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G202" s="7" t="str">
+        <f>B194</f>
+        <v>methane, from biological methanation</v>
       </c>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
@@ -6191,169 +6143,189 @@
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
       <c r="P202" s="8"/>
+      <c r="T202" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H203" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I203" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K203" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L203" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M203" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N203" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O203" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P203" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q203" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R203" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S203" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T203" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="str">
-        <f>B194</f>
-        <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
-      </c>
-      <c r="B204" s="7">
-        <v>1</v>
-      </c>
-      <c r="C204" s="7" t="s">
+      <c r="A203" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B203" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" s="7" t="str">
-        <f>B196</f>
-        <v>methane, from biological methanation</v>
-      </c>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="8"/>
-      <c r="N204" s="8"/>
-      <c r="O204" s="8"/>
-      <c r="P204" s="8"/>
-      <c r="T204" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B205" s="7">
-        <v>2.75</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F205" s="7" t="s">
+      <c r="D203" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G205" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I205" s="7">
-        <v>2</v>
-      </c>
-      <c r="J205">
-        <f>LN(B205)</f>
+      <c r="G203" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I203" s="7">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <f>LN(B203)</f>
         <v>1.0116009116784799</v>
       </c>
-      <c r="K205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M205" s="3">
+      <c r="K203" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L203" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M203" s="3">
         <v>1.03</v>
       </c>
-      <c r="N205" s="3">
+      <c r="N203" s="3">
         <v>1.01</v>
       </c>
-      <c r="O205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P205" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q205">
+      <c r="O203" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P203" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q203">
         <v>1.05</v>
       </c>
-      <c r="R205">
-        <f t="shared" ref="R205:R208" si="8">LN(SQRT(EXP(
+      <c r="R203">
+        <f t="shared" ref="R203:R206" si="10">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K205),2)
-+POWER(LN(L205),2)
-+POWER(LN(M205),2)
-+POWER(LN(N205),2)
-+POWER(LN(O205),2)
-+POWER(LN(P205),2)
-+POWER(LN(Q205),2)
++POWER(LN(K203),2)
++POWER(LN(L203),2)
++POWER(LN(M203),2)
++POWER(LN(N203),2)
++POWER(LN(O203),2)
++POWER(LN(P203),2)
++POWER(LN(Q203),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
+      <c r="S203" s="10"/>
+    </row>
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B204" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I204" s="7">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <f>LN(B204)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="K204" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L204" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M204" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N204" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O204" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P204" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q204">
+        <v>1.05</v>
+      </c>
+      <c r="R204">
+        <f t="shared" si="10"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S204" s="10"/>
+    </row>
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B205" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I205" s="7">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <f>LN(B205)</f>
+        <v>0.43825493093115531</v>
+      </c>
+      <c r="K205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M205" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N205" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P205" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q205">
+        <v>1.05</v>
+      </c>
+      <c r="R205">
+        <f t="shared" si="10"/>
+        <v>0.18460621081155912</v>
+      </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B206" s="7">
-        <v>0.5</v>
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B206" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>9</v>
@@ -6365,14 +6337,17 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>166</v>
+        <v>138</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
       </c>
       <c r="J206">
         <f>LN(B206)</f>
-        <v>-0.69314718055994529</v>
+        <v>-6.422997481986064</v>
       </c>
       <c r="K206" s="3">
         <v>1.2</v>
@@ -6396,39 +6371,40 @@
         <v>1.05</v>
       </c>
       <c r="R206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18460621081155912</v>
       </c>
       <c r="S206" s="10"/>
     </row>
     <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B207" s="7">
-        <v>1.55</v>
+      <c r="A207" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B207" s="11">
+        <f>(34/51.3)*-1</f>
+        <v>-0.66276803118908389</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
       </c>
       <c r="J207">
-        <f>LN(B207)</f>
-        <v>0.43825493093115531</v>
+        <f>LN(B207*-1)</f>
+        <v>-0.41133022756056237</v>
       </c>
       <c r="K207" s="3">
         <v>1.2</v>
@@ -6452,138 +6428,52 @@
         <v>1.05</v>
       </c>
       <c r="R207">
-        <f t="shared" si="8"/>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S207" s="10"/>
-    </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B208" s="14">
-        <f>0.0833/51.3</f>
-        <v>1.6237816764132554E-3</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I208" s="7">
-        <v>2</v>
-      </c>
-      <c r="J208">
-        <f>LN(B208)</f>
-        <v>-6.422997481986064</v>
-      </c>
-      <c r="K208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M208" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N208" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P208" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q208">
-        <v>1.05</v>
-      </c>
-      <c r="R208">
-        <f t="shared" si="8"/>
-        <v>0.18460621081155912</v>
-      </c>
-      <c r="S208" s="10"/>
-    </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B209" s="11">
-        <f>(34/51.3)*-1</f>
-        <v>-0.66276803118908389</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I209" s="7">
-        <v>2</v>
-      </c>
-      <c r="J209">
-        <f>LN(B209*-1)</f>
-        <v>-0.41133022756056237</v>
-      </c>
-      <c r="K209" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="L209" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M209" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="N209" s="3">
-        <v>1.01</v>
-      </c>
-      <c r="O209" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="P209" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q209">
-        <v>1.05</v>
-      </c>
-      <c r="R209">
         <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K209),2)
-+POWER(LN(L209),2)
-+POWER(LN(M209),2)
-+POWER(LN(N209),2)
-+POWER(LN(O209),2)
-+POWER(LN(P209),2)
-+POWER(LN(Q209),2)
++POWER(LN(K207),2)
++POWER(LN(L207),2)
++POWER(LN(M207),2)
++POWER(LN(N207),2)
++POWER(LN(O207),2)
++POWER(LN(P207),2)
++POWER(LN(Q207),2)
 )
 )))</f>
         <v>0.18460621081155912</v>
       </c>
-      <c r="S209" s="7" t="b">
+      <c r="S207" s="7" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K208" s="8"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="8"/>
+      <c r="N208" s="8"/>
+      <c r="O208" s="8"/>
+      <c r="P208" s="8"/>
+    </row>
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K209" s="8"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="8"/>
+      <c r="N209" s="8"/>
+      <c r="O209" s="8"/>
+      <c r="P209" s="8"/>
+    </row>
     <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="7">
+        <v>1</v>
+      </c>
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
       <c r="M210" s="8"/>
@@ -6592,11 +6482,11 @@
       <c r="P210" s="8"/>
     </row>
     <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>125</v>
+      <c r="A211" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6607,10 +6497,10 @@
     </row>
     <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="K212" s="8"/>
       <c r="L212" s="8"/>
@@ -6621,10 +6511,10 @@
     </row>
     <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
@@ -6635,10 +6525,10 @@
     </row>
     <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
@@ -6649,10 +6539,10 @@
     </row>
     <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -6663,10 +6553,10 @@
     </row>
     <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6676,11 +6566,8 @@
       <c r="P216" s="8"/>
     </row>
     <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>107</v>
+      <c r="A217" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
@@ -6691,115 +6578,169 @@
     </row>
     <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="8"/>
-      <c r="O218" s="8"/>
-      <c r="P218" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H218" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K218" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L218" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M218" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N218" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O218" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P218" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S218" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H219" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I219" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K219" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L219" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M219" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N219" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O219" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P219" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q219" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R219" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S219" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T219" s="1" t="s">
-        <v>123</v>
+      <c r="A219" s="7" t="str">
+        <f>B209</f>
+        <v>methane, from biological methanation, with carbon from cement plant</v>
+      </c>
+      <c r="B219" s="7">
+        <v>1</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" s="7" t="str">
+        <f>B211</f>
+        <v>methane, from biological methanation</v>
+      </c>
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="8"/>
+      <c r="P219" s="8"/>
+      <c r="T219" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B220" s="7">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
-      <c r="N220" s="8"/>
-      <c r="O220" s="8"/>
-      <c r="P220" s="8"/>
-      <c r="T220" s="7" t="s">
-        <v>146</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I220" s="7">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <f>LN(B220)</f>
+        <v>1.0116009116784799</v>
+      </c>
+      <c r="K220" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L220" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M220" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N220" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O220" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P220" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q220">
+        <v>1.05</v>
+      </c>
+      <c r="R220">
+        <f t="shared" ref="R220:R223" si="11">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K220),2)
++POWER(LN(L220),2)
++POWER(LN(M220),2)
++POWER(LN(N220),2)
++POWER(LN(O220),2)
++POWER(LN(P220),2)
++POWER(LN(Q220),2)
+)
+)))</f>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S220" s="10"/>
     </row>
     <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
-        <v>147</v>
+      <c r="A221" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="B221" s="7">
-        <v>5940</v>
+        <v>0.5</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>7</v>
@@ -6808,29 +6749,29 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
       </c>
       <c r="J221">
-        <f t="shared" ref="J221:J222" si="9">LN(B221)</f>
-        <v>8.6894644123566902</v>
+        <f>LN(B221)</f>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="K221" s="3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L221" s="3">
         <v>1.2</v>
       </c>
       <c r="M221" s="3">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="N221" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="O221" s="3">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="P221" s="3">
         <v>1.2</v>
@@ -6839,101 +6780,194 @@
         <v>1.05</v>
       </c>
       <c r="R221">
-        <f t="shared" ref="R221:R222" si="10">LN(SQRT(EXP(
+        <f t="shared" si="11"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S221" s="10"/>
+    </row>
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B222" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I222" s="7">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <f>LN(B222)</f>
+        <v>0.43825493093115531</v>
+      </c>
+      <c r="K222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M222" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N222" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P222" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q222">
+        <v>1.05</v>
+      </c>
+      <c r="R222">
+        <f t="shared" si="11"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S222" s="10"/>
+    </row>
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B223" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I223" s="7">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <f>LN(B223)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K223" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L223" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M223" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N223" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O223" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P223" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q223">
+        <v>1.05</v>
+      </c>
+      <c r="R223">
+        <f t="shared" si="11"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S223" s="10"/>
+    </row>
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B224" s="11">
+        <f>(34/51.3)*-1</f>
+        <v>-0.66276803118908389</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I224" s="7">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <f>LN(B224*-1)</f>
+        <v>-0.41133022756056237</v>
+      </c>
+      <c r="K224" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L224" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M224" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N224" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O224" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P224" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q224">
+        <v>1.05</v>
+      </c>
+      <c r="R224">
+        <f>LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K221),2)
-+POWER(LN(L221),2)
-+POWER(LN(M221),2)
-+POWER(LN(N221),2)
-+POWER(LN(O221),2)
-+POWER(LN(P221),2)
-+POWER(LN(Q221),2)
++POWER(LN(K224),2)
++POWER(LN(L224),2)
++POWER(LN(M224),2)
++POWER(LN(N224),2)
++POWER(LN(O224),2)
++POWER(LN(P224),2)
++POWER(LN(Q224),2)
 )
 )))</f>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B222" s="7">
-        <v>660</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I222" s="7">
-        <v>2</v>
-      </c>
-      <c r="J222">
-        <f t="shared" si="9"/>
-        <v>6.4922398350204711</v>
-      </c>
-      <c r="K222" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L222" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M222" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="N222" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O222" s="3">
-        <v>2</v>
-      </c>
-      <c r="P222" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q222">
-        <v>1.05</v>
-      </c>
-      <c r="R222">
-        <f t="shared" si="10"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-    </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
-      <c r="N224" s="8"/>
-      <c r="O224" s="8"/>
-      <c r="P224" s="8"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S224" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B225" s="7">
-        <v>1</v>
-      </c>
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
@@ -6942,11 +6976,11 @@
       <c r="P225" s="8"/>
     </row>
     <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>127</v>
+      <c r="A226" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -6957,10 +6991,10 @@
     </row>
     <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B227" s="7">
+        <v>1</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="8"/>
@@ -6971,10 +7005,10 @@
     </row>
     <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -6985,10 +7019,10 @@
     </row>
     <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K229" s="8"/>
       <c r="L229" s="8"/>
@@ -6999,10 +7033,10 @@
     </row>
     <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
@@ -7012,8 +7046,11 @@
       <c r="P230" s="8"/>
     </row>
     <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
-        <v>11</v>
+      <c r="A231" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
@@ -7023,85 +7060,25 @@
       <c r="P231" s="8"/>
     </row>
     <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H232" s="6" t="s">
+      <c r="A232" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I232" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K232" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L232" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M232" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N232" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O232" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P232" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q232" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R232" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S232" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="T232" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="B232" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K232" s="8"/>
+      <c r="L232" s="8"/>
+      <c r="M232" s="8"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
+      <c r="P232" s="8"/>
     </row>
     <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B233" s="7">
-        <v>1</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -7109,138 +7086,1067 @@
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
-      <c r="T233" s="7" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B234" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I234" s="7">
-        <v>2</v>
-      </c>
-      <c r="J234">
-        <f t="shared" ref="J234:J235" si="11">LN(B234)</f>
-        <v>-0.21072103131565253</v>
-      </c>
-      <c r="K234" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M234" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="N234" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O234" s="3">
-        <v>2</v>
-      </c>
-      <c r="P234" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q234">
-        <v>1.05</v>
-      </c>
-      <c r="R234">
-        <f t="shared" ref="R234:R235" si="12">LN(SQRT(EXP(
-SQRT(
-+POWER(LN(K234),2)
-+POWER(LN(L234),2)
-+POWER(LN(M234),2)
-+POWER(LN(N234),2)
-+POWER(LN(O234),2)
-+POWER(LN(P234),2)
-+POWER(LN(Q234),2)
-)
-)))</f>
-        <v>0.47095746419981693</v>
-      </c>
+      <c r="A234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="8"/>
+      <c r="L234" s="8"/>
+      <c r="M234" s="8"/>
+      <c r="N234" s="8"/>
+      <c r="O234" s="8"/>
+      <c r="P234" s="8"/>
     </row>
     <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B235" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G235" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I235" s="7">
-        <v>2</v>
-      </c>
-      <c r="J235">
-        <f t="shared" si="11"/>
-        <v>-1.6607312068216509</v>
-      </c>
-      <c r="K235" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L235" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="M235" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="N235" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O235" s="3">
-        <v>2</v>
-      </c>
-      <c r="P235" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q235">
-        <v>1.05</v>
-      </c>
-      <c r="R235">
-        <f t="shared" si="12"/>
-        <v>0.47095746419981693</v>
+      <c r="A235" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H235" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L235" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M235" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N235" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O235" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P235" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S235" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="236" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="7" t="str">
+        <f>B226</f>
+        <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
+      </c>
+      <c r="B236" s="7">
+        <v>1</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" s="7" t="str">
+        <f>B228</f>
+        <v>methane, from biological methanation</v>
+      </c>
       <c r="K236" s="8"/>
       <c r="L236" s="8"/>
       <c r="M236" s="8"/>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
       <c r="P236" s="8"/>
+      <c r="T236" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I237" s="7">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <f>LN(B237)</f>
+        <v>1.0116009116784799</v>
+      </c>
+      <c r="K237" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L237" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M237" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N237" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O237" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P237" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q237">
+        <v>1.05</v>
+      </c>
+      <c r="R237">
+        <f t="shared" ref="R237:R240" si="12">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K237),2)
++POWER(LN(L237),2)
++POWER(LN(M237),2)
++POWER(LN(N237),2)
++POWER(LN(O237),2)
++POWER(LN(P237),2)
++POWER(LN(Q237),2)
+)
+)))</f>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S237" s="10"/>
+    </row>
+    <row r="238" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B238" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I238" s="7">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <f>LN(B238)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="K238" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L238" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M238" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N238" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O238" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P238" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q238">
+        <v>1.05</v>
+      </c>
+      <c r="R238">
+        <f t="shared" si="12"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S238" s="10"/>
+    </row>
+    <row r="239" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B239" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I239" s="7">
+        <v>2</v>
+      </c>
+      <c r="J239">
+        <f>LN(B239)</f>
+        <v>0.43825493093115531</v>
+      </c>
+      <c r="K239" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L239" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M239" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N239" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O239" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P239" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q239">
+        <v>1.05</v>
+      </c>
+      <c r="R239">
+        <f t="shared" si="12"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S239" s="10"/>
+    </row>
+    <row r="240" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B240" s="14">
+        <f>0.0833/51.3</f>
+        <v>1.6237816764132554E-3</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I240" s="7">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <f>LN(B240)</f>
+        <v>-6.422997481986064</v>
+      </c>
+      <c r="K240" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L240" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M240" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N240" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O240" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P240" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q240">
+        <v>1.05</v>
+      </c>
+      <c r="R240">
+        <f t="shared" si="12"/>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S240" s="10"/>
+    </row>
+    <row r="241" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B241" s="11">
+        <f>(34/51.3)*-1</f>
+        <v>-0.66276803118908389</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I241" s="7">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <f>LN(B241*-1)</f>
+        <v>-0.41133022756056237</v>
+      </c>
+      <c r="K241" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L241" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M241" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="N241" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="O241" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P241" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q241">
+        <v>1.05</v>
+      </c>
+      <c r="R241">
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(K241),2)
++POWER(LN(L241),2)
++POWER(LN(M241),2)
++POWER(LN(N241),2)
++POWER(LN(O241),2)
++POWER(LN(P241),2)
++POWER(LN(Q241),2)
+)
+)))</f>
+        <v>0.18460621081155912</v>
+      </c>
+      <c r="S241" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K242" s="8"/>
+      <c r="L242" s="8"/>
+      <c r="M242" s="8"/>
+      <c r="N242" s="8"/>
+      <c r="O242" s="8"/>
+      <c r="P242" s="8"/>
+    </row>
+    <row r="243" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K243" s="8"/>
+      <c r="L243" s="8"/>
+      <c r="M243" s="8"/>
+      <c r="N243" s="8"/>
+      <c r="O243" s="8"/>
+      <c r="P243" s="8"/>
+    </row>
+    <row r="244" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="7">
+        <v>1</v>
+      </c>
+      <c r="K244" s="8"/>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+      <c r="O244" s="8"/>
+      <c r="P244" s="8"/>
+    </row>
+    <row r="245" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K245" s="8"/>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
+      <c r="P245" s="8"/>
+    </row>
+    <row r="246" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K246" s="8"/>
+      <c r="L246" s="8"/>
+      <c r="M246" s="8"/>
+      <c r="N246" s="8"/>
+      <c r="O246" s="8"/>
+      <c r="P246" s="8"/>
+    </row>
+    <row r="247" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K247" s="8"/>
+      <c r="L247" s="8"/>
+      <c r="M247" s="8"/>
+      <c r="N247" s="8"/>
+      <c r="O247" s="8"/>
+      <c r="P247" s="8"/>
+    </row>
+    <row r="248" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K248" s="8"/>
+      <c r="L248" s="8"/>
+      <c r="M248" s="8"/>
+      <c r="N248" s="8"/>
+      <c r="O248" s="8"/>
+      <c r="P248" s="8"/>
+    </row>
+    <row r="249" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K249" s="8"/>
+      <c r="L249" s="8"/>
+      <c r="M249" s="8"/>
+      <c r="N249" s="8"/>
+      <c r="O249" s="8"/>
+      <c r="P249" s="8"/>
+    </row>
+    <row r="250" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="8"/>
+      <c r="L250" s="8"/>
+      <c r="M250" s="8"/>
+      <c r="N250" s="8"/>
+      <c r="O250" s="8"/>
+      <c r="P250" s="8"/>
+    </row>
+    <row r="251" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L251" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M251" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N251" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O251" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P251" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S251" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B252" s="7">
+        <v>1</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K252" s="8"/>
+      <c r="L252" s="8"/>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+      <c r="O252" s="8"/>
+      <c r="P252" s="8"/>
+      <c r="T252" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B253" s="7">
+        <v>5940</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I253" s="7">
+        <v>2</v>
+      </c>
+      <c r="J253">
+        <f t="shared" ref="J253:J254" si="13">LN(B253)</f>
+        <v>8.6894644123566902</v>
+      </c>
+      <c r="K253" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L253" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M253" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N253" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O253" s="3">
+        <v>2</v>
+      </c>
+      <c r="P253" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q253">
+        <v>1.05</v>
+      </c>
+      <c r="R253">
+        <f t="shared" ref="R253:R254" si="14">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K253),2)
++POWER(LN(L253),2)
++POWER(LN(M253),2)
++POWER(LN(N253),2)
++POWER(LN(O253),2)
++POWER(LN(P253),2)
++POWER(LN(Q253),2)
+)
+)))</f>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B254" s="7">
+        <v>660</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I254" s="7">
+        <v>2</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="13"/>
+        <v>6.4922398350204711</v>
+      </c>
+      <c r="K254" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L254" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M254" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N254" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O254" s="3">
+        <v>2</v>
+      </c>
+      <c r="P254" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q254">
+        <v>1.05</v>
+      </c>
+      <c r="R254">
+        <f t="shared" si="14"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K255" s="8"/>
+      <c r="L255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+      <c r="O255" s="8"/>
+      <c r="P255" s="8"/>
+    </row>
+    <row r="256" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K256" s="8"/>
+      <c r="L256" s="8"/>
+      <c r="M256" s="8"/>
+      <c r="N256" s="8"/>
+      <c r="O256" s="8"/>
+      <c r="P256" s="8"/>
+    </row>
+    <row r="257" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="7">
+        <v>1</v>
+      </c>
+      <c r="K257" s="8"/>
+      <c r="L257" s="8"/>
+      <c r="M257" s="8"/>
+      <c r="N257" s="8"/>
+      <c r="O257" s="8"/>
+      <c r="P257" s="8"/>
+    </row>
+    <row r="258" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K258" s="8"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
+      <c r="O258" s="8"/>
+      <c r="P258" s="8"/>
+    </row>
+    <row r="259" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
+      <c r="O259" s="8"/>
+      <c r="P259" s="8"/>
+    </row>
+    <row r="260" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K260" s="8"/>
+      <c r="L260" s="8"/>
+      <c r="M260" s="8"/>
+      <c r="N260" s="8"/>
+      <c r="O260" s="8"/>
+      <c r="P260" s="8"/>
+    </row>
+    <row r="261" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K261" s="8"/>
+      <c r="L261" s="8"/>
+      <c r="M261" s="8"/>
+      <c r="N261" s="8"/>
+      <c r="O261" s="8"/>
+      <c r="P261" s="8"/>
+    </row>
+    <row r="262" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K262" s="8"/>
+      <c r="L262" s="8"/>
+      <c r="M262" s="8"/>
+      <c r="N262" s="8"/>
+      <c r="O262" s="8"/>
+      <c r="P262" s="8"/>
+    </row>
+    <row r="263" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="8"/>
+      <c r="L263" s="8"/>
+      <c r="M263" s="8"/>
+      <c r="N263" s="8"/>
+      <c r="O263" s="8"/>
+      <c r="P263" s="8"/>
+    </row>
+    <row r="264" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I264" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L264" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M264" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N264" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O264" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P264" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S264" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B265" s="7">
+        <v>1</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K265" s="8"/>
+      <c r="L265" s="8"/>
+      <c r="M265" s="8"/>
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
+      <c r="P265" s="8"/>
+      <c r="T265" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B266" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I266" s="7">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <f t="shared" ref="J266:J267" si="15">LN(B266)</f>
+        <v>-0.21072103131565253</v>
+      </c>
+      <c r="K266" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L266" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M266" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N266" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O266" s="3">
+        <v>2</v>
+      </c>
+      <c r="P266" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q266">
+        <v>1.05</v>
+      </c>
+      <c r="R266">
+        <f t="shared" ref="R266:R267" si="16">LN(SQRT(EXP(
+SQRT(
++POWER(LN(K266),2)
++POWER(LN(L266),2)
++POWER(LN(M266),2)
++POWER(LN(N266),2)
++POWER(LN(O266),2)
++POWER(LN(P266),2)
++POWER(LN(Q266),2)
+)
+)))</f>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B267" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I267" s="7">
+        <v>2</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="15"/>
+        <v>-1.6607312068216509</v>
+      </c>
+      <c r="K267" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L267" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M267" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N267" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O267" s="3">
+        <v>2</v>
+      </c>
+      <c r="P267" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="Q267">
+        <v>1.05</v>
+      </c>
+      <c r="R267">
+        <f t="shared" si="16"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K268" s="8"/>
+      <c r="L268" s="8"/>
+      <c r="M268" s="8"/>
+      <c r="N268" s="8"/>
+      <c r="O268" s="8"/>
+      <c r="P268" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T236" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T268" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B201" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
-    <hyperlink ref="B184" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
-    <hyperlink ref="B167" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
+    <hyperlink ref="B233" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
+    <hyperlink ref="B216" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
+    <hyperlink ref="B199" r:id="rId3" xr:uid="{BB60DEB9-D357-E441-AAA1-976260D0B6E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B14AC95-0A5A-3F40-8DC9-88D2D5ADA97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76BC81-512D-1048-94BF-903A046FF794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34060" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="184">
   <si>
     <t>Activity</t>
   </si>
@@ -107,9 +107,6 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>GLO</t>
   </si>
   <si>
@@ -425,18 +422,9 @@
     <t>methane, from electrochemical methanation, with carbon from cement plant</t>
   </si>
   <si>
-    <t>carbon dioxide, captured at cement production plant, for subsequent reuse</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured and reused</t>
-  </si>
-  <si>
     <t>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</t>
   </si>
   <si>
-    <t>carbon dioxide, captured at municipal solid waste incineration plant, for subsequent reuse</t>
-  </si>
-  <si>
     <t>methane, from biological methanation</t>
   </si>
   <si>
@@ -518,9 +506,6 @@
     <t>Based on stoichiometry, for every kilogram of methane produced, the system would consume approximately 2.75 kilograms of carbon dioxide and 0.5 kilograms of H2, and produce approximately 2.25 kilograms of water. Rest of info Adapted from BioCat II project Annex I 2014. Consider 51.3 kg CH4 per full-load hour. Reactor heat re-circulated at the wastewater treatment plant, hence not considered here. Infrastructure missing.</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2</t>
-  </si>
-  <si>
     <t>electricity production, from combined cycle plant, synthetic natural gas</t>
   </si>
   <si>
@@ -587,10 +572,22 @@
     <t>methane, from electrochemical methanation, with carbon from atmosphere, using waste heat</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2, with heat pump heat, and grid electricity</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2, with waste heat, and grid electricity</t>
+    <t>carbon dioxide, captured, with a sorbent-based direct air capture system, 100ktCO2</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured, with a solvent-based direct air capture system, 1MtCO2, with heat pump heat, and grid electricity</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured, with a sorbent-based direct air capture system, 100ktCO2, with waste heat, and grid electricity</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured, at cement production plant, for subsequent reuse</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured, at municipal solid waste incineration plant, for subsequent reuse</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,21 +1025,21 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1057,15 +1055,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1073,20 +1071,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1118,15 +1116,15 @@
         <v>10</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1135,21 +1133,21 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>4.6073299999999991E-12</v>
@@ -1158,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1173,12 +1171,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>4.6479999999999997E-9</v>
@@ -1187,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1202,12 +1200,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>7.0301000000000005E-7</v>
@@ -1216,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1231,12 +1229,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>5.3800599999999993E-9</v>
@@ -1245,10 +1243,10 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1260,12 +1258,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>3.0734899999999997E-12</v>
@@ -1274,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1289,12 +1287,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>5.3800599999999993E-6</v>
@@ -1303,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1318,12 +1316,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <f>B36*47.5*0.054</f>
@@ -1333,10 +1331,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1348,12 +1346,12 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>1.2782000000000001E-5</v>
@@ -1362,10 +1360,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1377,12 +1375,12 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>5.8099999999999994E-6</v>
@@ -1391,10 +1389,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1406,12 +1404,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>1.6849E-16</v>
@@ -1420,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1435,12 +1433,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>7.9596999999999994E-6</v>
@@ -1449,10 +1447,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1464,12 +1462,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>1.9231099999999998E-7</v>
@@ -1478,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1493,24 +1491,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>3.0502500000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1522,12 +1520,12 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>4.6073299999999995E-6</v>
@@ -1536,10 +1534,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1551,12 +1549,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>1.7429999999999998E-10</v>
@@ -1565,10 +1563,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1580,12 +1578,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>5.8099999999999994E-6</v>
@@ -1594,10 +1592,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1609,12 +1607,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>1.5803199999999998E-4</v>
@@ -1623,10 +1621,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1638,12 +1636,12 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>4.6479999999999997E-8</v>
@@ -1652,10 +1650,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1667,12 +1665,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>2.9049999999999997E-6</v>
@@ -1681,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1696,12 +1694,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>6.6814999999999995E-6</v>
@@ -1710,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1725,12 +1723,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>4.0960499999999995E-6</v>
@@ -1739,10 +1737,10 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1754,12 +1752,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>9.2959999999999993E-8</v>
@@ -1768,10 +1766,10 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1783,12 +1781,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>2.9049999999999997E-6</v>
@@ -1797,10 +1795,10 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1812,12 +1810,12 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>8.714999999999999E-9</v>
@@ -1826,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1841,12 +1839,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B36" s="5">
         <f>3.6/0.62/47.5</f>
@@ -1862,21 +1860,21 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>1.3246799999999999E-11</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1894,15 +1892,15 @@
         <v>2.28E-12</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>1.4525000000000001E-5</v>
@@ -1929,21 +1927,21 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="J38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
-      </c>
-      <c r="L38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>38</v>
       </c>
       <c r="B39">
         <v>1.1619999999999999E-5</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1964,21 +1962,21 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>2.9049999999999998</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1999,27 +1997,27 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>-5.8099999999999994E-6</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -2034,24 +2032,26 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2067,15 +2067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2083,20 +2083,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -2125,21 +2125,21 @@
         <v>17</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2148,10 +2148,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
@@ -2160,15 +2160,15 @@
         <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>4.6073299999999991E-12</v>
@@ -2177,10 +2177,10 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2192,12 +2192,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>4.6479999999999997E-9</v>
@@ -2206,10 +2206,10 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2221,12 +2221,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>7.0301000000000005E-7</v>
@@ -2235,10 +2235,10 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2250,12 +2250,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>5.3800599999999993E-9</v>
@@ -2264,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2279,12 +2279,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>3.0734899999999997E-12</v>
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -2308,12 +2308,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>5.3800599999999993E-6</v>
@@ -2322,10 +2322,10 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2337,12 +2337,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59">
         <f>B78*2.65*0.1</f>
@@ -2352,10 +2352,10 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2367,12 +2367,12 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>1.2782000000000001E-5</v>
@@ -2381,10 +2381,10 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2396,12 +2396,12 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>5.8099999999999994E-6</v>
@@ -2410,10 +2410,10 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -2425,12 +2425,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>1.6849E-16</v>
@@ -2439,10 +2439,10 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2454,12 +2454,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>7.9596999999999994E-6</v>
@@ -2468,10 +2468,10 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -2483,12 +2483,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>1.9231099999999998E-7</v>
@@ -2497,10 +2497,10 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2512,24 +2512,24 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>3.0502500000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -2541,12 +2541,12 @@
         <v>2.439508208471609E-2</v>
       </c>
       <c r="K65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>4.6073299999999995E-6</v>
@@ -2555,10 +2555,10 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2570,12 +2570,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67">
         <v>1.7429999999999998E-10</v>
@@ -2584,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -2599,12 +2599,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>5.8099999999999994E-6</v>
@@ -2613,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2628,12 +2628,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69">
         <v>5.7925699999999993E-5</v>
@@ -2642,10 +2642,10 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -2657,12 +2657,12 @@
         <v>0.20273255405408211</v>
       </c>
       <c r="K69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>4.6479999999999997E-8</v>
@@ -2671,10 +2671,10 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2686,12 +2686,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>2.9049999999999997E-6</v>
@@ -2700,10 +2700,10 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -2715,12 +2715,12 @@
         <v>0.54930614433405478</v>
       </c>
       <c r="K71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72">
         <v>6.6814999999999995E-6</v>
@@ -2729,10 +2729,10 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2744,12 +2744,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73">
         <v>4.0960499999999995E-6</v>
@@ -2758,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -2773,12 +2773,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>9.2959999999999993E-8</v>
@@ -2787,10 +2787,10 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2802,12 +2802,12 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>2.9049999999999997E-6</v>
@@ -2816,10 +2816,10 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -2831,12 +2831,12 @@
         <v>4.7655089902162509E-2</v>
       </c>
       <c r="K75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76">
         <v>8.714999999999999E-9</v>
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2860,12 +2860,12 @@
         <v>0.80471895621705025</v>
       </c>
       <c r="K76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B77">
         <f>B78*2.65*0.9</f>
@@ -2890,15 +2890,15 @@
         <v>5.04E-2</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="B78" s="5">
         <f>3.6/0.54/47.5</f>
@@ -2914,21 +2914,21 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79">
         <v>4.4736999999999999E-4</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2946,21 +2946,21 @@
         <v>7.7000000000000001E-5</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80">
         <v>1.27239E-11</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -2978,15 +2978,15 @@
         <v>2.1900000000000002E-12</v>
       </c>
       <c r="K80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81">
         <v>1.4525000000000001E-5</v>
@@ -3013,21 +3013,21 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K81" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>37</v>
-      </c>
-      <c r="M81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>38</v>
       </c>
       <c r="B82">
         <v>1.1619999999999999E-5</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -3048,21 +3048,21 @@
         <v>0.1075556898084728</v>
       </c>
       <c r="K82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B83">
         <v>2.9049999999999998</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -3083,27 +3083,27 @@
         <v>0.45814536593707761</v>
       </c>
       <c r="K83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84">
         <v>-5.8099999999999994E-6</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
         <v>22</v>
@@ -3118,24 +3118,25 @@
         <v>1.0397207708399181</v>
       </c>
       <c r="K84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3151,15 +3152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3175,20 +3176,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
@@ -3223,9 +3224,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>1.2300000000000001E-4</v>
@@ -3234,10 +3235,10 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3246,12 +3247,12 @@
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>6.0000000000000002E-6</v>
@@ -3260,10 +3261,10 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3272,24 +3273,24 @@
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="J96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3298,33 +3299,33 @@
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="J97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B98" s="15">
         <f>((B97*1000)-(600*3.78541/1000))/1000</f>
         <v>8.0928753999999992E-2</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J98" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3336,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
@@ -3345,12 +3346,12 @@
         <v>100</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3374,21 +3375,21 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B101">
         <v>0.38400000000000001</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -3403,15 +3404,15 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K101" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B102">
         <v>8.2699999999999996E-11</v>
@@ -3435,21 +3436,21 @@
         <v>8.2699999999999996E-11</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
@@ -3467,21 +3468,21 @@
         <v>7.4400000000000002E-10</v>
       </c>
       <c r="J103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B104">
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -3499,21 +3500,21 @@
         <v>8.2600000000000002E-5</v>
       </c>
       <c r="J104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105">
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -3531,21 +3532,21 @@
         <v>3.3099999999999999E-10</v>
       </c>
       <c r="J105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
@@ -3563,21 +3564,21 @@
         <v>5.1400000000000003E-12</v>
       </c>
       <c r="J106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K106" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -3595,21 +3596,21 @@
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="J107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -3627,21 +3628,21 @@
         <v>5.7899999999999997E-10</v>
       </c>
       <c r="J108" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -3659,27 +3660,27 @@
         <v>3.0400000000000002E-4</v>
       </c>
       <c r="J109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>-2.2699999999999999E-4</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
         <v>22</v>
@@ -3691,18 +3692,19 @@
         <v>2.2699999999999999E-4</v>
       </c>
       <c r="J110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -3711,7 +3713,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +3727,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +3741,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3755,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -3767,7 +3769,7 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>8</v>
       </c>
@@ -3781,12 +3783,12 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -3795,12 +3797,12 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -3809,7 +3811,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3822,7 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>12</v>
       </c>
@@ -3852,39 +3854,39 @@
         <v>16</v>
       </c>
       <c r="K121" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L121" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L121" s="9" t="s">
+      <c r="M121" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M121" s="9" t="s">
+      <c r="N121" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N121" s="9" t="s">
+      <c r="O121" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O121" s="9" t="s">
+      <c r="P121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P121" s="9" t="s">
+      <c r="Q121" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B122" s="7">
         <v>1</v>
@@ -3908,12 +3910,12 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
       <c r="T122" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B123" s="7">
         <f>0.000000283/0.717</f>
@@ -3976,7 +3978,7 @@
     </row>
     <row r="124" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B124" s="8">
         <f>1.972/0.717</f>
@@ -3992,7 +3994,7 @@
         <v>22</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I124" s="7">
         <v>2</v>
@@ -4028,9 +4030,9 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B125" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4046,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I125" s="7">
         <v>2</v>
@@ -4082,9 +4084,9 @@
       </c>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="7">
         <f>0.00006/0.717</f>
@@ -4100,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I126" s="7">
         <v>2</v>
@@ -4135,7 +4137,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4144,12 +4146,12 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4158,7 +4160,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>1</v>
       </c>
@@ -4172,7 +4174,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
@@ -4186,7 +4188,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>4</v>
       </c>
@@ -4200,7 +4202,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>6</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>8</v>
       </c>
@@ -4228,12 +4230,12 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4242,12 +4244,12 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4256,7 +4258,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>11</v>
       </c>
@@ -4267,7 +4269,7 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>12</v>
       </c>
@@ -4299,39 +4301,39 @@
         <v>16</v>
       </c>
       <c r="K137" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L137" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L137" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M137" s="9" t="s">
+      <c r="N137" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N137" s="9" t="s">
+      <c r="O137" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O137" s="9" t="s">
+      <c r="P137" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P137" s="9" t="s">
+      <c r="Q137" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S137" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B138" s="7">
         <v>1</v>
@@ -4355,12 +4357,12 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="T138" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B139" s="7">
         <f>0.000000283/0.717</f>
@@ -4423,7 +4425,7 @@
     </row>
     <row r="140" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B140" s="8">
         <f>1.972/0.717</f>
@@ -4439,7 +4441,7 @@
         <v>22</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I140" s="7">
         <v>2</v>
@@ -4475,9 +4477,9 @@
       </c>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B141" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4493,7 +4495,7 @@
         <v>22</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I141" s="7">
         <v>2</v>
@@ -4529,9 +4531,9 @@
       </c>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142" s="7">
         <f>0.00006/0.717</f>
@@ -4547,7 +4549,7 @@
         <v>22</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I142" s="7">
         <v>2</v>
@@ -4582,7 +4584,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4591,12 +4593,12 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4605,7 +4607,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>1</v>
       </c>
@@ -4619,7 +4621,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>2</v>
       </c>
@@ -4633,7 +4635,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
@@ -4647,7 +4649,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>6</v>
       </c>
@@ -4661,7 +4663,7 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>8</v>
       </c>
@@ -4675,12 +4677,12 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4689,12 +4691,12 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -4703,7 +4705,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>11</v>
       </c>
@@ -4714,7 +4716,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>12</v>
       </c>
@@ -4746,39 +4748,39 @@
         <v>16</v>
       </c>
       <c r="K153" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L153" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L153" s="9" t="s">
+      <c r="M153" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="N153" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N153" s="9" t="s">
+      <c r="O153" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O153" s="9" t="s">
+      <c r="P153" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P153" s="9" t="s">
+      <c r="Q153" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S153" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B154" s="7">
         <v>1</v>
@@ -4802,12 +4804,12 @@
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="T154" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B155" s="7">
         <f>0.000000283/0.717</f>
@@ -4870,7 +4872,7 @@
     </row>
     <row r="156" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B156" s="8">
         <f>1.972/0.717</f>
@@ -4886,7 +4888,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I156" s="7">
         <v>2</v>
@@ -4922,9 +4924,9 @@
       </c>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B157" s="8">
         <f>(4*0.0893)/0.717</f>
@@ -4940,7 +4942,7 @@
         <v>22</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I157" s="7">
         <v>2</v>
@@ -4976,9 +4978,9 @@
       </c>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B158" s="7">
         <f>0.00006/0.717</f>
@@ -4994,7 +4996,7 @@
         <v>22</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I158" s="7">
         <v>2</v>
@@ -5029,7 +5031,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="11"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5038,12 +5040,12 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5052,7 +5054,7 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>1</v>
       </c>
@@ -5066,7 +5068,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>2</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>4</v>
       </c>
@@ -5094,7 +5096,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
@@ -5108,7 +5110,7 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>8</v>
       </c>
@@ -5122,12 +5124,12 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5136,12 +5138,12 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5150,7 +5152,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>11</v>
       </c>
@@ -5161,7 +5163,7 @@
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
     </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
@@ -5193,39 +5195,39 @@
         <v>16</v>
       </c>
       <c r="K169" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L169" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L169" s="9" t="s">
+      <c r="M169" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M169" s="9" t="s">
+      <c r="N169" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N169" s="9" t="s">
+      <c r="O169" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O169" s="9" t="s">
+      <c r="P169" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P169" s="9" t="s">
+      <c r="Q169" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q169" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S169" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B170" s="7">
         <v>1</v>
@@ -5249,12 +5251,12 @@
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
       <c r="T170" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B171" s="7">
         <f>0.000000283/0.717</f>
@@ -5317,7 +5319,7 @@
     </row>
     <row r="172" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B172" s="7">
         <f>1.972/0.717</f>
@@ -5333,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I172" s="7">
         <v>2</v>
@@ -5369,9 +5371,9 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B173" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5387,7 +5389,7 @@
         <v>22</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I173" s="7">
         <v>2</v>
@@ -5423,9 +5425,9 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B174" s="7">
         <f>0.00006/0.717</f>
@@ -5441,7 +5443,7 @@
         <v>22</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I174" s="7">
         <v>2</v>
@@ -5476,7 +5478,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -5484,12 +5486,12 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5498,7 +5500,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5514,7 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>2</v>
       </c>
@@ -5526,7 +5528,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5540,7 +5542,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
@@ -5554,7 +5556,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -5568,12 +5570,12 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5582,12 +5584,12 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5596,7 +5598,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>11</v>
       </c>
@@ -5607,7 +5609,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>12</v>
       </c>
@@ -5639,37 +5641,37 @@
         <v>16</v>
       </c>
       <c r="K185" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L185" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L185" s="9" t="s">
+      <c r="M185" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M185" s="9" t="s">
+      <c r="N185" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N185" s="9" t="s">
+      <c r="O185" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O185" s="9" t="s">
+      <c r="P185" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P185" s="9" t="s">
+      <c r="Q185" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S185" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="str">
         <f>B176</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
@@ -5696,12 +5698,12 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="T186" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="B187" s="7">
         <f>0.000000283/0.717</f>
@@ -5764,7 +5766,7 @@
     </row>
     <row r="188" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B188" s="7">
         <f>1.972/0.717</f>
@@ -5780,7 +5782,7 @@
         <v>22</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I188" s="7">
         <v>2</v>
@@ -5816,9 +5818,9 @@
       </c>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B189" s="7">
         <f>(4*0.0893)/0.717</f>
@@ -5834,7 +5836,7 @@
         <v>22</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I189" s="7">
         <v>2</v>
@@ -5870,9 +5872,9 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B190" s="7">
         <f>0.00006/0.717</f>
@@ -5888,7 +5890,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I190" s="7">
         <v>2</v>
@@ -5923,7 +5925,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -5931,12 +5933,12 @@
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -5945,7 +5947,7 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>1</v>
       </c>
@@ -5959,12 +5961,12 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -5973,7 +5975,7 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>4</v>
       </c>
@@ -5987,7 +5989,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>6</v>
       </c>
@@ -6001,7 +6003,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>8</v>
       </c>
@@ -6015,12 +6017,12 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6029,12 +6031,12 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6043,7 +6045,7 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>11</v>
       </c>
@@ -6054,7 +6056,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>12</v>
       </c>
@@ -6086,37 +6088,37 @@
         <v>16</v>
       </c>
       <c r="K201" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L201" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L201" s="9" t="s">
+      <c r="M201" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M201" s="9" t="s">
+      <c r="N201" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N201" s="9" t="s">
+      <c r="O201" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O201" s="9" t="s">
+      <c r="P201" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P201" s="9" t="s">
+      <c r="Q201" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q201" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S201" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="str">
         <f>B192</f>
         <v>methane, from biological methanation, with carbon from atmosphere</v>
@@ -6144,12 +6146,12 @@
       <c r="O202" s="8"/>
       <c r="P202" s="8"/>
       <c r="T202" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="203" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B203" s="7">
         <v>2.75</v>
@@ -6164,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="I203" s="7">
         <v>2</v>
@@ -6210,9 +6212,9 @@
       </c>
       <c r="S203" s="10"/>
     </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B204" s="7">
         <v>0.5</v>
@@ -6227,7 +6229,7 @@
         <v>22</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I204" s="7">
         <v>2</v>
@@ -6263,9 +6265,9 @@
       </c>
       <c r="S204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B205" s="7">
         <v>1.55</v>
@@ -6274,16 +6276,16 @@
         <v>9</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I205" s="7">
         <v>2</v>
@@ -6319,9 +6321,9 @@
       </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B206" s="14">
         <f>0.0833/51.3</f>
@@ -6337,10 +6339,10 @@
         <v>22</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I206" s="7">
         <v>2</v>
@@ -6376,28 +6378,28 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B207" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I207" s="7">
         <v>2</v>
@@ -6445,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
@@ -6453,12 +6455,12 @@
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
@@ -6467,7 +6469,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>1</v>
       </c>
@@ -6481,12 +6483,12 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -6495,7 +6497,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>4</v>
       </c>
@@ -6509,7 +6511,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>6</v>
       </c>
@@ -6523,7 +6525,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>8</v>
       </c>
@@ -6537,12 +6539,12 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
@@ -6551,12 +6553,12 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
@@ -6565,7 +6567,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>11</v>
       </c>
@@ -6576,7 +6578,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>12</v>
       </c>
@@ -6608,37 +6610,37 @@
         <v>16</v>
       </c>
       <c r="K218" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L218" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L218" s="9" t="s">
+      <c r="M218" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M218" s="9" t="s">
+      <c r="N218" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N218" s="9" t="s">
+      <c r="O218" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O218" s="9" t="s">
+      <c r="P218" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P218" s="9" t="s">
+      <c r="Q218" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q218" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S218" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="str">
         <f>B209</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
@@ -6666,12 +6668,12 @@
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
       <c r="T219" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="220" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="B220" s="7">
         <v>2.75</v>
@@ -6686,7 +6688,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I220" s="7">
         <v>2</v>
@@ -6732,9 +6734,9 @@
       </c>
       <c r="S220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B221" s="7">
         <v>0.5</v>
@@ -6749,7 +6751,7 @@
         <v>22</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I221" s="7">
         <v>2</v>
@@ -6785,9 +6787,9 @@
       </c>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B222" s="7">
         <v>1.55</v>
@@ -6796,16 +6798,16 @@
         <v>9</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I222" s="7">
         <v>2</v>
@@ -6841,9 +6843,9 @@
       </c>
       <c r="S222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B223" s="14">
         <f>0.0833/51.3</f>
@@ -6859,10 +6861,10 @@
         <v>22</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I223" s="7">
         <v>2</v>
@@ -6898,28 +6900,28 @@
       </c>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B224" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I224" s="7">
         <v>2</v>
@@ -6967,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
@@ -6975,12 +6977,12 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="8"/>
@@ -6989,7 +6991,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>1</v>
       </c>
@@ -7003,12 +7005,12 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
@@ -7017,7 +7019,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>4</v>
       </c>
@@ -7031,7 +7033,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>6</v>
       </c>
@@ -7045,7 +7047,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>8</v>
       </c>
@@ -7059,12 +7061,12 @@
       <c r="O231" s="8"/>
       <c r="P231" s="8"/>
     </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
@@ -7073,12 +7075,12 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
     </row>
-    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
@@ -7087,7 +7089,7 @@
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7100,7 @@
       <c r="O234" s="8"/>
       <c r="P234" s="8"/>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>12</v>
       </c>
@@ -7130,37 +7132,37 @@
         <v>16</v>
       </c>
       <c r="K235" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L235" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L235" s="9" t="s">
+      <c r="M235" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M235" s="9" t="s">
+      <c r="N235" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N235" s="9" t="s">
+      <c r="O235" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O235" s="9" t="s">
+      <c r="P235" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P235" s="9" t="s">
+      <c r="Q235" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q235" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S235" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="str">
         <f>B226</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
@@ -7188,12 +7190,12 @@
       <c r="O236" s="8"/>
       <c r="P236" s="8"/>
       <c r="T236" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="237" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B237" s="7">
         <v>2.75</v>
@@ -7208,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="I237" s="7">
         <v>2</v>
@@ -7254,9 +7256,9 @@
       </c>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B238" s="7">
         <v>0.5</v>
@@ -7271,7 +7273,7 @@
         <v>22</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I238" s="7">
         <v>2</v>
@@ -7307,9 +7309,9 @@
       </c>
       <c r="S238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B239" s="7">
         <v>1.55</v>
@@ -7318,16 +7320,16 @@
         <v>9</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I239" s="7">
         <v>2</v>
@@ -7363,9 +7365,9 @@
       </c>
       <c r="S239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B240" s="14">
         <f>0.0833/51.3</f>
@@ -7381,10 +7383,10 @@
         <v>22</v>
       </c>
       <c r="G240" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I240" s="7">
         <v>2</v>
@@ -7420,28 +7422,28 @@
       </c>
       <c r="S240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B241" s="11">
         <f>(34/51.3)*-1</f>
         <v>-0.66276803118908389</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G241" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I241" s="7">
         <v>2</v>
@@ -7489,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K242" s="8"/>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -7497,12 +7499,12 @@
       <c r="O242" s="8"/>
       <c r="P242" s="8"/>
     </row>
-    <row r="243" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K243" s="8"/>
       <c r="L243" s="8"/>
@@ -7511,7 +7513,7 @@
       <c r="O243" s="8"/>
       <c r="P243" s="8"/>
     </row>
-    <row r="244" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>1</v>
       </c>
@@ -7525,7 +7527,7 @@
       <c r="O244" s="8"/>
       <c r="P244" s="8"/>
     </row>
-    <row r="245" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>2</v>
       </c>
@@ -7539,7 +7541,7 @@
       <c r="O245" s="8"/>
       <c r="P245" s="8"/>
     </row>
-    <row r="246" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>4</v>
       </c>
@@ -7553,7 +7555,7 @@
       <c r="O246" s="8"/>
       <c r="P246" s="8"/>
     </row>
-    <row r="247" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>6</v>
       </c>
@@ -7567,7 +7569,7 @@
       <c r="O247" s="8"/>
       <c r="P247" s="8"/>
     </row>
-    <row r="248" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>8</v>
       </c>
@@ -7581,12 +7583,12 @@
       <c r="O248" s="8"/>
       <c r="P248" s="8"/>
     </row>
-    <row r="249" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K249" s="8"/>
       <c r="L249" s="8"/>
@@ -7595,7 +7597,7 @@
       <c r="O249" s="8"/>
       <c r="P249" s="8"/>
     </row>
-    <row r="250" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>11</v>
       </c>
@@ -7606,7 +7608,7 @@
       <c r="O250" s="8"/>
       <c r="P250" s="8"/>
     </row>
-    <row r="251" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>12</v>
       </c>
@@ -7638,39 +7640,39 @@
         <v>16</v>
       </c>
       <c r="K251" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L251" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L251" s="9" t="s">
+      <c r="M251" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M251" s="9" t="s">
+      <c r="N251" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N251" s="9" t="s">
+      <c r="O251" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O251" s="9" t="s">
+      <c r="P251" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P251" s="9" t="s">
+      <c r="Q251" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q251" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S251" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T251" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B252" s="7">
         <v>1</v>
@@ -7694,18 +7696,18 @@
       <c r="O252" s="8"/>
       <c r="P252" s="8"/>
       <c r="T252" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B253" s="7">
         <v>5940</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>7</v>
@@ -7714,7 +7716,7 @@
         <v>22</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I253" s="7">
         <v>2</v>
@@ -7759,15 +7761,15 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B254" s="7">
         <v>660</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D254" s="7" t="s">
         <v>7</v>
@@ -7776,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I254" s="7">
         <v>2</v>
@@ -7811,7 +7813,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="255" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -7819,12 +7821,12 @@
       <c r="O255" s="8"/>
       <c r="P255" s="8"/>
     </row>
-    <row r="256" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
@@ -7833,7 +7835,7 @@
       <c r="O256" s="8"/>
       <c r="P256" s="8"/>
     </row>
-    <row r="257" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>1</v>
       </c>
@@ -7847,12 +7849,12 @@
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
     </row>
-    <row r="258" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
@@ -7861,7 +7863,7 @@
       <c r="O258" s="8"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>4</v>
       </c>
@@ -7875,7 +7877,7 @@
       <c r="O259" s="8"/>
       <c r="P259" s="8"/>
     </row>
-    <row r="260" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>6</v>
       </c>
@@ -7889,7 +7891,7 @@
       <c r="O260" s="8"/>
       <c r="P260" s="8"/>
     </row>
-    <row r="261" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>8</v>
       </c>
@@ -7903,12 +7905,12 @@
       <c r="O261" s="8"/>
       <c r="P261" s="8"/>
     </row>
-    <row r="262" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
@@ -7917,7 +7919,7 @@
       <c r="O262" s="8"/>
       <c r="P262" s="8"/>
     </row>
-    <row r="263" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>11</v>
       </c>
@@ -7928,7 +7930,7 @@
       <c r="O263" s="8"/>
       <c r="P263" s="8"/>
     </row>
-    <row r="264" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>12</v>
       </c>
@@ -7960,39 +7962,39 @@
         <v>16</v>
       </c>
       <c r="K264" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L264" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L264" s="9" t="s">
+      <c r="M264" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M264" s="9" t="s">
+      <c r="N264" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="N264" s="9" t="s">
+      <c r="O264" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O264" s="9" t="s">
+      <c r="P264" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P264" s="9" t="s">
+      <c r="Q264" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="Q264" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="R264" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S264" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T264" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B265" s="7">
         <v>1</v>
@@ -8007,7 +8009,7 @@
         <v>19</v>
       </c>
       <c r="G265" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
@@ -8016,18 +8018,18 @@
       <c r="O265" s="8"/>
       <c r="P265" s="8"/>
       <c r="T265" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B266" s="7">
         <v>0.81</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D266" s="7" t="s">
         <v>7</v>
@@ -8036,7 +8038,7 @@
         <v>22</v>
       </c>
       <c r="G266" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I266" s="7">
         <v>2</v>
@@ -8081,15 +8083,15 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B267" s="7">
         <v>0.19</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D267" s="7" t="s">
         <v>7</v>
@@ -8098,7 +8100,7 @@
         <v>22</v>
       </c>
       <c r="G267" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I267" s="7">
         <v>2</v>
@@ -8133,7 +8135,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="8"/>
@@ -8142,7 +8144,19 @@
       <c r="P268" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T268" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T268" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="carbon dioxide, captured at cement production plant, for subsequent reuse"/>
+        <filter val="carbon dioxide, captured at municipal solid waste incineration plant, for subsequent reuse"/>
+        <filter val="carbon dioxide, captured at synthetic natural gas plant, post, 200km pipeline, storage 1000m"/>
+        <filter val="carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2, with heat pump heat, and grid electricity"/>
+        <filter val="carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2"/>
+        <filter val="carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2, with waste heat, and grid electricity"/>
+        <filter val="Carbon dioxide, non-fossil"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B233" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
     <hyperlink ref="B216" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>

--- a/premise/data/additional_inventories/lci-syngas.xlsx
+++ b/premise/data/additional_inventories/lci-syngas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76BC81-512D-1048-94BF-903A046FF794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D54B4-BADF-514A-8141-66591AFC306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,11 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1028,10 +1027,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1079,12 +1078,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1842,7 +1841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2041,9 +2040,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2091,12 +2088,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -2166,7 +2163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2195,7 +2192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -2631,7 +2628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -2896,7 +2893,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>167</v>
       </c>
@@ -2920,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -3054,7 +3051,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -3127,8 +3124,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,7 +3132,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -3184,12 +3180,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3250,7 +3246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3276,7 +3272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3302,7 +3298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -3349,7 +3345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -3410,7 +3406,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>150</v>
       </c>
@@ -3442,7 +3438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -3538,7 +3534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -3570,7 +3566,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -3698,8 +3694,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3708,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +3722,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>2</v>
       </c>
@@ -3741,7 +3736,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +3750,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -3769,7 +3764,7 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>8</v>
       </c>
@@ -3783,7 +3778,7 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3792,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>30</v>
       </c>
@@ -3811,7 +3806,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +3817,7 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
     </row>
-    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>12</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>167</v>
       </c>
@@ -3913,7 +3908,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>124</v>
       </c>
@@ -4030,7 +4025,7 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>160</v>
       </c>
@@ -4084,7 +4079,7 @@
       </c>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>125</v>
       </c>
@@ -4137,7 +4132,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="11"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4146,7 +4141,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4155,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>1</v>
       </c>
@@ -4174,7 +4169,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>2</v>
       </c>
@@ -4188,7 +4183,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>4</v>
       </c>
@@ -4202,7 +4197,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4211,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>8</v>
       </c>
@@ -4230,7 +4225,7 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>10</v>
       </c>
@@ -4244,7 +4239,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>30</v>
       </c>
@@ -4258,7 +4253,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>11</v>
       </c>
@@ -4269,7 +4264,7 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>12</v>
       </c>
@@ -4331,7 +4326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>176</v>
       </c>
@@ -4360,7 +4355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>124</v>
       </c>
@@ -4477,7 +4472,7 @@
       </c>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>160</v>
       </c>
@@ -4531,7 +4526,7 @@
       </c>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>125</v>
       </c>
@@ -4584,7 +4579,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" s="11"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4593,7 +4588,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +4602,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>1</v>
       </c>
@@ -4621,7 +4616,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>2</v>
       </c>
@@ -4635,7 +4630,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
@@ -4649,7 +4644,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4658,7 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>8</v>
       </c>
@@ -4677,7 +4672,7 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>10</v>
       </c>
@@ -4691,7 +4686,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>30</v>
       </c>
@@ -4705,7 +4700,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>11</v>
       </c>
@@ -4716,7 +4711,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>177</v>
       </c>
@@ -4807,7 +4802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>124</v>
       </c>
@@ -4924,7 +4919,7 @@
       </c>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>160</v>
       </c>
@@ -4978,7 +4973,7 @@
       </c>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>125</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B159" s="11"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5040,7 +5035,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5049,7 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>1</v>
       </c>
@@ -5068,7 +5063,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>2</v>
       </c>
@@ -5082,7 +5077,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>4</v>
       </c>
@@ -5096,7 +5091,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>6</v>
       </c>
@@ -5110,7 +5105,7 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>8</v>
       </c>
@@ -5124,7 +5119,7 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>10</v>
       </c>
@@ -5138,7 +5133,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>30</v>
       </c>
@@ -5152,7 +5147,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>11</v>
       </c>
@@ -5163,7 +5158,7 @@
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
     </row>
-    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>127</v>
       </c>
@@ -5254,7 +5249,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>124</v>
       </c>
@@ -5371,7 +5366,7 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>160</v>
       </c>
@@ -5425,7 +5420,7 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>125</v>
       </c>
@@ -5478,7 +5473,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
@@ -5486,7 +5481,7 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>0</v>
       </c>
@@ -5500,7 +5495,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>1</v>
       </c>
@@ -5514,7 +5509,7 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>2</v>
       </c>
@@ -5528,7 +5523,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5537,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
@@ -5556,7 +5551,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -5570,7 +5565,7 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>10</v>
       </c>
@@ -5584,7 +5579,7 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>30</v>
       </c>
@@ -5598,7 +5593,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>11</v>
       </c>
@@ -5609,7 +5604,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>12</v>
       </c>
@@ -5671,7 +5666,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="str">
         <f>B176</f>
         <v>methane, from electrochemical methanation, with carbon from municipal waste incineration plant</v>
@@ -5701,7 +5696,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>124</v>
       </c>
@@ -5818,7 +5813,7 @@
       </c>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>160</v>
       </c>
@@ -5872,7 +5867,7 @@
       </c>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>125</v>
       </c>
@@ -5925,7 +5920,7 @@
         <v>0.1623708273741902</v>
       </c>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8"/>
@@ -5933,7 +5928,7 @@
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>0</v>
       </c>
@@ -5947,7 +5942,7 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>1</v>
       </c>
@@ -5961,7 +5956,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +5970,7 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>4</v>
       </c>
@@ -5989,7 +5984,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>6</v>
       </c>
@@ -6003,7 +5998,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>8</v>
       </c>
@@ -6017,7 +6012,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6026,7 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>30</v>
       </c>
@@ -6045,7 +6040,7 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>11</v>
       </c>
@@ -6056,7 +6051,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>12</v>
       </c>
@@ -6118,7 +6113,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="str">
         <f>B192</f>
         <v>methane, from biological methanation, with carbon from atmosphere</v>
@@ -6212,7 +6207,7 @@
       </c>
       <c r="S203" s="10"/>
     </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>160</v>
       </c>
@@ -6265,7 +6260,7 @@
       </c>
       <c r="S204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
         <v>149</v>
       </c>
@@ -6321,7 +6316,7 @@
       </c>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>133</v>
       </c>
@@ -6378,7 +6373,7 @@
       </c>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>136</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
       <c r="M208" s="8"/>
@@ -6455,7 +6450,7 @@
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +6464,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>1</v>
       </c>
@@ -6483,7 +6478,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>2</v>
       </c>
@@ -6497,7 +6492,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>4</v>
       </c>
@@ -6511,7 +6506,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>6</v>
       </c>
@@ -6525,7 +6520,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>8</v>
       </c>
@@ -6539,7 +6534,7 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6548,7 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>30</v>
       </c>
@@ -6567,7 +6562,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>11</v>
       </c>
@@ -6578,7 +6573,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>12</v>
       </c>
@@ -6640,7 +6635,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="str">
         <f>B209</f>
         <v>methane, from biological methanation, with carbon from cement plant</v>
@@ -6734,7 +6729,7 @@
       </c>
       <c r="S220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
         <v>160</v>
       </c>
@@ -6787,7 +6782,7 @@
       </c>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
         <v>149</v>
       </c>
@@ -6843,7 +6838,7 @@
       </c>
       <c r="S222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>133</v>
       </c>
@@ -6900,7 +6895,7 @@
       </c>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>136</v>
       </c>
@@ -6969,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
@@ -6977,7 +6972,7 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>0</v>
       </c>
@@ -6991,7 +6986,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>1</v>
       </c>
@@ -7005,7 +7000,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>2</v>
       </c>
@@ -7019,7 +7014,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>4</v>
       </c>
@@ -7033,7 +7028,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>6</v>
       </c>
@@ -7047,7 +7042,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>8</v>
       </c>
@@ -7061,7 +7056,7 @@
       <c r="O231" s="8"/>
       <c r="P231" s="8"/>
     </row>
-    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7070,7 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
     </row>
-    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>30</v>
       </c>
@@ -7089,7 +7084,7 @@
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
     </row>
-    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>11</v>
       </c>
@@ -7100,7 +7095,7 @@
       <c r="O234" s="8"/>
       <c r="P234" s="8"/>
     </row>
-    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>12</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="str">
         <f>B226</f>
         <v>methane, from biological methanation, with carbon from municipal waste incineration plant</v>
@@ -7256,7 +7251,7 @@
       </c>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>160</v>
       </c>
@@ -7309,7 +7304,7 @@
       </c>
       <c r="S238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
         <v>149</v>
       </c>
@@ -7365,7 +7360,7 @@
       </c>
       <c r="S239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="7" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>133</v>
       </c>
@@ -7422,7 +7417,7 @@
       </c>
       <c r="S240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>136</v>
       </c>
@@ -7491,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K242" s="8"/>
       <c r="L242" s="8"/>
       <c r="M242" s="8"/>
@@ -7499,7 +7494,7 @@
       <c r="O242" s="8"/>
       <c r="P242" s="8"/>
     </row>
-    <row r="243" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>0</v>
       </c>
@@ -7513,7 +7508,7 @@
       <c r="O243" s="8"/>
       <c r="P243" s="8"/>
     </row>
-    <row r="244" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>1</v>
       </c>
@@ -7527,7 +7522,7 @@
       <c r="O244" s="8"/>
       <c r="P244" s="8"/>
     </row>
-    <row r="245" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>2</v>
       </c>
@@ -7541,7 +7536,7 @@
       <c r="O245" s="8"/>
       <c r="P245" s="8"/>
     </row>
-    <row r="246" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>4</v>
       </c>
@@ -7555,7 +7550,7 @@
       <c r="O246" s="8"/>
       <c r="P246" s="8"/>
     </row>
-    <row r="247" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>6</v>
       </c>
@@ -7569,7 +7564,7 @@
       <c r="O247" s="8"/>
       <c r="P247" s="8"/>
     </row>
-    <row r="248" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>8</v>
       </c>
@@ -7583,7 +7578,7 @@
       <c r="O248" s="8"/>
       <c r="P248" s="8"/>
     </row>
-    <row r="249" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>30</v>
       </c>
@@ -7597,7 +7592,7 @@
       <c r="O249" s="8"/>
       <c r="P249" s="8"/>
     </row>
-    <row r="250" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>11</v>
       </c>
@@ -7608,7 +7603,7 @@
       <c r="O250" s="8"/>
       <c r="P250" s="8"/>
     </row>
-    <row r="251" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>12</v>
       </c>
@@ -7670,7 +7665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="252" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>124</v>
       </c>
@@ -7699,7 +7694,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="253" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>143</v>
       </c>
@@ -7761,7 +7756,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="254" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>145</v>
       </c>
@@ -7813,7 +7808,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="255" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K255" s="8"/>
       <c r="L255" s="8"/>
       <c r="M255" s="8"/>
@@ -7821,7 +7816,7 @@
       <c r="O255" s="8"/>
       <c r="P255" s="8"/>
     </row>
-    <row r="256" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>0</v>
       </c>
@@ -7835,7 +7830,7 @@
       <c r="O256" s="8"/>
       <c r="P256" s="8"/>
     </row>
-    <row r="257" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>1</v>
       </c>
@@ -7849,7 +7844,7 @@
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
     </row>
-    <row r="258" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>2</v>
       </c>
@@ -7863,7 +7858,7 @@
       <c r="O258" s="8"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>4</v>
       </c>
@@ -7877,7 +7872,7 @@
       <c r="O259" s="8"/>
       <c r="P259" s="8"/>
     </row>
-    <row r="260" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>6</v>
       </c>
@@ -7891,7 +7886,7 @@
       <c r="O260" s="8"/>
       <c r="P260" s="8"/>
     </row>
-    <row r="261" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>8</v>
       </c>
@@ -7905,7 +7900,7 @@
       <c r="O261" s="8"/>
       <c r="P261" s="8"/>
     </row>
-    <row r="262" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>30</v>
       </c>
@@ -7919,7 +7914,7 @@
       <c r="O262" s="8"/>
       <c r="P262" s="8"/>
     </row>
-    <row r="263" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>11</v>
       </c>
@@ -7930,7 +7925,7 @@
       <c r="O263" s="8"/>
       <c r="P263" s="8"/>
     </row>
-    <row r="264" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>12</v>
       </c>
@@ -7992,7 +7987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="265" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>125</v>
       </c>
@@ -8021,7 +8016,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="266" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>27</v>
       </c>
@@ -8083,7 +8078,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="267" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>147</v>
       </c>
@@ -8135,7 +8130,7 @@
         <v>0.47095746419981693</v>
       </c>
     </row>
-    <row r="268" spans="1:20" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="8"/>
@@ -8144,19 +8139,7 @@
       <c r="P268" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T268" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="carbon dioxide, captured at cement production plant, for subsequent reuse"/>
-        <filter val="carbon dioxide, captured at municipal solid waste incineration plant, for subsequent reuse"/>
-        <filter val="carbon dioxide, captured at synthetic natural gas plant, post, 200km pipeline, storage 1000m"/>
-        <filter val="carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2, with heat pump heat, and grid electricity"/>
-        <filter val="carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2"/>
-        <filter val="carbon dioxide, captured from atmosphere, with a sorbent-based direct air capture system, 100ktCO2, with waste heat, and grid electricity"/>
-        <filter val="Carbon dioxide, non-fossil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T268" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B233" r:id="rId1" xr:uid="{370194A6-82FA-1042-84BC-56DCB54BB8D6}"/>
     <hyperlink ref="B216" r:id="rId2" xr:uid="{72E0EFBC-E286-C544-8A40-7093FA3EB611}"/>
